--- a/data/testedatasetv2b.xlsx
+++ b/data/testedatasetv2b.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Pontuações gaming" sheetId="3" r:id="rId2"/>
     <sheet name="TABELA PONTUAÇÃO" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataFrame!$A$1:$W$409</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="74">
   <si>
     <t>GOL</t>
   </si>
@@ -233,6 +236,21 @@
   </si>
   <si>
     <t>Pintp</t>
+  </si>
+  <si>
+    <t>Hugo GK</t>
+  </si>
+  <si>
+    <t>Léo do Valle</t>
+  </si>
+  <si>
+    <t>Arthur Diarista</t>
+  </si>
+  <si>
+    <t>Alemão</t>
+  </si>
+  <si>
+    <t>Adriano</t>
   </si>
 </sst>
 </file>
@@ -635,8 +653,8 @@
   <dimension ref="A1:W4598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E403" sqref="E403"/>
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F539" sqref="F539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18276,1782 +18294,7961 @@
       </c>
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
-      <c r="G410" s="3"/>
+      <c r="A410" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C410" s="5">
+        <v>4</v>
+      </c>
+      <c r="D410" s="5">
+        <v>35</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H410" s="5">
+        <v>1</v>
+      </c>
+      <c r="M410" s="5">
+        <v>1</v>
+      </c>
+      <c r="W410" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="3"/>
+      <c r="A411" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C411" s="5">
+        <v>4</v>
+      </c>
+      <c r="D411" s="5">
+        <v>35</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H411" s="5">
+        <v>1</v>
+      </c>
+      <c r="L411" s="5">
+        <v>1</v>
+      </c>
+      <c r="M411" s="5">
+        <v>1</v>
+      </c>
+      <c r="W411" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="412" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
+      <c r="A412" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C412" s="5">
+        <v>4</v>
+      </c>
+      <c r="D412" s="5">
+        <v>35</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H412" s="5">
+        <v>1</v>
+      </c>
+      <c r="M412" s="5">
+        <v>1</v>
+      </c>
+      <c r="W412" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="413" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="3"/>
+      <c r="A413" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C413" s="5">
+        <v>4</v>
+      </c>
+      <c r="D413" s="5">
+        <v>35</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H413" s="5">
+        <v>1</v>
+      </c>
+      <c r="M413" s="5">
+        <v>1</v>
+      </c>
+      <c r="W413" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="414" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
-      <c r="G414" s="3"/>
+      <c r="A414" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C414" s="5">
+        <v>4</v>
+      </c>
+      <c r="D414" s="5">
+        <v>35</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H414" s="5">
+        <v>1</v>
+      </c>
+      <c r="K414" s="5">
+        <v>1</v>
+      </c>
+      <c r="M414" s="5">
+        <v>1</v>
+      </c>
+      <c r="W414" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="3"/>
+      <c r="A415" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C415" s="5">
+        <v>4</v>
+      </c>
+      <c r="D415" s="5">
+        <v>35</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H415" s="5">
+        <v>1</v>
+      </c>
+      <c r="M415" s="5">
+        <v>1</v>
+      </c>
+      <c r="W415" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="416" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
-      <c r="G416" s="3"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
-      <c r="G417" s="3"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="G419" s="3"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
-      <c r="G427" s="3"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="G437" s="3"/>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="E438" s="3"/>
-      <c r="F438" s="3"/>
-      <c r="G438" s="3"/>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
-      <c r="G439" s="3"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
-      <c r="G440" s="3"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
-      <c r="G442" s="3"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
-      <c r="G443" s="3"/>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
-      <c r="G444" s="3"/>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="E445" s="3"/>
-      <c r="F445" s="3"/>
-      <c r="G445" s="3"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="E446" s="3"/>
-      <c r="F446" s="3"/>
-      <c r="G446" s="3"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
-      <c r="G447" s="3"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="G449" s="3"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
-      <c r="G450" s="3"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
-      <c r="G451" s="3"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
-      <c r="G452" s="3"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
-      <c r="G453" s="3"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
-      <c r="G454" s="3"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
-      <c r="G455" s="3"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
-      <c r="G456" s="3"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
-      <c r="G457" s="3"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
-      <c r="G458" s="3"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="E459" s="3"/>
-      <c r="F459" s="3"/>
-      <c r="G459" s="3"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
-      <c r="G460" s="3"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="G461" s="3"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-      <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
-      <c r="G462" s="3"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
-      <c r="G463" s="3"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
-      <c r="G464" s="3"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-      <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
-      <c r="G465" s="3"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="E466" s="3"/>
-      <c r="F466" s="3"/>
-      <c r="G466" s="3"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
-      <c r="G467" s="3"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-      <c r="E468" s="3"/>
-      <c r="F468" s="3"/>
-      <c r="G468" s="3"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="E469" s="3"/>
-      <c r="F469" s="3"/>
-      <c r="G469" s="3"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="E470" s="3"/>
-      <c r="F470" s="3"/>
-      <c r="G470" s="3"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="E471" s="3"/>
-      <c r="F471" s="3"/>
-      <c r="G471" s="3"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
-      <c r="G472" s="3"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-      <c r="E473" s="3"/>
-      <c r="F473" s="3"/>
-      <c r="G473" s="3"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
-      <c r="G474" s="3"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="3"/>
-      <c r="G475" s="3"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="E476" s="3"/>
-      <c r="F476" s="3"/>
-      <c r="G476" s="3"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="E478" s="3"/>
-      <c r="F478" s="3"/>
-      <c r="G478" s="3"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="E479" s="3"/>
-      <c r="F479" s="3"/>
-      <c r="G479" s="3"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="E480" s="3"/>
-      <c r="F480" s="3"/>
-      <c r="G480" s="3"/>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="E481" s="3"/>
-      <c r="F481" s="3"/>
-      <c r="G481" s="3"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="E482" s="3"/>
-      <c r="F482" s="3"/>
-      <c r="G482" s="3"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="E483" s="3"/>
-      <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
-      <c r="G487" s="3"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="E488" s="3"/>
-      <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="E490" s="3"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="E492" s="3"/>
-      <c r="F492" s="3"/>
-      <c r="G492" s="3"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="E493" s="3"/>
-      <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="E494" s="3"/>
-      <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="3"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
-      <c r="G496" s="3"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
-      <c r="G497" s="3"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
-      <c r="G498" s="3"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-      <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
-      <c r="G499" s="3"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-      <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
-      <c r="G500" s="3"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="E501" s="3"/>
-      <c r="F501" s="3"/>
-      <c r="G501" s="3"/>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="E502" s="3"/>
-      <c r="F502" s="3"/>
-      <c r="G502" s="3"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
-      <c r="G503" s="3"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-      <c r="E504" s="3"/>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="E505" s="3"/>
-      <c r="F505" s="3"/>
-      <c r="G505" s="3"/>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
-      <c r="E506" s="3"/>
-      <c r="F506" s="3"/>
-      <c r="G506" s="3"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="E507" s="3"/>
-      <c r="F507" s="3"/>
-      <c r="G507" s="3"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="E508" s="3"/>
-      <c r="F508" s="3"/>
-      <c r="G508" s="3"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
-      <c r="E509" s="3"/>
-      <c r="F509" s="3"/>
-      <c r="G509" s="3"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
-      <c r="E510" s="3"/>
-      <c r="F510" s="3"/>
-      <c r="G510" s="3"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="E511" s="3"/>
-      <c r="F511" s="3"/>
-      <c r="G511" s="3"/>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="E512" s="3"/>
-      <c r="F512" s="3"/>
-      <c r="G512" s="3"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="E513" s="3"/>
-      <c r="F513" s="3"/>
-      <c r="G513" s="3"/>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
-      <c r="E514" s="3"/>
-      <c r="F514" s="3"/>
-      <c r="G514" s="3"/>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
-      <c r="E515" s="3"/>
-      <c r="F515" s="3"/>
-      <c r="G515" s="3"/>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="E516" s="3"/>
-      <c r="F516" s="3"/>
-      <c r="G516" s="3"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="E517" s="3"/>
-      <c r="F517" s="3"/>
-      <c r="G517" s="3"/>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="E518" s="3"/>
-      <c r="F518" s="3"/>
-      <c r="G518" s="3"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="E519" s="3"/>
-      <c r="F519" s="3"/>
-      <c r="G519" s="3"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="E520" s="3"/>
-      <c r="F520" s="3"/>
-      <c r="G520" s="3"/>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="E521" s="3"/>
-      <c r="F521" s="3"/>
-      <c r="G521" s="3"/>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-      <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
-      <c r="G522" s="3"/>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-      <c r="E523" s="3"/>
-      <c r="F523" s="3"/>
-      <c r="G523" s="3"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-      <c r="E524" s="3"/>
-      <c r="F524" s="3"/>
-      <c r="G524" s="3"/>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
-      <c r="G525" s="3"/>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-      <c r="E526" s="3"/>
-      <c r="F526" s="3"/>
-      <c r="G526" s="3"/>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="E527" s="3"/>
-      <c r="F527" s="3"/>
-      <c r="G527" s="3"/>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
-      <c r="E528" s="3"/>
-      <c r="F528" s="3"/>
-      <c r="G528" s="3"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-      <c r="E529" s="3"/>
-      <c r="F529" s="3"/>
-      <c r="G529" s="3"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
-      <c r="E530" s="3"/>
-      <c r="F530" s="3"/>
-      <c r="G530" s="3"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
-      <c r="E531" s="3"/>
-      <c r="F531" s="3"/>
-      <c r="G531" s="3"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
-      <c r="E532" s="3"/>
-      <c r="F532" s="3"/>
-      <c r="G532" s="3"/>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
-      <c r="E533" s="3"/>
-      <c r="F533" s="3"/>
-      <c r="G533" s="3"/>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
-      <c r="E534" s="3"/>
-      <c r="F534" s="3"/>
-      <c r="G534" s="3"/>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
-      <c r="E535" s="3"/>
-      <c r="F535" s="3"/>
-      <c r="G535" s="3"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-      <c r="E536" s="3"/>
-      <c r="F536" s="3"/>
-      <c r="G536" s="3"/>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-      <c r="E537" s="3"/>
-      <c r="F537" s="3"/>
-      <c r="G537" s="3"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
-      <c r="E538" s="3"/>
-      <c r="F538" s="3"/>
-      <c r="G538" s="3"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-      <c r="E539" s="3"/>
-      <c r="F539" s="3"/>
-      <c r="G539" s="3"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
-      <c r="E540" s="3"/>
-      <c r="F540" s="3"/>
-      <c r="G540" s="3"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-      <c r="E541" s="3"/>
-      <c r="F541" s="3"/>
-      <c r="G541" s="3"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="E542" s="3"/>
-      <c r="F542" s="3"/>
-      <c r="G542" s="3"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
-      <c r="E543" s="3"/>
-      <c r="F543" s="3"/>
-      <c r="G543" s="3"/>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
-      <c r="E544" s="3"/>
-      <c r="F544" s="3"/>
-      <c r="G544" s="3"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-      <c r="E545" s="3"/>
-      <c r="F545" s="3"/>
-      <c r="G545" s="3"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-      <c r="E546" s="3"/>
-      <c r="F546" s="3"/>
-      <c r="G546" s="3"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="E547" s="3"/>
-      <c r="F547" s="3"/>
-      <c r="G547" s="3"/>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="E548" s="3"/>
-      <c r="F548" s="3"/>
-      <c r="G548" s="3"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-      <c r="E549" s="3"/>
-      <c r="F549" s="3"/>
-      <c r="G549" s="3"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-      <c r="E550" s="3"/>
-      <c r="F550" s="3"/>
-      <c r="G550" s="3"/>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="E551" s="3"/>
-      <c r="F551" s="3"/>
-      <c r="G551" s="3"/>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-      <c r="E552" s="3"/>
-      <c r="F552" s="3"/>
-      <c r="G552" s="3"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-      <c r="E553" s="3"/>
-      <c r="F553" s="3"/>
-      <c r="G553" s="3"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-      <c r="E554" s="3"/>
-      <c r="F554" s="3"/>
-      <c r="G554" s="3"/>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-      <c r="E555" s="3"/>
-      <c r="F555" s="3"/>
-      <c r="G555" s="3"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="E556" s="3"/>
-      <c r="F556" s="3"/>
-      <c r="G556" s="3"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="E557" s="3"/>
-      <c r="F557" s="3"/>
-      <c r="G557" s="3"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-      <c r="E558" s="3"/>
-      <c r="F558" s="3"/>
-      <c r="G558" s="3"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-      <c r="E559" s="3"/>
-      <c r="F559" s="3"/>
-      <c r="G559" s="3"/>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
-      <c r="E560" s="3"/>
-      <c r="F560" s="3"/>
-      <c r="G560" s="3"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
-      <c r="E561" s="3"/>
-      <c r="F561" s="3"/>
-      <c r="G561" s="3"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
-      <c r="E562" s="3"/>
-      <c r="F562" s="3"/>
-      <c r="G562" s="3"/>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="E563" s="3"/>
-      <c r="F563" s="3"/>
-      <c r="G563" s="3"/>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-      <c r="E564" s="3"/>
-      <c r="F564" s="3"/>
-      <c r="G564" s="3"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-      <c r="E565" s="3"/>
-      <c r="F565" s="3"/>
-      <c r="G565" s="3"/>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="E566" s="3"/>
-      <c r="F566" s="3"/>
-      <c r="G566" s="3"/>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
-      <c r="E567" s="3"/>
-      <c r="F567" s="3"/>
-      <c r="G567" s="3"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
-      <c r="E568" s="3"/>
-      <c r="F568" s="3"/>
-      <c r="G568" s="3"/>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
-      <c r="E569" s="3"/>
-      <c r="F569" s="3"/>
-      <c r="G569" s="3"/>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
-      <c r="E570" s="3"/>
-      <c r="F570" s="3"/>
-      <c r="G570" s="3"/>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
-      <c r="E571" s="3"/>
-      <c r="F571" s="3"/>
-      <c r="G571" s="3"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
-      <c r="E572" s="3"/>
-      <c r="F572" s="3"/>
-      <c r="G572" s="3"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
-      <c r="E573" s="3"/>
-      <c r="F573" s="3"/>
-      <c r="G573" s="3"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
-      <c r="E574" s="3"/>
-      <c r="F574" s="3"/>
-      <c r="G574" s="3"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
-      <c r="E575" s="3"/>
-      <c r="F575" s="3"/>
-      <c r="G575" s="3"/>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
-      <c r="E576" s="3"/>
-      <c r="F576" s="3"/>
-      <c r="G576" s="3"/>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
-      <c r="E577" s="3"/>
-      <c r="F577" s="3"/>
-      <c r="G577" s="3"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A578" s="2"/>
-      <c r="B578" s="2"/>
-      <c r="E578" s="3"/>
-      <c r="F578" s="3"/>
-      <c r="G578" s="3"/>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A579" s="2"/>
-      <c r="B579" s="2"/>
-      <c r="E579" s="3"/>
-      <c r="F579" s="3"/>
-      <c r="G579" s="3"/>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A580" s="2"/>
-      <c r="B580" s="2"/>
-      <c r="E580" s="3"/>
-      <c r="F580" s="3"/>
-      <c r="G580" s="3"/>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A581" s="2"/>
-      <c r="B581" s="2"/>
-      <c r="E581" s="3"/>
-      <c r="F581" s="3"/>
-      <c r="G581" s="3"/>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A582" s="2"/>
-      <c r="B582" s="2"/>
-      <c r="E582" s="3"/>
-      <c r="F582" s="3"/>
-      <c r="G582" s="3"/>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A583" s="2"/>
-      <c r="B583" s="2"/>
-      <c r="E583" s="3"/>
-      <c r="F583" s="3"/>
-      <c r="G583" s="3"/>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A584" s="2"/>
-      <c r="B584" s="2"/>
-      <c r="E584" s="3"/>
-      <c r="F584" s="3"/>
-      <c r="G584" s="3"/>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A585" s="2"/>
-      <c r="B585" s="2"/>
-      <c r="E585" s="3"/>
-      <c r="F585" s="3"/>
-      <c r="G585" s="3"/>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A586" s="2"/>
-      <c r="B586" s="2"/>
-      <c r="E586" s="3"/>
-      <c r="F586" s="3"/>
-      <c r="G586" s="3"/>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A587" s="2"/>
-      <c r="B587" s="2"/>
-      <c r="E587" s="3"/>
-      <c r="F587" s="3"/>
-      <c r="G587" s="3"/>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" s="2"/>
-      <c r="B588" s="2"/>
-      <c r="E588" s="3"/>
-      <c r="F588" s="3"/>
-      <c r="G588" s="3"/>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A589" s="2"/>
-      <c r="B589" s="2"/>
-      <c r="E589" s="3"/>
-      <c r="F589" s="3"/>
-      <c r="G589" s="3"/>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A590" s="2"/>
-      <c r="B590" s="2"/>
-      <c r="E590" s="3"/>
-      <c r="F590" s="3"/>
-      <c r="G590" s="3"/>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A591" s="2"/>
-      <c r="B591" s="2"/>
-      <c r="E591" s="3"/>
-      <c r="F591" s="3"/>
-      <c r="G591" s="3"/>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="2"/>
-      <c r="B592" s="2"/>
-      <c r="E592" s="3"/>
-      <c r="F592" s="3"/>
-      <c r="G592" s="3"/>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A593" s="2"/>
-      <c r="B593" s="2"/>
-      <c r="E593" s="3"/>
-      <c r="F593" s="3"/>
-      <c r="G593" s="3"/>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A594" s="2"/>
-      <c r="B594" s="2"/>
-      <c r="E594" s="3"/>
-      <c r="F594" s="3"/>
-      <c r="G594" s="3"/>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A595" s="2"/>
-      <c r="B595" s="2"/>
-      <c r="E595" s="3"/>
-      <c r="F595" s="3"/>
-      <c r="G595" s="3"/>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A596" s="2"/>
-      <c r="B596" s="2"/>
-      <c r="E596" s="3"/>
-      <c r="F596" s="3"/>
-      <c r="G596" s="3"/>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A597" s="2"/>
-      <c r="B597" s="2"/>
-      <c r="E597" s="3"/>
-      <c r="F597" s="3"/>
-      <c r="G597" s="3"/>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A598" s="2"/>
-      <c r="B598" s="2"/>
-      <c r="E598" s="3"/>
-      <c r="F598" s="3"/>
-      <c r="G598" s="3"/>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
-      <c r="E599" s="3"/>
-      <c r="F599" s="3"/>
-      <c r="G599" s="3"/>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A600" s="2"/>
-      <c r="B600" s="2"/>
-      <c r="E600" s="3"/>
-      <c r="F600" s="3"/>
-      <c r="G600" s="3"/>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A601" s="2"/>
-      <c r="B601" s="2"/>
-      <c r="E601" s="3"/>
-      <c r="F601" s="3"/>
-      <c r="G601" s="3"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" s="2"/>
-      <c r="B602" s="2"/>
-      <c r="E602" s="3"/>
-      <c r="F602" s="3"/>
-      <c r="G602" s="3"/>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
-      <c r="E603" s="3"/>
-      <c r="F603" s="3"/>
-      <c r="G603" s="3"/>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A604" s="2"/>
-      <c r="B604" s="2"/>
-      <c r="E604" s="3"/>
-      <c r="F604" s="3"/>
-      <c r="G604" s="3"/>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A605" s="2"/>
-      <c r="B605" s="2"/>
-      <c r="E605" s="3"/>
-      <c r="F605" s="3"/>
-      <c r="G605" s="3"/>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A606" s="2"/>
-      <c r="B606" s="2"/>
-      <c r="E606" s="3"/>
-      <c r="F606" s="3"/>
-      <c r="G606" s="3"/>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A607" s="2"/>
-      <c r="B607" s="2"/>
-      <c r="E607" s="3"/>
-      <c r="F607" s="3"/>
-      <c r="G607" s="3"/>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A608" s="2"/>
-      <c r="B608" s="2"/>
-      <c r="E608" s="3"/>
-      <c r="F608" s="3"/>
-      <c r="G608" s="3"/>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A609" s="2"/>
-      <c r="B609" s="2"/>
-      <c r="E609" s="3"/>
-      <c r="F609" s="3"/>
-      <c r="G609" s="3"/>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A610" s="2"/>
-      <c r="B610" s="2"/>
-      <c r="E610" s="3"/>
-      <c r="F610" s="3"/>
-      <c r="G610" s="3"/>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A611" s="2"/>
-      <c r="B611" s="2"/>
-      <c r="E611" s="3"/>
-      <c r="F611" s="3"/>
-      <c r="G611" s="3"/>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A612" s="2"/>
-      <c r="B612" s="2"/>
-      <c r="E612" s="3"/>
-      <c r="F612" s="3"/>
-      <c r="G612" s="3"/>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A613" s="2"/>
-      <c r="B613" s="2"/>
-      <c r="E613" s="3"/>
-      <c r="F613" s="3"/>
-      <c r="G613" s="3"/>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A614" s="2"/>
-      <c r="B614" s="2"/>
-      <c r="E614" s="3"/>
-      <c r="F614" s="3"/>
-      <c r="G614" s="3"/>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A615" s="2"/>
-      <c r="B615" s="2"/>
-      <c r="E615" s="3"/>
-      <c r="F615" s="3"/>
-      <c r="G615" s="3"/>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" s="2"/>
-      <c r="B616" s="2"/>
-      <c r="E616" s="3"/>
-      <c r="F616" s="3"/>
-      <c r="G616" s="3"/>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A617" s="2"/>
-      <c r="B617" s="2"/>
-      <c r="E617" s="3"/>
-      <c r="F617" s="3"/>
-      <c r="G617" s="3"/>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" s="2"/>
-      <c r="B618" s="2"/>
-      <c r="E618" s="3"/>
-      <c r="F618" s="3"/>
-      <c r="G618" s="3"/>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" s="2"/>
-      <c r="B619" s="2"/>
-      <c r="E619" s="3"/>
-      <c r="F619" s="3"/>
-      <c r="G619" s="3"/>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" s="2"/>
-      <c r="B620" s="2"/>
-      <c r="E620" s="3"/>
-      <c r="F620" s="3"/>
-      <c r="G620" s="3"/>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" s="2"/>
-      <c r="B621" s="2"/>
-      <c r="E621" s="3"/>
-      <c r="F621" s="3"/>
-      <c r="G621" s="3"/>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A622" s="2"/>
-      <c r="B622" s="2"/>
-      <c r="E622" s="3"/>
-      <c r="F622" s="3"/>
-      <c r="G622" s="3"/>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A623" s="2"/>
-      <c r="B623" s="2"/>
-      <c r="E623" s="3"/>
-      <c r="F623" s="3"/>
-      <c r="G623" s="3"/>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A624" s="2"/>
-      <c r="B624" s="2"/>
-      <c r="E624" s="3"/>
-      <c r="F624" s="3"/>
-      <c r="G624" s="3"/>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="2"/>
-      <c r="B625" s="2"/>
-      <c r="E625" s="3"/>
-      <c r="F625" s="3"/>
-      <c r="G625" s="3"/>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A626" s="2"/>
-      <c r="B626" s="2"/>
-      <c r="E626" s="3"/>
-      <c r="F626" s="3"/>
-      <c r="G626" s="3"/>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A627" s="2"/>
-      <c r="B627" s="2"/>
-      <c r="E627" s="3"/>
-      <c r="F627" s="3"/>
-      <c r="G627" s="3"/>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A628" s="2"/>
-      <c r="B628" s="2"/>
-      <c r="E628" s="3"/>
-      <c r="F628" s="3"/>
-      <c r="G628" s="3"/>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A629" s="2"/>
-      <c r="B629" s="2"/>
-      <c r="E629" s="3"/>
-      <c r="F629" s="3"/>
-      <c r="G629" s="3"/>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A630" s="2"/>
-      <c r="B630" s="2"/>
-      <c r="F630" s="3"/>
-      <c r="G630" s="3"/>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A631" s="2"/>
-      <c r="B631" s="2"/>
-      <c r="E631" s="3"/>
-      <c r="F631" s="3"/>
-      <c r="G631" s="3"/>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A632" s="2"/>
-      <c r="B632" s="2"/>
-      <c r="E632" s="3"/>
-      <c r="F632" s="3"/>
-      <c r="G632" s="3"/>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A633" s="2"/>
-      <c r="B633" s="2"/>
-      <c r="E633" s="3"/>
-      <c r="F633" s="3"/>
-      <c r="G633" s="3"/>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" s="2"/>
-      <c r="B634" s="2"/>
-      <c r="E634" s="3"/>
-      <c r="F634" s="3"/>
-      <c r="G634" s="3"/>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A635" s="2"/>
-      <c r="B635" s="2"/>
-      <c r="E635" s="3"/>
-      <c r="F635" s="3"/>
-      <c r="G635" s="3"/>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A636" s="2"/>
-      <c r="B636" s="2"/>
-      <c r="E636" s="3"/>
-      <c r="F636" s="3"/>
-      <c r="G636" s="3"/>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A637" s="2"/>
-      <c r="B637" s="2"/>
-      <c r="E637" s="3"/>
-      <c r="F637" s="3"/>
-      <c r="G637" s="3"/>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A638" s="2"/>
-      <c r="B638" s="2"/>
-      <c r="E638" s="3"/>
-      <c r="F638" s="3"/>
-      <c r="G638" s="3"/>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A639" s="2"/>
-      <c r="B639" s="2"/>
-      <c r="E639" s="3"/>
-      <c r="F639" s="3"/>
-      <c r="G639" s="3"/>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A640" s="2"/>
-      <c r="B640" s="2"/>
-      <c r="E640" s="3"/>
-      <c r="F640" s="3"/>
-      <c r="G640" s="3"/>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A641" s="2"/>
-      <c r="B641" s="2"/>
-      <c r="E641" s="3"/>
-      <c r="F641" s="3"/>
-      <c r="G641" s="3"/>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A642" s="2"/>
-      <c r="B642" s="2"/>
-      <c r="F642" s="3"/>
-      <c r="G642" s="3"/>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A643" s="2"/>
-      <c r="B643" s="2"/>
-      <c r="E643" s="3"/>
-      <c r="F643" s="3"/>
-      <c r="G643" s="3"/>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A644" s="2"/>
-      <c r="B644" s="2"/>
-      <c r="E644" s="3"/>
-      <c r="F644" s="3"/>
-      <c r="G644" s="3"/>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A645" s="2"/>
-      <c r="B645" s="2"/>
-      <c r="E645" s="3"/>
-      <c r="F645" s="3"/>
-      <c r="G645" s="3"/>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A646" s="2"/>
-      <c r="B646" s="2"/>
-      <c r="E646" s="3"/>
-      <c r="F646" s="3"/>
-      <c r="G646" s="3"/>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A647" s="2"/>
-      <c r="B647" s="2"/>
-      <c r="E647" s="3"/>
-      <c r="F647" s="3"/>
-      <c r="G647" s="3"/>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A648" s="2"/>
-      <c r="B648" s="2"/>
-      <c r="G648" s="3"/>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A649" s="2"/>
-      <c r="B649" s="2"/>
-      <c r="G649" s="3"/>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A650" s="2"/>
-      <c r="B650" s="2"/>
-      <c r="G650" s="3"/>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A651" s="2"/>
-      <c r="B651" s="2"/>
-      <c r="G651" s="3"/>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A652" s="2"/>
-      <c r="B652" s="2"/>
-      <c r="G652" s="3"/>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A653" s="2"/>
-      <c r="B653" s="2"/>
-      <c r="G653" s="3"/>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A654" s="2"/>
-      <c r="B654" s="2"/>
-      <c r="G654" s="3"/>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A655" s="2"/>
-      <c r="B655" s="2"/>
-      <c r="G655" s="3"/>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A656" s="2"/>
-      <c r="B656" s="2"/>
-      <c r="G656" s="3"/>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A657" s="2"/>
-      <c r="B657" s="2"/>
-      <c r="G657" s="3"/>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A658" s="2"/>
-      <c r="B658" s="2"/>
-      <c r="G658" s="3"/>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A659" s="2"/>
-      <c r="B659" s="2"/>
-      <c r="G659" s="3"/>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A660" s="2"/>
-      <c r="B660" s="2"/>
-      <c r="G660" s="3"/>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A661" s="2"/>
-      <c r="B661" s="2"/>
-      <c r="G661" s="3"/>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C416" s="5">
+        <v>4</v>
+      </c>
+      <c r="D416" s="5">
+        <v>35</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J416" s="5">
+        <v>1</v>
+      </c>
+      <c r="S416" s="5">
+        <v>1</v>
+      </c>
+      <c r="W416" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C417" s="5">
+        <v>4</v>
+      </c>
+      <c r="D417" s="5">
+        <v>35</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J417" s="5">
+        <v>1</v>
+      </c>
+      <c r="W417" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C418" s="5">
+        <v>4</v>
+      </c>
+      <c r="D418" s="5">
+        <v>35</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J418" s="5">
+        <v>1</v>
+      </c>
+      <c r="W418" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419" s="5">
+        <v>4</v>
+      </c>
+      <c r="D419" s="5">
+        <v>35</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J419" s="5">
+        <v>1</v>
+      </c>
+      <c r="W419" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C420" s="5">
+        <v>4</v>
+      </c>
+      <c r="D420" s="5">
+        <v>35</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J420" s="5">
+        <v>1</v>
+      </c>
+      <c r="W420" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C421" s="5">
+        <v>4</v>
+      </c>
+      <c r="D421" s="5">
+        <v>35</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J421" s="5">
+        <v>1</v>
+      </c>
+      <c r="W421" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C422" s="5">
+        <v>4</v>
+      </c>
+      <c r="D422" s="5">
+        <v>36</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J422" s="5">
+        <v>1</v>
+      </c>
+      <c r="S422" s="5">
+        <v>1</v>
+      </c>
+      <c r="W422" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C423" s="5">
+        <v>4</v>
+      </c>
+      <c r="D423" s="5">
+        <v>36</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J423" s="5">
+        <v>1</v>
+      </c>
+      <c r="W423" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C424" s="5">
+        <v>4</v>
+      </c>
+      <c r="D424" s="5">
+        <v>36</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J424" s="5">
+        <v>1</v>
+      </c>
+      <c r="W424" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C425" s="5">
+        <v>4</v>
+      </c>
+      <c r="D425" s="5">
+        <v>36</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J425" s="5">
+        <v>1</v>
+      </c>
+      <c r="W425" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C426" s="5">
+        <v>4</v>
+      </c>
+      <c r="D426" s="5">
+        <v>36</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J426" s="5">
+        <v>1</v>
+      </c>
+      <c r="W426" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C427" s="5">
+        <v>4</v>
+      </c>
+      <c r="D427" s="5">
+        <v>36</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J427" s="5">
+        <v>1</v>
+      </c>
+      <c r="W427" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C428" s="5">
+        <v>4</v>
+      </c>
+      <c r="D428" s="5">
+        <v>36</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H428" s="5">
+        <v>1</v>
+      </c>
+      <c r="M428" s="5">
+        <v>1</v>
+      </c>
+      <c r="W428" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C429" s="5">
+        <v>4</v>
+      </c>
+      <c r="D429" s="5">
+        <v>36</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H429" s="5">
+        <v>1</v>
+      </c>
+      <c r="M429" s="5">
+        <v>1</v>
+      </c>
+      <c r="W429" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C430" s="5">
+        <v>4</v>
+      </c>
+      <c r="D430" s="5">
+        <v>36</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H430" s="5">
+        <v>1</v>
+      </c>
+      <c r="K430" s="5">
+        <v>1</v>
+      </c>
+      <c r="M430" s="5">
+        <v>1</v>
+      </c>
+      <c r="W430" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C431" s="5">
+        <v>4</v>
+      </c>
+      <c r="D431" s="5">
+        <v>36</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H431" s="5">
+        <v>1</v>
+      </c>
+      <c r="K431" s="5">
+        <v>1</v>
+      </c>
+      <c r="M431" s="5">
+        <v>1</v>
+      </c>
+      <c r="W431" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C432" s="5">
+        <v>4</v>
+      </c>
+      <c r="D432" s="5">
+        <v>36</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H432" s="5">
+        <v>1</v>
+      </c>
+      <c r="M432" s="5">
+        <v>1</v>
+      </c>
+      <c r="W432" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C433" s="5">
+        <v>4</v>
+      </c>
+      <c r="D433" s="5">
+        <v>36</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H433" s="5">
+        <v>1</v>
+      </c>
+      <c r="L433" s="5">
+        <v>1</v>
+      </c>
+      <c r="M433" s="5">
+        <v>1</v>
+      </c>
+      <c r="W433" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C434" s="5">
+        <v>4</v>
+      </c>
+      <c r="D434" s="5">
+        <v>37</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J434" s="5">
+        <v>1</v>
+      </c>
+      <c r="S434" s="5">
+        <v>1</v>
+      </c>
+      <c r="W434" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C435" s="5">
+        <v>4</v>
+      </c>
+      <c r="D435" s="5">
+        <v>37</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J435" s="5">
+        <v>1</v>
+      </c>
+      <c r="W435" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C436" s="5">
+        <v>4</v>
+      </c>
+      <c r="D436" s="5">
+        <v>37</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J436" s="5">
+        <v>1</v>
+      </c>
+      <c r="W436" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C437" s="5">
+        <v>4</v>
+      </c>
+      <c r="D437" s="5">
+        <v>37</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J437" s="5">
+        <v>1</v>
+      </c>
+      <c r="W437" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C438" s="5">
+        <v>4</v>
+      </c>
+      <c r="D438" s="5">
+        <v>37</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J438" s="5">
+        <v>1</v>
+      </c>
+      <c r="W438" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C439" s="5">
+        <v>4</v>
+      </c>
+      <c r="D439" s="5">
+        <v>37</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J439" s="5">
+        <v>1</v>
+      </c>
+      <c r="W439" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C440" s="5">
+        <v>4</v>
+      </c>
+      <c r="D440" s="5">
+        <v>37</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H440" s="5">
+        <v>1</v>
+      </c>
+      <c r="M440" s="5">
+        <v>1</v>
+      </c>
+      <c r="W440" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C441" s="5">
+        <v>4</v>
+      </c>
+      <c r="D441" s="5">
+        <v>37</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H441" s="5">
+        <v>1</v>
+      </c>
+      <c r="M441" s="5">
+        <v>1</v>
+      </c>
+      <c r="W441" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C442" s="5">
+        <v>4</v>
+      </c>
+      <c r="D442" s="5">
+        <v>37</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H442" s="5">
+        <v>1</v>
+      </c>
+      <c r="M442" s="5">
+        <v>1</v>
+      </c>
+      <c r="W442" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C443" s="5">
+        <v>4</v>
+      </c>
+      <c r="D443" s="5">
+        <v>37</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H443" s="5">
+        <v>1</v>
+      </c>
+      <c r="M443" s="5">
+        <v>1</v>
+      </c>
+      <c r="W443" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C444" s="5">
+        <v>4</v>
+      </c>
+      <c r="D444" s="5">
+        <v>37</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H444" s="5">
+        <v>1</v>
+      </c>
+      <c r="K444" s="5">
+        <v>1</v>
+      </c>
+      <c r="M444" s="5">
+        <v>1</v>
+      </c>
+      <c r="W444" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C445" s="5">
+        <v>4</v>
+      </c>
+      <c r="D445" s="5">
+        <v>37</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H445" s="5">
+        <v>1</v>
+      </c>
+      <c r="M445" s="5">
+        <v>1</v>
+      </c>
+      <c r="W445" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C446" s="5">
+        <v>4</v>
+      </c>
+      <c r="D446" s="5">
+        <v>38</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H446" s="5">
+        <v>1</v>
+      </c>
+      <c r="L446" s="5">
+        <v>1</v>
+      </c>
+      <c r="M446" s="5">
+        <v>1</v>
+      </c>
+      <c r="W446" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C447" s="5">
+        <v>4</v>
+      </c>
+      <c r="D447" s="5">
+        <v>38</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H447" s="5">
+        <v>1</v>
+      </c>
+      <c r="M447" s="5">
+        <v>1</v>
+      </c>
+      <c r="W447" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C448" s="5">
+        <v>4</v>
+      </c>
+      <c r="D448" s="5">
+        <v>38</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H448" s="5">
+        <v>1</v>
+      </c>
+      <c r="M448" s="5">
+        <v>1</v>
+      </c>
+      <c r="W448" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C449" s="5">
+        <v>4</v>
+      </c>
+      <c r="D449" s="5">
+        <v>38</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H449" s="5">
+        <v>1</v>
+      </c>
+      <c r="M449" s="5">
+        <v>1</v>
+      </c>
+      <c r="W449" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C450" s="5">
+        <v>4</v>
+      </c>
+      <c r="D450" s="5">
+        <v>38</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H450" s="5">
+        <v>1</v>
+      </c>
+      <c r="M450" s="5">
+        <v>1</v>
+      </c>
+      <c r="W450" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C451" s="5">
+        <v>4</v>
+      </c>
+      <c r="D451" s="5">
+        <v>38</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H451" s="5">
+        <v>1</v>
+      </c>
+      <c r="K451" s="5">
+        <v>1</v>
+      </c>
+      <c r="M451" s="5">
+        <v>1</v>
+      </c>
+      <c r="W451" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C452" s="5">
+        <v>4</v>
+      </c>
+      <c r="D452" s="5">
+        <v>38</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J452" s="5">
+        <v>1</v>
+      </c>
+      <c r="S452" s="5">
+        <v>1</v>
+      </c>
+      <c r="T452" s="5">
+        <v>1</v>
+      </c>
+      <c r="W452" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C453" s="5">
+        <v>4</v>
+      </c>
+      <c r="D453" s="5">
+        <v>38</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J453" s="5">
+        <v>1</v>
+      </c>
+      <c r="W453" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C454" s="5">
+        <v>4</v>
+      </c>
+      <c r="D454" s="5">
+        <v>38</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J454" s="5">
+        <v>1</v>
+      </c>
+      <c r="W454" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C455" s="5">
+        <v>4</v>
+      </c>
+      <c r="D455" s="5">
+        <v>38</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J455" s="5">
+        <v>1</v>
+      </c>
+      <c r="W455" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C456" s="5">
+        <v>4</v>
+      </c>
+      <c r="D456" s="5">
+        <v>38</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J456" s="5">
+        <v>1</v>
+      </c>
+      <c r="W456" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C457" s="5">
+        <v>4</v>
+      </c>
+      <c r="D457" s="5">
+        <v>38</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J457" s="5">
+        <v>1</v>
+      </c>
+      <c r="W457" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C458" s="5">
+        <v>4</v>
+      </c>
+      <c r="D458" s="5">
+        <v>39</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I458" s="5">
+        <v>1</v>
+      </c>
+      <c r="S458" s="5">
+        <v>1</v>
+      </c>
+      <c r="W458" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C459" s="5">
+        <v>4</v>
+      </c>
+      <c r="D459" s="5">
+        <v>39</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I459" s="5">
+        <v>1</v>
+      </c>
+      <c r="L459" s="5">
+        <v>1</v>
+      </c>
+      <c r="W459" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C460" s="5">
+        <v>4</v>
+      </c>
+      <c r="D460" s="5">
+        <v>39</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I460" s="5">
+        <v>1</v>
+      </c>
+      <c r="W460" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C461" s="5">
+        <v>4</v>
+      </c>
+      <c r="D461" s="5">
+        <v>39</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I461" s="5">
+        <v>1</v>
+      </c>
+      <c r="W461" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C462" s="5">
+        <v>4</v>
+      </c>
+      <c r="D462" s="5">
+        <v>39</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I462" s="5">
+        <v>1</v>
+      </c>
+      <c r="W462" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C463" s="5">
+        <v>4</v>
+      </c>
+      <c r="D463" s="5">
+        <v>39</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I463" s="5">
+        <v>1</v>
+      </c>
+      <c r="K463" s="5">
+        <v>1</v>
+      </c>
+      <c r="W463" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C464" s="5">
+        <v>4</v>
+      </c>
+      <c r="D464" s="5">
+        <v>39</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I464" s="5">
+        <v>1</v>
+      </c>
+      <c r="S464" s="5">
+        <v>1</v>
+      </c>
+      <c r="T464" s="5">
+        <v>1</v>
+      </c>
+      <c r="W464" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C465" s="5">
+        <v>4</v>
+      </c>
+      <c r="D465" s="5">
+        <v>39</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I465" s="5">
+        <v>1</v>
+      </c>
+      <c r="L465" s="5">
+        <v>1</v>
+      </c>
+      <c r="W465" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C466" s="5">
+        <v>4</v>
+      </c>
+      <c r="D466" s="5">
+        <v>39</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I466" s="5">
+        <v>1</v>
+      </c>
+      <c r="K466" s="5">
+        <v>1</v>
+      </c>
+      <c r="W466" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C467" s="5">
+        <v>4</v>
+      </c>
+      <c r="D467" s="5">
+        <v>39</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I467" s="5">
+        <v>1</v>
+      </c>
+      <c r="V467" s="5">
+        <v>1</v>
+      </c>
+      <c r="W467" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C468" s="5">
+        <v>4</v>
+      </c>
+      <c r="D468" s="5">
+        <v>39</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I468" s="5">
+        <v>1</v>
+      </c>
+      <c r="W468" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C469" s="5">
+        <v>4</v>
+      </c>
+      <c r="D469" s="5">
+        <v>39</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I469" s="5">
+        <v>1</v>
+      </c>
+      <c r="W469" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C470" s="5">
+        <v>4</v>
+      </c>
+      <c r="D470" s="5">
+        <v>40</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H470" s="5">
+        <v>1</v>
+      </c>
+      <c r="S470" s="5">
+        <v>1</v>
+      </c>
+      <c r="W470" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C471" s="5">
+        <v>4</v>
+      </c>
+      <c r="D471" s="5">
+        <v>40</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H471" s="5">
+        <v>1</v>
+      </c>
+      <c r="L471" s="5">
+        <v>1</v>
+      </c>
+      <c r="W471" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C472" s="5">
+        <v>4</v>
+      </c>
+      <c r="D472" s="5">
+        <v>40</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H472" s="5">
+        <v>1</v>
+      </c>
+      <c r="W472" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C473" s="5">
+        <v>4</v>
+      </c>
+      <c r="D473" s="5">
+        <v>40</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H473" s="5">
+        <v>1</v>
+      </c>
+      <c r="K473" s="5">
+        <v>1</v>
+      </c>
+      <c r="W473" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C474" s="5">
+        <v>4</v>
+      </c>
+      <c r="D474" s="5">
+        <v>40</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H474" s="5">
+        <v>1</v>
+      </c>
+      <c r="W474" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C475" s="5">
+        <v>4</v>
+      </c>
+      <c r="D475" s="5">
+        <v>40</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H475" s="5">
+        <v>1</v>
+      </c>
+      <c r="K475" s="5">
+        <v>1</v>
+      </c>
+      <c r="W475" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C476" s="5">
+        <v>4</v>
+      </c>
+      <c r="D476" s="5">
+        <v>40</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J476" s="5">
+        <v>1</v>
+      </c>
+      <c r="S476" s="5">
+        <v>2</v>
+      </c>
+      <c r="W476" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C477" s="5">
+        <v>4</v>
+      </c>
+      <c r="D477" s="5">
+        <v>40</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J477" s="5">
+        <v>1</v>
+      </c>
+      <c r="L477" s="5">
+        <v>1</v>
+      </c>
+      <c r="W477" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C478" s="5">
+        <v>4</v>
+      </c>
+      <c r="D478" s="5">
+        <v>40</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J478" s="5">
+        <v>1</v>
+      </c>
+      <c r="K478" s="5">
+        <v>1</v>
+      </c>
+      <c r="W478" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C479" s="5">
+        <v>4</v>
+      </c>
+      <c r="D479" s="5">
+        <v>40</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J479" s="5">
+        <v>1</v>
+      </c>
+      <c r="W479" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C480" s="5">
+        <v>4</v>
+      </c>
+      <c r="D480" s="5">
+        <v>40</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J480" s="5">
+        <v>1</v>
+      </c>
+      <c r="W480" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C481" s="5">
+        <v>4</v>
+      </c>
+      <c r="D481" s="5">
+        <v>40</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J481" s="5">
+        <v>1</v>
+      </c>
+      <c r="W481" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C482" s="5">
+        <v>4</v>
+      </c>
+      <c r="D482" s="5">
+        <v>41</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H482" s="5">
+        <v>1</v>
+      </c>
+      <c r="L482" s="5">
+        <v>1</v>
+      </c>
+      <c r="M482" s="5">
+        <v>1</v>
+      </c>
+      <c r="W482" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C483" s="5">
+        <v>4</v>
+      </c>
+      <c r="D483" s="5">
+        <v>41</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H483" s="5">
+        <v>1</v>
+      </c>
+      <c r="M483" s="5">
+        <v>1</v>
+      </c>
+      <c r="W483" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C484" s="5">
+        <v>4</v>
+      </c>
+      <c r="D484" s="5">
+        <v>41</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H484" s="5">
+        <v>1</v>
+      </c>
+      <c r="K484" s="5">
+        <v>1</v>
+      </c>
+      <c r="M484" s="5">
+        <v>1</v>
+      </c>
+      <c r="W484" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C485" s="5">
+        <v>4</v>
+      </c>
+      <c r="D485" s="5">
+        <v>41</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H485" s="5">
+        <v>1</v>
+      </c>
+      <c r="M485" s="5">
+        <v>1</v>
+      </c>
+      <c r="W485" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C486" s="5">
+        <v>4</v>
+      </c>
+      <c r="D486" s="5">
+        <v>41</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H486" s="5">
+        <v>1</v>
+      </c>
+      <c r="L486" s="5">
+        <v>1</v>
+      </c>
+      <c r="M486" s="5">
+        <v>1</v>
+      </c>
+      <c r="W486" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C487" s="5">
+        <v>4</v>
+      </c>
+      <c r="D487" s="5">
+        <v>41</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H487" s="5">
+        <v>1</v>
+      </c>
+      <c r="K487" s="5">
+        <v>1</v>
+      </c>
+      <c r="M487" s="5">
+        <v>1</v>
+      </c>
+      <c r="W487" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C488" s="5">
+        <v>4</v>
+      </c>
+      <c r="D488" s="5">
+        <v>41</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J488" s="5">
+        <v>1</v>
+      </c>
+      <c r="S488" s="5">
+        <v>2</v>
+      </c>
+      <c r="W488" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C489" s="5">
+        <v>4</v>
+      </c>
+      <c r="D489" s="5">
+        <v>41</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J489" s="5">
+        <v>1</v>
+      </c>
+      <c r="W489" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C490" s="5">
+        <v>4</v>
+      </c>
+      <c r="D490" s="5">
+        <v>41</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J490" s="5">
+        <v>1</v>
+      </c>
+      <c r="W490" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C491" s="5">
+        <v>4</v>
+      </c>
+      <c r="D491" s="5">
+        <v>41</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J491" s="5">
+        <v>1</v>
+      </c>
+      <c r="W491" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C492" s="5">
+        <v>4</v>
+      </c>
+      <c r="D492" s="5">
+        <v>41</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J492" s="5">
+        <v>1</v>
+      </c>
+      <c r="W492" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C493" s="5">
+        <v>4</v>
+      </c>
+      <c r="D493" s="5">
+        <v>41</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J493" s="5">
+        <v>1</v>
+      </c>
+      <c r="W493" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C494" s="5">
+        <v>4</v>
+      </c>
+      <c r="D494" s="5">
+        <v>42</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J494" s="5">
+        <v>1</v>
+      </c>
+      <c r="S494" s="5">
+        <v>2</v>
+      </c>
+      <c r="W494" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C495" s="5">
+        <v>4</v>
+      </c>
+      <c r="D495" s="5">
+        <v>42</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J495" s="5">
+        <v>1</v>
+      </c>
+      <c r="W495" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C496" s="5">
+        <v>4</v>
+      </c>
+      <c r="D496" s="5">
+        <v>42</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J496" s="5">
+        <v>1</v>
+      </c>
+      <c r="W496" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C497" s="5">
+        <v>4</v>
+      </c>
+      <c r="D497" s="5">
+        <v>42</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J497" s="5">
+        <v>1</v>
+      </c>
+      <c r="W497" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C498" s="5">
+        <v>4</v>
+      </c>
+      <c r="D498" s="5">
+        <v>42</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J498" s="5">
+        <v>1</v>
+      </c>
+      <c r="W498" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C499" s="5">
+        <v>4</v>
+      </c>
+      <c r="D499" s="5">
+        <v>42</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J499" s="5">
+        <v>1</v>
+      </c>
+      <c r="W499" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C500" s="5">
+        <v>4</v>
+      </c>
+      <c r="D500" s="5">
+        <v>42</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H500" s="5">
+        <v>1</v>
+      </c>
+      <c r="L500" s="5">
+        <v>1</v>
+      </c>
+      <c r="M500" s="5">
+        <v>1</v>
+      </c>
+      <c r="W500" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C501" s="5">
+        <v>4</v>
+      </c>
+      <c r="D501" s="5">
+        <v>42</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H501" s="5">
+        <v>1</v>
+      </c>
+      <c r="K501" s="5">
+        <v>1</v>
+      </c>
+      <c r="M501" s="5">
+        <v>1</v>
+      </c>
+      <c r="W501" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C502" s="5">
+        <v>4</v>
+      </c>
+      <c r="D502" s="5">
+        <v>42</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H502" s="5">
+        <v>1</v>
+      </c>
+      <c r="M502" s="5">
+        <v>1</v>
+      </c>
+      <c r="W502" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C503" s="5">
+        <v>4</v>
+      </c>
+      <c r="D503" s="5">
+        <v>42</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H503" s="5">
+        <v>1</v>
+      </c>
+      <c r="M503" s="5">
+        <v>1</v>
+      </c>
+      <c r="W503" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A504" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C504" s="5">
+        <v>4</v>
+      </c>
+      <c r="D504" s="5">
+        <v>42</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H504" s="5">
+        <v>1</v>
+      </c>
+      <c r="M504" s="5">
+        <v>1</v>
+      </c>
+      <c r="W504" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A505" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C505" s="5">
+        <v>4</v>
+      </c>
+      <c r="D505" s="5">
+        <v>42</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H505" s="5">
+        <v>1</v>
+      </c>
+      <c r="K505" s="5">
+        <v>1</v>
+      </c>
+      <c r="M505" s="5">
+        <v>1</v>
+      </c>
+      <c r="W505" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A506" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C506" s="5">
+        <v>4</v>
+      </c>
+      <c r="D506" s="5">
+        <v>43</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H506" s="5">
+        <v>1</v>
+      </c>
+      <c r="M506" s="5">
+        <v>1</v>
+      </c>
+      <c r="W506" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A507" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C507" s="5">
+        <v>4</v>
+      </c>
+      <c r="D507" s="5">
+        <v>43</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H507" s="5">
+        <v>1</v>
+      </c>
+      <c r="K507" s="5">
+        <v>1</v>
+      </c>
+      <c r="M507" s="5">
+        <v>1</v>
+      </c>
+      <c r="W507" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A508" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C508" s="5">
+        <v>4</v>
+      </c>
+      <c r="D508" s="5">
+        <v>43</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H508" s="5">
+        <v>1</v>
+      </c>
+      <c r="M508" s="5">
+        <v>1</v>
+      </c>
+      <c r="W508" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A509" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C509" s="5">
+        <v>4</v>
+      </c>
+      <c r="D509" s="5">
+        <v>43</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H509" s="5">
+        <v>1</v>
+      </c>
+      <c r="K509" s="5">
+        <v>1</v>
+      </c>
+      <c r="L509" s="5">
+        <v>1</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="W509" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A510" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C510" s="5">
+        <v>4</v>
+      </c>
+      <c r="D510" s="5">
+        <v>43</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H510" s="5">
+        <v>1</v>
+      </c>
+      <c r="L510" s="5">
+        <v>1</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="W510" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A511" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C511" s="5">
+        <v>4</v>
+      </c>
+      <c r="D511" s="5">
+        <v>43</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H511" s="5">
+        <v>1</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="W511" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A512" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C512" s="5">
+        <v>4</v>
+      </c>
+      <c r="D512" s="5">
+        <v>43</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J512" s="5">
+        <v>1</v>
+      </c>
+      <c r="S512" s="5">
+        <v>2</v>
+      </c>
+      <c r="W512" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C513" s="5">
+        <v>4</v>
+      </c>
+      <c r="D513" s="5">
+        <v>43</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J513" s="5">
+        <v>1</v>
+      </c>
+      <c r="W513" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C514" s="5">
+        <v>4</v>
+      </c>
+      <c r="D514" s="5">
+        <v>43</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J514" s="5">
+        <v>1</v>
+      </c>
+      <c r="W514" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C515" s="5">
+        <v>4</v>
+      </c>
+      <c r="D515" s="5">
+        <v>43</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J515" s="5">
+        <v>1</v>
+      </c>
+      <c r="W515" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C516" s="5">
+        <v>4</v>
+      </c>
+      <c r="D516" s="5">
+        <v>43</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J516" s="5">
+        <v>1</v>
+      </c>
+      <c r="W516" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C517" s="5">
+        <v>4</v>
+      </c>
+      <c r="D517" s="5">
+        <v>43</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J517" s="5">
+        <v>1</v>
+      </c>
+      <c r="W517" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C518" s="5">
+        <v>4</v>
+      </c>
+      <c r="D518" s="5">
+        <v>44</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H518" s="5">
+        <v>1</v>
+      </c>
+      <c r="M518" s="5">
+        <v>1</v>
+      </c>
+      <c r="W518" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C519" s="5">
+        <v>4</v>
+      </c>
+      <c r="D519" s="5">
+        <v>44</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H519" s="5">
+        <v>1</v>
+      </c>
+      <c r="L519" s="5">
+        <v>1</v>
+      </c>
+      <c r="M519" s="5">
+        <v>1</v>
+      </c>
+      <c r="W519" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C520" s="5">
+        <v>4</v>
+      </c>
+      <c r="D520" s="5">
+        <v>44</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H520" s="5">
+        <v>1</v>
+      </c>
+      <c r="L520" s="5">
+        <v>1</v>
+      </c>
+      <c r="M520" s="5">
+        <v>1</v>
+      </c>
+      <c r="W520" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C521" s="5">
+        <v>4</v>
+      </c>
+      <c r="D521" s="5">
+        <v>44</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H521" s="5">
+        <v>1</v>
+      </c>
+      <c r="K521" s="5">
+        <v>1</v>
+      </c>
+      <c r="M521" s="5">
+        <v>1</v>
+      </c>
+      <c r="W521" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C522" s="5">
+        <v>4</v>
+      </c>
+      <c r="D522" s="5">
+        <v>44</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H522" s="5">
+        <v>1</v>
+      </c>
+      <c r="M522" s="5">
+        <v>1</v>
+      </c>
+      <c r="W522" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C523" s="5">
+        <v>4</v>
+      </c>
+      <c r="D523" s="5">
+        <v>44</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H523" s="5">
+        <v>1</v>
+      </c>
+      <c r="K523" s="5">
+        <v>1</v>
+      </c>
+      <c r="M523" s="5">
+        <v>1</v>
+      </c>
+      <c r="W523" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C524" s="5">
+        <v>4</v>
+      </c>
+      <c r="D524" s="5">
+        <v>44</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J524" s="5">
+        <v>1</v>
+      </c>
+      <c r="S524" s="5">
+        <v>2</v>
+      </c>
+      <c r="W524" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C525" s="5">
+        <v>4</v>
+      </c>
+      <c r="D525" s="5">
+        <v>44</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J525" s="5">
+        <v>1</v>
+      </c>
+      <c r="W525" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C526" s="5">
+        <v>4</v>
+      </c>
+      <c r="D526" s="5">
+        <v>44</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J526" s="5">
+        <v>1</v>
+      </c>
+      <c r="W526" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C527" s="5">
+        <v>4</v>
+      </c>
+      <c r="D527" s="5">
+        <v>44</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J527" s="5">
+        <v>1</v>
+      </c>
+      <c r="W527" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C528" s="5">
+        <v>4</v>
+      </c>
+      <c r="D528" s="5">
+        <v>44</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J528" s="5">
+        <v>1</v>
+      </c>
+      <c r="W528" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C529" s="5">
+        <v>4</v>
+      </c>
+      <c r="D529" s="5">
+        <v>44</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J529" s="5">
+        <v>1</v>
+      </c>
+      <c r="W529" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C530" s="5">
+        <v>4</v>
+      </c>
+      <c r="D530" s="5">
+        <v>45</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H530" s="5">
+        <v>1</v>
+      </c>
+      <c r="M530" s="5">
+        <v>1</v>
+      </c>
+      <c r="W530" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C531" s="5">
+        <v>4</v>
+      </c>
+      <c r="D531" s="5">
+        <v>45</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H531" s="5">
+        <v>1</v>
+      </c>
+      <c r="K531" s="5">
+        <v>1</v>
+      </c>
+      <c r="M531" s="5">
+        <v>1</v>
+      </c>
+      <c r="W531" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C532" s="5">
+        <v>4</v>
+      </c>
+      <c r="D532" s="5">
+        <v>45</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H532" s="5">
+        <v>1</v>
+      </c>
+      <c r="M532" s="5">
+        <v>1</v>
+      </c>
+      <c r="W532" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C533" s="5">
+        <v>4</v>
+      </c>
+      <c r="D533" s="5">
+        <v>45</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H533" s="5">
+        <v>1</v>
+      </c>
+      <c r="K533" s="5">
+        <v>1</v>
+      </c>
+      <c r="M533" s="5">
+        <v>1</v>
+      </c>
+      <c r="W533" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C534" s="5">
+        <v>4</v>
+      </c>
+      <c r="D534" s="5">
+        <v>45</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H534" s="5">
+        <v>1</v>
+      </c>
+      <c r="L534" s="5">
+        <v>1</v>
+      </c>
+      <c r="M534" s="5">
+        <v>1</v>
+      </c>
+      <c r="W534" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C535" s="5">
+        <v>4</v>
+      </c>
+      <c r="D535" s="5">
+        <v>45</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H535" s="5">
+        <v>1</v>
+      </c>
+      <c r="L535" s="5">
+        <v>1</v>
+      </c>
+      <c r="M535" s="5">
+        <v>1</v>
+      </c>
+      <c r="W535" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C536" s="5">
+        <v>4</v>
+      </c>
+      <c r="D536" s="5">
+        <v>45</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J536" s="5">
+        <v>1</v>
+      </c>
+      <c r="S536" s="5">
+        <v>2</v>
+      </c>
+      <c r="W536" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C537" s="5">
+        <v>4</v>
+      </c>
+      <c r="D537" s="5">
+        <v>45</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J537" s="5">
+        <v>1</v>
+      </c>
+      <c r="W537" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C538" s="5">
+        <v>4</v>
+      </c>
+      <c r="D538" s="5">
+        <v>45</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J538" s="5">
+        <v>1</v>
+      </c>
+      <c r="W538" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C539" s="5">
+        <v>4</v>
+      </c>
+      <c r="D539" s="5">
+        <v>45</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J539" s="5">
+        <v>1</v>
+      </c>
+      <c r="W539" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C540" s="5">
+        <v>4</v>
+      </c>
+      <c r="D540" s="5">
+        <v>45</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J540" s="5">
+        <v>1</v>
+      </c>
+      <c r="W540" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C541" s="5">
+        <v>4</v>
+      </c>
+      <c r="D541" s="5">
+        <v>45</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J541" s="5">
+        <v>1</v>
+      </c>
+      <c r="W541" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C542" s="5">
+        <v>5</v>
+      </c>
+      <c r="D542" s="5">
+        <v>46</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I542" s="5">
+        <v>1</v>
+      </c>
+      <c r="S542" s="5">
+        <v>1</v>
+      </c>
+      <c r="W542" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C543" s="5">
+        <v>5</v>
+      </c>
+      <c r="D543" s="5">
+        <v>46</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I543" s="5">
+        <v>1</v>
+      </c>
+      <c r="W543" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C544" s="5">
+        <v>5</v>
+      </c>
+      <c r="D544" s="5">
+        <v>46</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I544" s="5">
+        <v>1</v>
+      </c>
+      <c r="W544" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C545" s="5">
+        <v>5</v>
+      </c>
+      <c r="D545" s="5">
+        <v>46</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I545" s="5">
+        <v>1</v>
+      </c>
+      <c r="W545" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C546" s="5">
+        <v>5</v>
+      </c>
+      <c r="D546" s="5">
+        <v>46</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I546" s="5">
+        <v>1</v>
+      </c>
+      <c r="W546" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C547" s="5">
+        <v>5</v>
+      </c>
+      <c r="D547" s="5">
+        <v>46</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I547" s="5">
+        <v>1</v>
+      </c>
+      <c r="K547" s="5">
+        <v>1</v>
+      </c>
+      <c r="W547" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C548" s="5">
+        <v>5</v>
+      </c>
+      <c r="D548" s="5">
+        <v>46</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I548" s="5">
+        <v>1</v>
+      </c>
+      <c r="S548" s="5">
+        <v>1</v>
+      </c>
+      <c r="T548" s="5">
+        <v>1</v>
+      </c>
+      <c r="W548" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C549" s="5">
+        <v>5</v>
+      </c>
+      <c r="D549" s="5">
+        <v>46</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I549" s="5">
+        <v>1</v>
+      </c>
+      <c r="W549" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C550" s="5">
+        <v>5</v>
+      </c>
+      <c r="D550" s="5">
+        <v>46</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I550" s="5">
+        <v>1</v>
+      </c>
+      <c r="K550" s="5">
+        <v>1</v>
+      </c>
+      <c r="W550" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C551" s="5">
+        <v>5</v>
+      </c>
+      <c r="D551" s="5">
+        <v>46</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I551" s="5">
+        <v>1</v>
+      </c>
+      <c r="W551" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A552" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C552" s="5">
+        <v>5</v>
+      </c>
+      <c r="D552" s="5">
+        <v>46</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I552" s="5">
+        <v>1</v>
+      </c>
+      <c r="W552" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A553" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C553" s="5">
+        <v>5</v>
+      </c>
+      <c r="D553" s="5">
+        <v>46</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I553" s="5">
+        <v>1</v>
+      </c>
+      <c r="W553" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A554" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C554" s="5">
+        <v>5</v>
+      </c>
+      <c r="D554" s="5">
+        <v>47</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I554" s="5">
+        <v>1</v>
+      </c>
+      <c r="M554" s="5">
+        <v>1</v>
+      </c>
+      <c r="T554" s="5">
+        <v>1</v>
+      </c>
+      <c r="W554" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A555" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C555" s="5">
+        <v>5</v>
+      </c>
+      <c r="D555" s="5">
+        <v>47</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I555" s="5">
+        <v>1</v>
+      </c>
+      <c r="M555" s="5">
+        <v>1</v>
+      </c>
+      <c r="W555" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A556" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C556" s="5">
+        <v>5</v>
+      </c>
+      <c r="D556" s="5">
+        <v>47</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I556" s="5">
+        <v>1</v>
+      </c>
+      <c r="M556" s="5">
+        <v>1</v>
+      </c>
+      <c r="W556" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A557" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C557" s="5">
+        <v>5</v>
+      </c>
+      <c r="D557" s="5">
+        <v>47</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I557" s="5">
+        <v>1</v>
+      </c>
+      <c r="M557" s="5">
+        <v>1</v>
+      </c>
+      <c r="W557" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A558" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C558" s="5">
+        <v>5</v>
+      </c>
+      <c r="D558" s="5">
+        <v>47</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I558" s="5">
+        <v>1</v>
+      </c>
+      <c r="M558" s="5">
+        <v>1</v>
+      </c>
+      <c r="W558" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A559" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C559" s="5">
+        <v>5</v>
+      </c>
+      <c r="D559" s="5">
+        <v>47</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I559" s="5">
+        <v>1</v>
+      </c>
+      <c r="M559" s="5">
+        <v>1</v>
+      </c>
+      <c r="W559" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C560" s="5">
+        <v>5</v>
+      </c>
+      <c r="D560" s="5">
+        <v>47</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I560" s="5">
+        <v>1</v>
+      </c>
+      <c r="M560" s="5">
+        <v>1</v>
+      </c>
+      <c r="W560" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C561" s="5">
+        <v>5</v>
+      </c>
+      <c r="D561" s="5">
+        <v>47</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I561" s="5">
+        <v>1</v>
+      </c>
+      <c r="M561" s="5">
+        <v>1</v>
+      </c>
+      <c r="W561" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A562" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C562" s="5">
+        <v>5</v>
+      </c>
+      <c r="D562" s="5">
+        <v>47</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I562" s="5">
+        <v>1</v>
+      </c>
+      <c r="M562" s="5">
+        <v>1</v>
+      </c>
+      <c r="W562" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A563" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C563" s="5">
+        <v>5</v>
+      </c>
+      <c r="D563" s="5">
+        <v>47</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I563" s="5">
+        <v>1</v>
+      </c>
+      <c r="M563" s="5">
+        <v>1</v>
+      </c>
+      <c r="W563" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A564" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C564" s="5">
+        <v>5</v>
+      </c>
+      <c r="D564" s="5">
+        <v>47</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I564" s="5">
+        <v>1</v>
+      </c>
+      <c r="M564" s="5">
+        <v>1</v>
+      </c>
+      <c r="W564" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A565" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C565" s="5">
+        <v>5</v>
+      </c>
+      <c r="D565" s="5">
+        <v>47</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I565" s="5">
+        <v>1</v>
+      </c>
+      <c r="M565" s="5">
+        <v>1</v>
+      </c>
+      <c r="W565" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A566" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C566" s="5">
+        <v>5</v>
+      </c>
+      <c r="D566" s="5">
+        <v>48</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H566" s="5">
+        <v>1</v>
+      </c>
+      <c r="M566" s="5">
+        <v>1</v>
+      </c>
+      <c r="T566" s="5">
+        <v>1</v>
+      </c>
+      <c r="W566" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A567" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C567" s="5">
+        <v>5</v>
+      </c>
+      <c r="D567" s="5">
+        <v>48</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H567" s="5">
+        <v>1</v>
+      </c>
+      <c r="M567" s="5">
+        <v>1</v>
+      </c>
+      <c r="W567" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A568" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C568" s="5">
+        <v>5</v>
+      </c>
+      <c r="D568" s="5">
+        <v>48</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H568" s="5">
+        <v>1</v>
+      </c>
+      <c r="L568" s="5">
+        <v>1</v>
+      </c>
+      <c r="M568" s="5">
+        <v>1</v>
+      </c>
+      <c r="W568" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A569" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C569" s="5">
+        <v>5</v>
+      </c>
+      <c r="D569" s="5">
+        <v>48</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H569" s="5">
+        <v>1</v>
+      </c>
+      <c r="K569" s="5">
+        <v>1</v>
+      </c>
+      <c r="M569" s="5">
+        <v>1</v>
+      </c>
+      <c r="W569" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A570" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C570" s="5">
+        <v>5</v>
+      </c>
+      <c r="D570" s="5">
+        <v>48</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H570" s="5">
+        <v>1</v>
+      </c>
+      <c r="L570" s="5">
+        <v>1</v>
+      </c>
+      <c r="M570" s="5">
+        <v>1</v>
+      </c>
+      <c r="W570" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A571" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C571" s="5">
+        <v>5</v>
+      </c>
+      <c r="D571" s="5">
+        <v>48</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H571" s="5">
+        <v>1</v>
+      </c>
+      <c r="K571" s="5">
+        <v>1</v>
+      </c>
+      <c r="M571" s="5">
+        <v>1</v>
+      </c>
+      <c r="W571" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A572" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C572" s="5">
+        <v>5</v>
+      </c>
+      <c r="D572" s="5">
+        <v>48</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J572" s="5">
+        <v>1</v>
+      </c>
+      <c r="S572" s="5">
+        <v>2</v>
+      </c>
+      <c r="W572" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A573" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C573" s="5">
+        <v>5</v>
+      </c>
+      <c r="D573" s="5">
+        <v>48</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J573" s="5">
+        <v>1</v>
+      </c>
+      <c r="W573" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A574" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C574" s="5">
+        <v>5</v>
+      </c>
+      <c r="D574" s="5">
+        <v>48</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J574" s="5">
+        <v>1</v>
+      </c>
+      <c r="W574" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A575" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C575" s="5">
+        <v>5</v>
+      </c>
+      <c r="D575" s="5">
+        <v>48</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J575" s="5">
+        <v>1</v>
+      </c>
+      <c r="V575" s="5">
+        <v>1</v>
+      </c>
+      <c r="W575" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A576" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C576" s="5">
+        <v>5</v>
+      </c>
+      <c r="D576" s="5">
+        <v>48</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J576" s="5">
+        <v>1</v>
+      </c>
+      <c r="W576" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A577" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C577" s="5">
+        <v>5</v>
+      </c>
+      <c r="D577" s="5">
+        <v>48</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J577" s="5">
+        <v>1</v>
+      </c>
+      <c r="W577" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A578" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C578" s="5">
+        <v>5</v>
+      </c>
+      <c r="D578" s="5">
+        <v>49</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I578" s="5">
+        <v>1</v>
+      </c>
+      <c r="S578" s="5">
+        <v>1</v>
+      </c>
+      <c r="W578" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A579" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C579" s="5">
+        <v>5</v>
+      </c>
+      <c r="D579" s="5">
+        <v>49</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I579" s="5">
+        <v>1</v>
+      </c>
+      <c r="K579" s="5">
+        <v>1</v>
+      </c>
+      <c r="V579" s="5">
+        <v>1</v>
+      </c>
+      <c r="W579" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A580" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C580" s="5">
+        <v>5</v>
+      </c>
+      <c r="D580" s="5">
+        <v>49</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I580" s="5">
+        <v>1</v>
+      </c>
+      <c r="L580" s="5">
+        <v>1</v>
+      </c>
+      <c r="W580" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A581" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C581" s="5">
+        <v>5</v>
+      </c>
+      <c r="D581" s="5">
+        <v>49</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I581" s="5">
+        <v>1</v>
+      </c>
+      <c r="W581" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A582" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C582" s="5">
+        <v>5</v>
+      </c>
+      <c r="D582" s="5">
+        <v>49</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I582" s="5">
+        <v>1</v>
+      </c>
+      <c r="W582" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A583" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C583" s="5">
+        <v>5</v>
+      </c>
+      <c r="D583" s="5">
+        <v>49</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I583" s="5">
+        <v>1</v>
+      </c>
+      <c r="W583" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A584" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C584" s="5">
+        <v>5</v>
+      </c>
+      <c r="D584" s="5">
+        <v>49</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I584" s="5">
+        <v>1</v>
+      </c>
+      <c r="S584" s="5">
+        <v>1</v>
+      </c>
+      <c r="W584" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A585" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C585" s="5">
+        <v>5</v>
+      </c>
+      <c r="D585" s="5">
+        <v>49</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I585" s="5">
+        <v>1</v>
+      </c>
+      <c r="W585" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A586" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C586" s="5">
+        <v>5</v>
+      </c>
+      <c r="D586" s="5">
+        <v>49</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I586" s="5">
+        <v>1</v>
+      </c>
+      <c r="W586" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A587" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C587" s="5">
+        <v>5</v>
+      </c>
+      <c r="D587" s="5">
+        <v>49</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I587" s="5">
+        <v>1</v>
+      </c>
+      <c r="K587" s="5">
+        <v>1</v>
+      </c>
+      <c r="W587" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A588" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C588" s="5">
+        <v>5</v>
+      </c>
+      <c r="D588" s="5">
+        <v>49</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I588" s="5">
+        <v>1</v>
+      </c>
+      <c r="W588" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A589" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C589" s="5">
+        <v>5</v>
+      </c>
+      <c r="D589" s="5">
+        <v>49</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I589" s="5">
+        <v>1</v>
+      </c>
+      <c r="W589" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A590" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C590" s="5">
+        <v>5</v>
+      </c>
+      <c r="D590" s="5">
+        <v>50</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H590" s="5">
+        <v>1</v>
+      </c>
+      <c r="M590" s="5">
+        <v>1</v>
+      </c>
+      <c r="T590" s="5">
+        <v>2</v>
+      </c>
+      <c r="W590" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A591" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C591" s="5">
+        <v>5</v>
+      </c>
+      <c r="D591" s="5">
+        <v>50</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H591" s="5">
+        <v>1</v>
+      </c>
+      <c r="M591" s="5">
+        <v>1</v>
+      </c>
+      <c r="W591" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A592" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C592" s="5">
+        <v>5</v>
+      </c>
+      <c r="D592" s="5">
+        <v>50</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H592" s="5">
+        <v>1</v>
+      </c>
+      <c r="L592" s="5">
+        <v>1</v>
+      </c>
+      <c r="M592" s="5">
+        <v>1</v>
+      </c>
+      <c r="W592" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A593" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C593" s="5">
+        <v>5</v>
+      </c>
+      <c r="D593" s="5">
+        <v>50</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H593" s="5">
+        <v>1</v>
+      </c>
+      <c r="M593" s="5">
+        <v>1</v>
+      </c>
+      <c r="W593" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A594" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C594" s="5">
+        <v>5</v>
+      </c>
+      <c r="D594" s="5">
+        <v>50</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H594" s="5">
+        <v>1</v>
+      </c>
+      <c r="M594" s="5">
+        <v>1</v>
+      </c>
+      <c r="V594" s="5">
+        <v>1</v>
+      </c>
+      <c r="W594" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="595" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A595" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C595" s="5">
+        <v>5</v>
+      </c>
+      <c r="D595" s="5">
+        <v>50</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H595" s="5">
+        <v>1</v>
+      </c>
+      <c r="K595" s="5">
+        <v>1</v>
+      </c>
+      <c r="M595" s="5">
+        <v>1</v>
+      </c>
+      <c r="W595" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="596" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A596" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C596" s="5">
+        <v>5</v>
+      </c>
+      <c r="D596" s="5">
+        <v>50</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J596" s="5">
+        <v>1</v>
+      </c>
+      <c r="S596" s="5">
+        <v>1</v>
+      </c>
+      <c r="W596" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A597" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C597" s="5">
+        <v>5</v>
+      </c>
+      <c r="D597" s="5">
+        <v>50</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J597" s="5">
+        <v>1</v>
+      </c>
+      <c r="W597" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A598" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C598" s="5">
+        <v>5</v>
+      </c>
+      <c r="D598" s="5">
+        <v>50</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J598" s="5">
+        <v>1</v>
+      </c>
+      <c r="W598" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A599" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C599" s="5">
+        <v>5</v>
+      </c>
+      <c r="D599" s="5">
+        <v>50</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J599" s="5">
+        <v>1</v>
+      </c>
+      <c r="W599" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="600" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A600" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C600" s="5">
+        <v>5</v>
+      </c>
+      <c r="D600" s="5">
+        <v>50</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J600" s="5">
+        <v>1</v>
+      </c>
+      <c r="W600" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A601" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C601" s="5">
+        <v>5</v>
+      </c>
+      <c r="D601" s="5">
+        <v>50</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J601" s="5">
+        <v>1</v>
+      </c>
+      <c r="W601" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="602" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A602" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C602" s="5">
+        <v>5</v>
+      </c>
+      <c r="D602" s="5">
+        <v>51</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J602" s="5">
+        <v>1</v>
+      </c>
+      <c r="S602" s="5">
+        <v>2</v>
+      </c>
+      <c r="W602" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A603" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C603" s="5">
+        <v>5</v>
+      </c>
+      <c r="D603" s="5">
+        <v>51</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J603" s="5">
+        <v>1</v>
+      </c>
+      <c r="W603" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A604" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C604" s="5">
+        <v>5</v>
+      </c>
+      <c r="D604" s="5">
+        <v>51</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J604" s="5">
+        <v>1</v>
+      </c>
+      <c r="V604" s="5">
+        <v>1</v>
+      </c>
+      <c r="W604" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A605" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C605" s="5">
+        <v>5</v>
+      </c>
+      <c r="D605" s="5">
+        <v>51</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J605" s="5">
+        <v>1</v>
+      </c>
+      <c r="W605" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A606" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C606" s="5">
+        <v>5</v>
+      </c>
+      <c r="D606" s="5">
+        <v>51</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J606" s="5">
+        <v>1</v>
+      </c>
+      <c r="K606" s="5">
+        <v>1</v>
+      </c>
+      <c r="W606" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A607" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C607" s="5">
+        <v>5</v>
+      </c>
+      <c r="D607" s="5">
+        <v>51</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J607" s="5">
+        <v>1</v>
+      </c>
+      <c r="W607" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A608" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C608" s="5">
+        <v>5</v>
+      </c>
+      <c r="D608" s="5">
+        <v>51</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H608" s="5">
+        <v>1</v>
+      </c>
+      <c r="S608" s="5">
+        <v>1</v>
+      </c>
+      <c r="W608" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A609" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C609" s="5">
+        <v>5</v>
+      </c>
+      <c r="D609" s="5">
+        <v>51</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H609" s="5">
+        <v>1</v>
+      </c>
+      <c r="W609" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A610" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C610" s="5">
+        <v>5</v>
+      </c>
+      <c r="D610" s="5">
+        <v>51</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H610" s="5">
+        <v>1</v>
+      </c>
+      <c r="K610" s="5">
+        <v>1</v>
+      </c>
+      <c r="W610" s="5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A611" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C611" s="5">
+        <v>5</v>
+      </c>
+      <c r="D611" s="5">
+        <v>51</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H611" s="5">
+        <v>1</v>
+      </c>
+      <c r="K611" s="5">
+        <v>2</v>
+      </c>
+      <c r="W611" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="612" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A612" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C612" s="5">
+        <v>5</v>
+      </c>
+      <c r="D612" s="5">
+        <v>51</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H612" s="5">
+        <v>1</v>
+      </c>
+      <c r="W612" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A613" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C613" s="5">
+        <v>5</v>
+      </c>
+      <c r="D613" s="5">
+        <v>51</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H613" s="5">
+        <v>1</v>
+      </c>
+      <c r="W613" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A614" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C614" s="5">
+        <v>5</v>
+      </c>
+      <c r="D614" s="5">
+        <v>52</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H614" s="5">
+        <v>1</v>
+      </c>
+      <c r="M614" s="5">
+        <v>1</v>
+      </c>
+      <c r="W614" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A615" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C615" s="5">
+        <v>5</v>
+      </c>
+      <c r="D615" s="5">
+        <v>52</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F615" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H615" s="5">
+        <v>1</v>
+      </c>
+      <c r="M615" s="5">
+        <v>1</v>
+      </c>
+      <c r="W615" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A616" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C616" s="5">
+        <v>5</v>
+      </c>
+      <c r="D616" s="5">
+        <v>52</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F616" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H616" s="5">
+        <v>1</v>
+      </c>
+      <c r="M616" s="5">
+        <v>1</v>
+      </c>
+      <c r="W616" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A617" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C617" s="5">
+        <v>5</v>
+      </c>
+      <c r="D617" s="5">
+        <v>52</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F617" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H617" s="5">
+        <v>1</v>
+      </c>
+      <c r="M617" s="5">
+        <v>1</v>
+      </c>
+      <c r="W617" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A618" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C618" s="5">
+        <v>5</v>
+      </c>
+      <c r="D618" s="5">
+        <v>52</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F618" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H618" s="5">
+        <v>1</v>
+      </c>
+      <c r="K618" s="5">
+        <v>2</v>
+      </c>
+      <c r="M618" s="5">
+        <v>1</v>
+      </c>
+      <c r="W618" s="5">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A619" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C619" s="5">
+        <v>5</v>
+      </c>
+      <c r="D619" s="5">
+        <v>52</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H619" s="5">
+        <v>1</v>
+      </c>
+      <c r="L619" s="5">
+        <v>2</v>
+      </c>
+      <c r="M619" s="5">
+        <v>1</v>
+      </c>
+      <c r="W619" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A620" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C620" s="5">
+        <v>5</v>
+      </c>
+      <c r="D620" s="5">
+        <v>52</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F620" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J620" s="5">
+        <v>1</v>
+      </c>
+      <c r="S620" s="5">
+        <v>2</v>
+      </c>
+      <c r="W620" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A621" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C621" s="5">
+        <v>5</v>
+      </c>
+      <c r="D621" s="5">
+        <v>52</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J621" s="5">
+        <v>1</v>
+      </c>
+      <c r="W621" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A622" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C622" s="5">
+        <v>5</v>
+      </c>
+      <c r="D622" s="5">
+        <v>52</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F622" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J622" s="5">
+        <v>1</v>
+      </c>
+      <c r="W622" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A623" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C623" s="5">
+        <v>5</v>
+      </c>
+      <c r="D623" s="5">
+        <v>52</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F623" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J623" s="5">
+        <v>1</v>
+      </c>
+      <c r="W623" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A624" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C624" s="5">
+        <v>5</v>
+      </c>
+      <c r="D624" s="5">
+        <v>52</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J624" s="5">
+        <v>1</v>
+      </c>
+      <c r="W624" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A625" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C625" s="5">
+        <v>5</v>
+      </c>
+      <c r="D625" s="5">
+        <v>52</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F625" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J625" s="5">
+        <v>1</v>
+      </c>
+      <c r="W625" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A626" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C626" s="5">
+        <v>5</v>
+      </c>
+      <c r="D626" s="5">
+        <v>53</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F626" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J626" s="5">
+        <v>1</v>
+      </c>
+      <c r="S626" s="5">
+        <v>1</v>
+      </c>
+      <c r="W626" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C627" s="5">
+        <v>5</v>
+      </c>
+      <c r="D627" s="5">
+        <v>53</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J627" s="5">
+        <v>1</v>
+      </c>
+      <c r="W627" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C628" s="5">
+        <v>5</v>
+      </c>
+      <c r="D628" s="5">
+        <v>53</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J628" s="5">
+        <v>1</v>
+      </c>
+      <c r="W628" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C629" s="5">
+        <v>5</v>
+      </c>
+      <c r="D629" s="5">
+        <v>53</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J629" s="5">
+        <v>1</v>
+      </c>
+      <c r="V629" s="5">
+        <v>1</v>
+      </c>
+      <c r="W629" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C630" s="5">
+        <v>5</v>
+      </c>
+      <c r="D630" s="5">
+        <v>53</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J630" s="5">
+        <v>1</v>
+      </c>
+      <c r="W630" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C631" s="5">
+        <v>5</v>
+      </c>
+      <c r="D631" s="5">
+        <v>53</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F631" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J631" s="5">
+        <v>1</v>
+      </c>
+      <c r="W631" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C632" s="5">
+        <v>5</v>
+      </c>
+      <c r="D632" s="5">
+        <v>53</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F632" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H632" s="5">
+        <v>1</v>
+      </c>
+      <c r="M632" s="5">
+        <v>1</v>
+      </c>
+      <c r="W632" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C633" s="5">
+        <v>5</v>
+      </c>
+      <c r="D633" s="5">
+        <v>53</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F633" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H633" s="5">
+        <v>1</v>
+      </c>
+      <c r="M633" s="5">
+        <v>1</v>
+      </c>
+      <c r="W633" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C634" s="5">
+        <v>5</v>
+      </c>
+      <c r="D634" s="5">
+        <v>53</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H634" s="5">
+        <v>1</v>
+      </c>
+      <c r="M634" s="5">
+        <v>1</v>
+      </c>
+      <c r="W634" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C635" s="5">
+        <v>5</v>
+      </c>
+      <c r="D635" s="5">
+        <v>53</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F635" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H635" s="5">
+        <v>1</v>
+      </c>
+      <c r="K635" s="5">
+        <v>1</v>
+      </c>
+      <c r="M635" s="5">
+        <v>1</v>
+      </c>
+      <c r="W635" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="636" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C636" s="5">
+        <v>5</v>
+      </c>
+      <c r="D636" s="5">
+        <v>53</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F636" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H636" s="5">
+        <v>1</v>
+      </c>
+      <c r="M636" s="5">
+        <v>1</v>
+      </c>
+      <c r="W636" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C637" s="5">
+        <v>5</v>
+      </c>
+      <c r="D637" s="5">
+        <v>53</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F637" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H637" s="5">
+        <v>1</v>
+      </c>
+      <c r="L637" s="5">
+        <v>1</v>
+      </c>
+      <c r="M637" s="5">
+        <v>1</v>
+      </c>
+      <c r="W637" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C638" s="5">
+        <v>5</v>
+      </c>
+      <c r="D638" s="5">
+        <v>54</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F638" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J638" s="5">
+        <v>1</v>
+      </c>
+      <c r="S638" s="5">
+        <v>2</v>
+      </c>
+      <c r="W638" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="639" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C639" s="5">
+        <v>5</v>
+      </c>
+      <c r="D639" s="5">
+        <v>54</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J639" s="5">
+        <v>1</v>
+      </c>
+      <c r="W639" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C640" s="5">
+        <v>5</v>
+      </c>
+      <c r="D640" s="5">
+        <v>54</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F640" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J640" s="5">
+        <v>1</v>
+      </c>
+      <c r="N640" s="5">
+        <v>1</v>
+      </c>
+      <c r="W640" s="5">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="641" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C641" s="5">
+        <v>5</v>
+      </c>
+      <c r="D641" s="5">
+        <v>54</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F641" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J641" s="5">
+        <v>1</v>
+      </c>
+      <c r="W641" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C642" s="5">
+        <v>5</v>
+      </c>
+      <c r="D642" s="5">
+        <v>54</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F642" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J642" s="5">
+        <v>1</v>
+      </c>
+      <c r="W642" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C643" s="5">
+        <v>5</v>
+      </c>
+      <c r="D643" s="5">
+        <v>54</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F643" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J643" s="5">
+        <v>1</v>
+      </c>
+      <c r="W643" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="644" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C644" s="5">
+        <v>5</v>
+      </c>
+      <c r="D644" s="5">
+        <v>54</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H644" s="5">
+        <v>1</v>
+      </c>
+      <c r="M644" s="5">
+        <v>1</v>
+      </c>
+      <c r="W644" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="645" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C645" s="5">
+        <v>5</v>
+      </c>
+      <c r="D645" s="5">
+        <v>54</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F645" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H645" s="5">
+        <v>1</v>
+      </c>
+      <c r="M645" s="5">
+        <v>1</v>
+      </c>
+      <c r="W645" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C646" s="5">
+        <v>5</v>
+      </c>
+      <c r="D646" s="5">
+        <v>54</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F646" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H646" s="5">
+        <v>1</v>
+      </c>
+      <c r="M646" s="5">
+        <v>1</v>
+      </c>
+      <c r="W646" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="647" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C647" s="5">
+        <v>5</v>
+      </c>
+      <c r="D647" s="5">
+        <v>54</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F647" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H647" s="5">
+        <v>1</v>
+      </c>
+      <c r="M647" s="5">
+        <v>1</v>
+      </c>
+      <c r="W647" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C648" s="5">
+        <v>5</v>
+      </c>
+      <c r="D648" s="5">
+        <v>54</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H648" s="5">
+        <v>1</v>
+      </c>
+      <c r="M648" s="5">
+        <v>1</v>
+      </c>
+      <c r="W648" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="649" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C649" s="5">
+        <v>5</v>
+      </c>
+      <c r="D649" s="5">
+        <v>54</v>
+      </c>
+      <c r="E649" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F649" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H649" s="5">
+        <v>1</v>
+      </c>
+      <c r="K649" s="5">
+        <v>1</v>
+      </c>
+      <c r="M649" s="5">
+        <v>1</v>
+      </c>
+      <c r="W649" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="650" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C650" s="5">
+        <v>5</v>
+      </c>
+      <c r="D650" s="5">
+        <v>55</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J650" s="5">
+        <v>1</v>
+      </c>
+      <c r="S650" s="5">
+        <v>2</v>
+      </c>
+      <c r="W650" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A651" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C651" s="5">
+        <v>5</v>
+      </c>
+      <c r="D651" s="5">
+        <v>55</v>
+      </c>
+      <c r="E651" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J651" s="5">
+        <v>1</v>
+      </c>
+      <c r="W651" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C652" s="5">
+        <v>5</v>
+      </c>
+      <c r="D652" s="5">
+        <v>55</v>
+      </c>
+      <c r="E652" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J652" s="5">
+        <v>1</v>
+      </c>
+      <c r="W652" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C653" s="5">
+        <v>5</v>
+      </c>
+      <c r="D653" s="5">
+        <v>55</v>
+      </c>
+      <c r="E653" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J653" s="5">
+        <v>1</v>
+      </c>
+      <c r="W653" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C654" s="5">
+        <v>5</v>
+      </c>
+      <c r="D654" s="5">
+        <v>55</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J654" s="5">
+        <v>1</v>
+      </c>
+      <c r="W654" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="655" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C655" s="5">
+        <v>5</v>
+      </c>
+      <c r="D655" s="5">
+        <v>55</v>
+      </c>
+      <c r="E655" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F655" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J655" s="5">
+        <v>1</v>
+      </c>
+      <c r="W655" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C656" s="5">
+        <v>5</v>
+      </c>
+      <c r="D656" s="5">
+        <v>55</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H656" s="5">
+        <v>1</v>
+      </c>
+      <c r="M656" s="5">
+        <v>1</v>
+      </c>
+      <c r="W656" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="657" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C657" s="5">
+        <v>5</v>
+      </c>
+      <c r="D657" s="5">
+        <v>55</v>
+      </c>
+      <c r="E657" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H657" s="5">
+        <v>1</v>
+      </c>
+      <c r="M657" s="5">
+        <v>1</v>
+      </c>
+      <c r="W657" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C658" s="5">
+        <v>5</v>
+      </c>
+      <c r="D658" s="5">
+        <v>55</v>
+      </c>
+      <c r="E658" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H658" s="5">
+        <v>1</v>
+      </c>
+      <c r="L658" s="5">
+        <v>1</v>
+      </c>
+      <c r="M658" s="5">
+        <v>1</v>
+      </c>
+      <c r="W658" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C659" s="5">
+        <v>5</v>
+      </c>
+      <c r="D659" s="5">
+        <v>55</v>
+      </c>
+      <c r="E659" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F659" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H659" s="5">
+        <v>1</v>
+      </c>
+      <c r="L659" s="5">
+        <v>1</v>
+      </c>
+      <c r="M659" s="5">
+        <v>1</v>
+      </c>
+      <c r="W659" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="660" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C660" s="5">
+        <v>5</v>
+      </c>
+      <c r="D660" s="5">
+        <v>55</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H660" s="5">
+        <v>1</v>
+      </c>
+      <c r="K660" s="5">
+        <v>1</v>
+      </c>
+      <c r="M660" s="5">
+        <v>1</v>
+      </c>
+      <c r="W660" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="661" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C661" s="5">
+        <v>5</v>
+      </c>
+      <c r="D661" s="5">
+        <v>55</v>
+      </c>
+      <c r="E661" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H661" s="5">
+        <v>1</v>
+      </c>
+      <c r="K661" s="5">
+        <v>1</v>
+      </c>
+      <c r="M661" s="5">
+        <v>1</v>
+      </c>
+      <c r="W661" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="G672" s="3"/>
@@ -36797,7 +42994,8 @@
       <c r="B4598" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <autoFilter ref="A1:W409"/>
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13">
       <formula1>0</formula1>
       <formula2>99999</formula2>

--- a/data/testedatasetv2b.xlsx
+++ b/data/testedatasetv2b.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="78">
   <si>
     <t>GOL</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>Adriano</t>
+  </si>
+  <si>
+    <t>Renan</t>
+  </si>
+  <si>
+    <t>Glerme</t>
+  </si>
+  <si>
+    <t>Afonso</t>
+  </si>
+  <si>
+    <t>Guiler</t>
   </si>
 </sst>
 </file>
@@ -653,8 +665,8 @@
   <dimension ref="A1:W4598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F539" sqref="F539"/>
+      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E788" sqref="E788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26199,696 +26211,4176 @@
       </c>
     </row>
     <row r="662" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A662" s="2"/>
-      <c r="B662" s="2"/>
-      <c r="G662" s="3"/>
+      <c r="A662" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C662" s="5">
+        <v>6</v>
+      </c>
+      <c r="D662" s="5">
+        <v>56</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J662" s="5">
+        <v>1</v>
+      </c>
+      <c r="S662" s="5">
+        <v>1</v>
+      </c>
+      <c r="W662" s="5">
+        <v>-6</v>
+      </c>
     </row>
     <row r="663" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A663" s="2"/>
-      <c r="B663" s="2"/>
-      <c r="G663" s="3"/>
+      <c r="A663" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C663" s="5">
+        <v>6</v>
+      </c>
+      <c r="D663" s="5">
+        <v>56</v>
+      </c>
+      <c r="E663" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J663" s="5">
+        <v>1</v>
+      </c>
+      <c r="W663" s="5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="664" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A664" s="2"/>
-      <c r="B664" s="2"/>
-      <c r="G664" s="3"/>
+      <c r="A664" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C664" s="5">
+        <v>6</v>
+      </c>
+      <c r="D664" s="5">
+        <v>56</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J664" s="5">
+        <v>1</v>
+      </c>
+      <c r="W664" s="5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="665" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A665" s="2"/>
-      <c r="B665" s="2"/>
-      <c r="G665" s="3"/>
+      <c r="A665" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C665" s="5">
+        <v>6</v>
+      </c>
+      <c r="D665" s="5">
+        <v>56</v>
+      </c>
+      <c r="E665" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J665" s="5">
+        <v>1</v>
+      </c>
+      <c r="W665" s="5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="666" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A666" s="2"/>
-      <c r="B666" s="2"/>
-      <c r="G666" s="3"/>
+      <c r="A666" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C666" s="5">
+        <v>6</v>
+      </c>
+      <c r="D666" s="5">
+        <v>56</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J666" s="5">
+        <v>1</v>
+      </c>
+      <c r="W666" s="5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="667" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A667" s="2"/>
-      <c r="B667" s="2"/>
-      <c r="G667" s="3"/>
+      <c r="A667" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C667" s="5">
+        <v>6</v>
+      </c>
+      <c r="D667" s="5">
+        <v>56</v>
+      </c>
+      <c r="E667" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J667" s="5">
+        <v>1</v>
+      </c>
+      <c r="W667" s="5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="668" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A668" s="2"/>
-      <c r="B668" s="2"/>
-      <c r="G668" s="3"/>
+      <c r="A668" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C668" s="5">
+        <v>6</v>
+      </c>
+      <c r="D668" s="5">
+        <v>56</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H668" s="5">
+        <v>1</v>
+      </c>
+      <c r="M668" s="5">
+        <v>1</v>
+      </c>
+      <c r="W668" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="669" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A669" s="2"/>
-      <c r="B669" s="2"/>
-      <c r="G669" s="3"/>
+      <c r="A669" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C669" s="5">
+        <v>6</v>
+      </c>
+      <c r="D669" s="5">
+        <v>56</v>
+      </c>
+      <c r="E669" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F669" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H669" s="5">
+        <v>1</v>
+      </c>
+      <c r="M669" s="5">
+        <v>1</v>
+      </c>
+      <c r="W669" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="670" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A670" s="2"/>
-      <c r="B670" s="2"/>
-      <c r="G670" s="3"/>
+      <c r="A670" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C670" s="5">
+        <v>6</v>
+      </c>
+      <c r="D670" s="5">
+        <v>56</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H670" s="5">
+        <v>1</v>
+      </c>
+      <c r="M670" s="5">
+        <v>1</v>
+      </c>
+      <c r="W670" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="671" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A671" s="2"/>
-      <c r="B671" s="2"/>
-      <c r="G671" s="3"/>
+      <c r="A671" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C671" s="5">
+        <v>6</v>
+      </c>
+      <c r="D671" s="5">
+        <v>56</v>
+      </c>
+      <c r="E671" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F671" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H671" s="5">
+        <v>1</v>
+      </c>
+      <c r="K671" s="5">
+        <v>1</v>
+      </c>
+      <c r="M671" s="5">
+        <v>1</v>
+      </c>
+      <c r="W671" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="672" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A672" s="2"/>
-      <c r="B672" s="2"/>
-      <c r="G672" s="3"/>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A673" s="2"/>
-      <c r="B673" s="2"/>
-      <c r="G673" s="3"/>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A674" s="2"/>
-      <c r="B674" s="2"/>
-      <c r="G674" s="3"/>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A675" s="2"/>
-      <c r="B675" s="2"/>
-      <c r="G675" s="3"/>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A676" s="2"/>
-      <c r="B676" s="2"/>
-      <c r="G676" s="3"/>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A677" s="2"/>
-      <c r="B677" s="2"/>
-      <c r="G677" s="3"/>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A678" s="2"/>
-      <c r="B678" s="2"/>
-      <c r="G678" s="3"/>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A679" s="2"/>
-      <c r="B679" s="2"/>
-      <c r="G679" s="3"/>
-    </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A680" s="2"/>
-      <c r="B680" s="2"/>
-      <c r="G680" s="3"/>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A681" s="2"/>
-      <c r="B681" s="2"/>
-      <c r="G681" s="3"/>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A682" s="2"/>
-      <c r="B682" s="2"/>
-      <c r="G682" s="3"/>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A683" s="2"/>
-      <c r="B683" s="2"/>
-      <c r="G683" s="3"/>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A684" s="2"/>
-      <c r="B684" s="2"/>
-      <c r="G684" s="3"/>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A685" s="2"/>
-      <c r="B685" s="2"/>
-      <c r="G685" s="3"/>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A686" s="2"/>
-      <c r="B686" s="2"/>
-      <c r="G686" s="3"/>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A687" s="2"/>
-      <c r="B687" s="2"/>
-      <c r="G687" s="3"/>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A688" s="2"/>
-      <c r="B688" s="2"/>
-      <c r="G688" s="3"/>
-    </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
-      <c r="B689" s="2"/>
-      <c r="G689" s="3"/>
-    </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="2"/>
-      <c r="B690" s="2"/>
-      <c r="G690" s="3"/>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A691" s="2"/>
-      <c r="B691" s="2"/>
-      <c r="G691" s="3"/>
-    </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A692" s="2"/>
-      <c r="B692" s="2"/>
-      <c r="G692" s="3"/>
-    </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A693" s="2"/>
-      <c r="B693" s="2"/>
-      <c r="G693" s="3"/>
-    </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A694" s="2"/>
-      <c r="B694" s="2"/>
-      <c r="G694" s="3"/>
-    </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A695" s="2"/>
-      <c r="B695" s="2"/>
-      <c r="G695" s="3"/>
-    </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="2"/>
-      <c r="B696" s="2"/>
-      <c r="G696" s="3"/>
-    </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A697" s="2"/>
-      <c r="B697" s="2"/>
-      <c r="G697" s="3"/>
-    </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A698" s="2"/>
-      <c r="B698" s="2"/>
-      <c r="G698" s="3"/>
-    </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A699" s="2"/>
-      <c r="B699" s="2"/>
-      <c r="G699" s="3"/>
-    </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="2"/>
-      <c r="B700" s="2"/>
-      <c r="G700" s="3"/>
-    </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A701" s="2"/>
-      <c r="B701" s="2"/>
-      <c r="G701" s="3"/>
-    </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A702" s="2"/>
-      <c r="B702" s="2"/>
-      <c r="G702" s="3"/>
-    </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A703" s="2"/>
-      <c r="B703" s="2"/>
-      <c r="G703" s="3"/>
-    </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A704" s="2"/>
-      <c r="B704" s="2"/>
-      <c r="G704" s="3"/>
-    </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A705" s="2"/>
-      <c r="B705" s="2"/>
-      <c r="G705" s="3"/>
-    </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A706" s="2"/>
-      <c r="B706" s="2"/>
-      <c r="G706" s="3"/>
-    </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A707" s="2"/>
-      <c r="B707" s="2"/>
-      <c r="G707" s="3"/>
-    </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A708" s="2"/>
-      <c r="B708" s="2"/>
-      <c r="G708" s="3"/>
-    </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A709" s="2"/>
-      <c r="B709" s="2"/>
-      <c r="G709" s="3"/>
-    </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A710" s="2"/>
-      <c r="B710" s="2"/>
-      <c r="G710" s="3"/>
-    </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A711" s="2"/>
-      <c r="B711" s="2"/>
-      <c r="G711" s="3"/>
-    </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A712" s="2"/>
-      <c r="B712" s="2"/>
-      <c r="G712" s="3"/>
-    </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A713" s="2"/>
-      <c r="B713" s="2"/>
-      <c r="G713" s="3"/>
-    </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A714" s="2"/>
-      <c r="B714" s="2"/>
-      <c r="G714" s="3"/>
-    </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A715" s="2"/>
-      <c r="B715" s="2"/>
-      <c r="G715" s="3"/>
-    </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A716" s="2"/>
-      <c r="B716" s="2"/>
-      <c r="G716" s="3"/>
-    </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
-      <c r="G717" s="3"/>
-    </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
-      <c r="G718" s="3"/>
-    </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A719" s="2"/>
-      <c r="B719" s="2"/>
-      <c r="G719" s="3"/>
-    </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A720" s="2"/>
-      <c r="B720" s="2"/>
-      <c r="G720" s="3"/>
-    </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A721" s="2"/>
-      <c r="B721" s="2"/>
-      <c r="G721" s="3"/>
-    </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A722" s="2"/>
-      <c r="B722" s="2"/>
-      <c r="G722" s="3"/>
-    </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A723" s="2"/>
-      <c r="B723" s="2"/>
-      <c r="G723" s="3"/>
-    </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A724" s="2"/>
-      <c r="B724" s="2"/>
-      <c r="G724" s="3"/>
-    </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A725" s="2"/>
-      <c r="B725" s="2"/>
-      <c r="G725" s="3"/>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A726" s="2"/>
-      <c r="B726" s="2"/>
-      <c r="G726" s="3"/>
-    </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A727" s="2"/>
-      <c r="B727" s="2"/>
-      <c r="G727" s="3"/>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A728" s="2"/>
-      <c r="B728" s="2"/>
-      <c r="G728" s="3"/>
-    </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A729" s="2"/>
-      <c r="B729" s="2"/>
-      <c r="G729" s="3"/>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A730" s="2"/>
-      <c r="B730" s="2"/>
-      <c r="G730" s="3"/>
-    </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A731" s="2"/>
-      <c r="B731" s="2"/>
-      <c r="G731" s="3"/>
-    </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A732" s="2"/>
-      <c r="B732" s="2"/>
-      <c r="G732" s="3"/>
-    </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A733" s="2"/>
-      <c r="B733" s="2"/>
-      <c r="G733" s="3"/>
-    </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A734" s="9"/>
-      <c r="B734" s="9"/>
-      <c r="G734" s="3"/>
-    </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A735" s="9"/>
-      <c r="B735" s="9"/>
-      <c r="G735" s="3"/>
-    </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A736" s="9"/>
-      <c r="B736" s="9"/>
-      <c r="G736" s="3"/>
-    </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A737" s="9"/>
-      <c r="B737" s="9"/>
-      <c r="G737" s="3"/>
-    </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A738" s="9"/>
-      <c r="B738" s="9"/>
-      <c r="G738" s="3"/>
-    </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A739" s="9"/>
-      <c r="B739" s="9"/>
-      <c r="G739" s="3"/>
-    </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A740" s="9"/>
-      <c r="B740" s="9"/>
-      <c r="G740" s="3"/>
-    </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A741" s="9"/>
-      <c r="B741" s="9"/>
-      <c r="G741" s="3"/>
-    </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A742" s="9"/>
-      <c r="B742" s="9"/>
-      <c r="G742" s="3"/>
-    </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A743" s="9"/>
-      <c r="B743" s="9"/>
-      <c r="G743" s="3"/>
-    </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A744" s="9"/>
-      <c r="B744" s="9"/>
-      <c r="G744" s="3"/>
-    </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A745" s="9"/>
-      <c r="B745" s="9"/>
-      <c r="G745" s="3"/>
-    </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A746" s="9"/>
-      <c r="B746" s="9"/>
-      <c r="G746" s="3"/>
-    </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A747" s="9"/>
-      <c r="B747" s="9"/>
-      <c r="G747" s="3"/>
-    </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A748" s="9"/>
-      <c r="B748" s="9"/>
-      <c r="G748" s="3"/>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A749" s="9"/>
-      <c r="B749" s="9"/>
-      <c r="G749" s="3"/>
-    </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A750" s="9"/>
-      <c r="B750" s="9"/>
-      <c r="G750" s="3"/>
-    </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A751" s="9"/>
-      <c r="B751" s="9"/>
-      <c r="G751" s="3"/>
-    </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A752" s="9"/>
-      <c r="B752" s="9"/>
-      <c r="G752" s="3"/>
-    </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A753" s="9"/>
-      <c r="B753" s="9"/>
-      <c r="G753" s="3"/>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A754" s="9"/>
-      <c r="B754" s="9"/>
-      <c r="G754" s="3"/>
-    </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A755" s="9"/>
-      <c r="B755" s="9"/>
-      <c r="G755" s="3"/>
-    </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A756" s="9"/>
-      <c r="B756" s="9"/>
-      <c r="G756" s="3"/>
-    </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A757" s="9"/>
-      <c r="B757" s="9"/>
-      <c r="G757" s="3"/>
-    </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A758" s="9"/>
-      <c r="B758" s="9"/>
-      <c r="G758" s="3"/>
-    </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A759" s="9"/>
-      <c r="B759" s="9"/>
-      <c r="G759" s="3"/>
-    </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A760" s="9"/>
-      <c r="B760" s="9"/>
-      <c r="G760" s="3"/>
-    </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A761" s="9"/>
-      <c r="B761" s="9"/>
-      <c r="G761" s="3"/>
-    </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A762" s="9"/>
-      <c r="B762" s="9"/>
-      <c r="G762" s="3"/>
-    </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A763" s="9"/>
-      <c r="B763" s="9"/>
-      <c r="G763" s="3"/>
-    </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A764" s="9"/>
-      <c r="B764" s="9"/>
-      <c r="G764" s="3"/>
-    </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A765" s="9"/>
-      <c r="B765" s="9"/>
-      <c r="G765" s="3"/>
-    </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A766" s="9"/>
-      <c r="B766" s="9"/>
-      <c r="G766" s="3"/>
-    </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A767" s="9"/>
-      <c r="B767" s="9"/>
-      <c r="G767" s="3"/>
-    </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A768" s="9"/>
-      <c r="B768" s="9"/>
-      <c r="G768" s="3"/>
-    </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A769" s="9"/>
-      <c r="B769" s="9"/>
-      <c r="G769" s="3"/>
-    </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A770" s="9"/>
-      <c r="B770" s="9"/>
-      <c r="G770" s="3"/>
-    </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A771" s="9"/>
-      <c r="B771" s="9"/>
-      <c r="G771" s="3"/>
-    </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A772" s="9"/>
-      <c r="B772" s="9"/>
-      <c r="G772" s="3"/>
-    </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A773" s="9"/>
-      <c r="B773" s="9"/>
-      <c r="G773" s="3"/>
-    </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A774" s="9"/>
-      <c r="B774" s="9"/>
-      <c r="G774" s="3"/>
-    </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A775" s="9"/>
-      <c r="B775" s="9"/>
-      <c r="G775" s="3"/>
-    </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A776" s="9"/>
-      <c r="B776" s="9"/>
-      <c r="G776" s="3"/>
-    </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A777" s="9"/>
-      <c r="B777" s="9"/>
-      <c r="G777" s="3"/>
-    </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A778" s="9"/>
-      <c r="B778" s="9"/>
-      <c r="G778" s="3"/>
-    </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A779" s="9"/>
-      <c r="B779" s="9"/>
-      <c r="G779" s="3"/>
-    </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A780" s="9"/>
-      <c r="B780" s="9"/>
-      <c r="G780" s="3"/>
-    </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A781" s="9"/>
-      <c r="B781" s="9"/>
-      <c r="G781" s="3"/>
-    </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A782" s="9"/>
-      <c r="B782" s="9"/>
-      <c r="G782" s="3"/>
-    </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A783" s="9"/>
-      <c r="B783" s="9"/>
-      <c r="G783" s="3"/>
-    </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A784" s="9"/>
-      <c r="B784" s="9"/>
-      <c r="G784" s="3"/>
-    </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A785" s="9"/>
-      <c r="B785" s="9"/>
-      <c r="G785" s="3"/>
-    </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A786" s="9"/>
-      <c r="B786" s="9"/>
-      <c r="G786" s="3"/>
-    </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A787" s="9"/>
-      <c r="B787" s="9"/>
-      <c r="G787" s="3"/>
-    </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A788" s="9"/>
-      <c r="B788" s="9"/>
-      <c r="G788" s="3"/>
-    </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A789" s="9"/>
-      <c r="B789" s="9"/>
-      <c r="G789" s="3"/>
-    </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A790" s="9"/>
-      <c r="B790" s="9"/>
-      <c r="G790" s="3"/>
-    </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A791" s="9"/>
-      <c r="B791" s="9"/>
-      <c r="G791" s="3"/>
-    </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A792" s="9"/>
-      <c r="B792" s="9"/>
-      <c r="G792" s="3"/>
-    </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A793" s="9"/>
-      <c r="B793" s="9"/>
-      <c r="G793" s="3"/>
-    </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C672" s="5">
+        <v>6</v>
+      </c>
+      <c r="D672" s="5">
+        <v>56</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H672" s="5">
+        <v>1</v>
+      </c>
+      <c r="M672" s="5">
+        <v>1</v>
+      </c>
+      <c r="W672" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A673" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C673" s="5">
+        <v>6</v>
+      </c>
+      <c r="D673" s="5">
+        <v>56</v>
+      </c>
+      <c r="E673" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F673" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H673" s="5">
+        <v>1</v>
+      </c>
+      <c r="M673" s="5">
+        <v>1</v>
+      </c>
+      <c r="W673" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A674" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C674" s="5">
+        <v>6</v>
+      </c>
+      <c r="D674" s="5">
+        <v>57</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I674" s="5">
+        <v>1</v>
+      </c>
+      <c r="S674" s="5">
+        <v>1</v>
+      </c>
+      <c r="W674" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A675" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C675" s="5">
+        <v>6</v>
+      </c>
+      <c r="D675" s="5">
+        <v>57</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I675" s="5">
+        <v>1</v>
+      </c>
+      <c r="W675" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A676" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C676" s="5">
+        <v>6</v>
+      </c>
+      <c r="D676" s="5">
+        <v>57</v>
+      </c>
+      <c r="E676" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I676" s="5">
+        <v>1</v>
+      </c>
+      <c r="K676" s="5">
+        <v>1</v>
+      </c>
+      <c r="W676" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A677" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C677" s="5">
+        <v>6</v>
+      </c>
+      <c r="D677" s="5">
+        <v>57</v>
+      </c>
+      <c r="E677" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F677" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I677" s="5">
+        <v>1</v>
+      </c>
+      <c r="W677" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A678" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C678" s="5">
+        <v>6</v>
+      </c>
+      <c r="D678" s="5">
+        <v>57</v>
+      </c>
+      <c r="E678" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F678" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I678" s="5">
+        <v>1</v>
+      </c>
+      <c r="W678" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A679" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C679" s="5">
+        <v>6</v>
+      </c>
+      <c r="D679" s="5">
+        <v>57</v>
+      </c>
+      <c r="E679" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F679" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I679" s="5">
+        <v>1</v>
+      </c>
+      <c r="W679" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A680" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C680" s="5">
+        <v>6</v>
+      </c>
+      <c r="D680" s="5">
+        <v>57</v>
+      </c>
+      <c r="E680" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F680" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I680" s="5">
+        <v>1</v>
+      </c>
+      <c r="S680" s="5">
+        <v>1</v>
+      </c>
+      <c r="W680" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A681" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C681" s="5">
+        <v>6</v>
+      </c>
+      <c r="D681" s="5">
+        <v>57</v>
+      </c>
+      <c r="E681" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F681" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I681" s="5">
+        <v>1</v>
+      </c>
+      <c r="L681" s="5">
+        <v>1</v>
+      </c>
+      <c r="W681" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A682" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C682" s="5">
+        <v>6</v>
+      </c>
+      <c r="D682" s="5">
+        <v>57</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I682" s="5">
+        <v>1</v>
+      </c>
+      <c r="K682" s="5">
+        <v>1</v>
+      </c>
+      <c r="W682" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A683" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C683" s="5">
+        <v>6</v>
+      </c>
+      <c r="D683" s="5">
+        <v>57</v>
+      </c>
+      <c r="E683" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F683" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I683" s="5">
+        <v>1</v>
+      </c>
+      <c r="W683" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A684" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C684" s="5">
+        <v>6</v>
+      </c>
+      <c r="D684" s="5">
+        <v>57</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I684" s="5">
+        <v>1</v>
+      </c>
+      <c r="W684" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C685" s="5">
+        <v>6</v>
+      </c>
+      <c r="D685" s="5">
+        <v>57</v>
+      </c>
+      <c r="E685" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F685" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I685" s="5">
+        <v>1</v>
+      </c>
+      <c r="W685" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C686" s="5">
+        <v>6</v>
+      </c>
+      <c r="D686" s="5">
+        <v>58</v>
+      </c>
+      <c r="E686" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J686" s="5">
+        <v>1</v>
+      </c>
+      <c r="S686" s="5">
+        <v>2</v>
+      </c>
+      <c r="W686" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A687" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C687" s="5">
+        <v>6</v>
+      </c>
+      <c r="D687" s="5">
+        <v>58</v>
+      </c>
+      <c r="E687" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F687" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J687" s="5">
+        <v>1</v>
+      </c>
+      <c r="W687" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A688" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C688" s="5">
+        <v>6</v>
+      </c>
+      <c r="D688" s="5">
+        <v>58</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J688" s="5">
+        <v>1</v>
+      </c>
+      <c r="W688" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A689" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C689" s="5">
+        <v>6</v>
+      </c>
+      <c r="D689" s="5">
+        <v>58</v>
+      </c>
+      <c r="E689" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J689" s="5">
+        <v>1</v>
+      </c>
+      <c r="W689" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A690" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C690" s="5">
+        <v>6</v>
+      </c>
+      <c r="D690" s="5">
+        <v>58</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J690" s="5">
+        <v>1</v>
+      </c>
+      <c r="W690" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A691" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C691" s="5">
+        <v>6</v>
+      </c>
+      <c r="D691" s="5">
+        <v>58</v>
+      </c>
+      <c r="E691" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J691" s="5">
+        <v>1</v>
+      </c>
+      <c r="W691" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="692" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A692" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C692" s="5">
+        <v>6</v>
+      </c>
+      <c r="D692" s="5">
+        <v>58</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H692" s="5">
+        <v>1</v>
+      </c>
+      <c r="M692" s="5">
+        <v>1</v>
+      </c>
+      <c r="T692" s="5">
+        <v>1</v>
+      </c>
+      <c r="W692" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="693" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A693" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C693" s="5">
+        <v>6</v>
+      </c>
+      <c r="D693" s="5">
+        <v>58</v>
+      </c>
+      <c r="E693" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H693" s="5">
+        <v>1</v>
+      </c>
+      <c r="K693" s="5">
+        <v>1</v>
+      </c>
+      <c r="M693" s="5">
+        <v>1</v>
+      </c>
+      <c r="W693" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="694" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A694" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C694" s="5">
+        <v>6</v>
+      </c>
+      <c r="D694" s="5">
+        <v>58</v>
+      </c>
+      <c r="E694" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H694" s="5">
+        <v>1</v>
+      </c>
+      <c r="M694" s="5">
+        <v>1</v>
+      </c>
+      <c r="W694" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="695" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A695" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C695" s="5">
+        <v>6</v>
+      </c>
+      <c r="D695" s="5">
+        <v>58</v>
+      </c>
+      <c r="E695" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F695" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H695" s="5">
+        <v>1</v>
+      </c>
+      <c r="L695" s="5">
+        <v>1</v>
+      </c>
+      <c r="M695" s="5">
+        <v>1</v>
+      </c>
+      <c r="W695" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A696" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C696" s="5">
+        <v>6</v>
+      </c>
+      <c r="D696" s="5">
+        <v>58</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H696" s="5">
+        <v>1</v>
+      </c>
+      <c r="L696" s="5">
+        <v>1</v>
+      </c>
+      <c r="M696" s="5">
+        <v>1</v>
+      </c>
+      <c r="W696" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A697" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C697" s="5">
+        <v>6</v>
+      </c>
+      <c r="D697" s="5">
+        <v>58</v>
+      </c>
+      <c r="E697" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F697" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H697" s="5">
+        <v>1</v>
+      </c>
+      <c r="K697" s="5">
+        <v>1</v>
+      </c>
+      <c r="M697" s="5">
+        <v>1</v>
+      </c>
+      <c r="W697" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A698" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C698" s="5">
+        <v>6</v>
+      </c>
+      <c r="D698" s="5">
+        <v>59</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F698" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H698" s="5">
+        <v>1</v>
+      </c>
+      <c r="M698" s="5">
+        <v>1</v>
+      </c>
+      <c r="W698" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="699" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A699" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C699" s="5">
+        <v>6</v>
+      </c>
+      <c r="D699" s="5">
+        <v>59</v>
+      </c>
+      <c r="E699" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F699" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H699" s="5">
+        <v>1</v>
+      </c>
+      <c r="M699" s="5">
+        <v>1</v>
+      </c>
+      <c r="W699" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="700" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A700" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C700" s="5">
+        <v>6</v>
+      </c>
+      <c r="D700" s="5">
+        <v>59</v>
+      </c>
+      <c r="E700" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H700" s="5">
+        <v>1</v>
+      </c>
+      <c r="M700" s="5">
+        <v>1</v>
+      </c>
+      <c r="W700" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A701" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C701" s="5">
+        <v>6</v>
+      </c>
+      <c r="D701" s="5">
+        <v>59</v>
+      </c>
+      <c r="E701" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H701" s="5">
+        <v>1</v>
+      </c>
+      <c r="K701" s="5">
+        <v>2</v>
+      </c>
+      <c r="M701" s="5">
+        <v>1</v>
+      </c>
+      <c r="W701" s="5">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A702" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C702" s="5">
+        <v>6</v>
+      </c>
+      <c r="D702" s="5">
+        <v>59</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F702" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H702" s="5">
+        <v>1</v>
+      </c>
+      <c r="L702" s="5">
+        <v>2</v>
+      </c>
+      <c r="M702" s="5">
+        <v>1</v>
+      </c>
+      <c r="W702" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="703" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A703" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C703" s="5">
+        <v>6</v>
+      </c>
+      <c r="D703" s="5">
+        <v>59</v>
+      </c>
+      <c r="E703" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F703" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H703" s="5">
+        <v>1</v>
+      </c>
+      <c r="M703" s="5">
+        <v>1</v>
+      </c>
+      <c r="W703" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A704" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C704" s="5">
+        <v>6</v>
+      </c>
+      <c r="D704" s="5">
+        <v>59</v>
+      </c>
+      <c r="E704" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F704" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J704" s="5">
+        <v>1</v>
+      </c>
+      <c r="S704" s="5">
+        <v>2</v>
+      </c>
+      <c r="W704" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="705" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A705" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C705" s="5">
+        <v>6</v>
+      </c>
+      <c r="D705" s="5">
+        <v>59</v>
+      </c>
+      <c r="E705" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F705" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J705" s="5">
+        <v>1</v>
+      </c>
+      <c r="W705" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A706" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C706" s="5">
+        <v>6</v>
+      </c>
+      <c r="D706" s="5">
+        <v>59</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J706" s="5">
+        <v>1</v>
+      </c>
+      <c r="W706" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A707" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C707" s="5">
+        <v>6</v>
+      </c>
+      <c r="D707" s="5">
+        <v>59</v>
+      </c>
+      <c r="E707" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F707" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J707" s="5">
+        <v>1</v>
+      </c>
+      <c r="W707" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A708" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C708" s="5">
+        <v>6</v>
+      </c>
+      <c r="D708" s="5">
+        <v>59</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J708" s="5">
+        <v>1</v>
+      </c>
+      <c r="W708" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A709" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C709" s="5">
+        <v>6</v>
+      </c>
+      <c r="D709" s="5">
+        <v>59</v>
+      </c>
+      <c r="E709" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F709" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J709" s="5">
+        <v>1</v>
+      </c>
+      <c r="W709" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A710" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C710" s="5">
+        <v>6</v>
+      </c>
+      <c r="D710" s="5">
+        <v>60</v>
+      </c>
+      <c r="E710" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H710" s="5">
+        <v>1</v>
+      </c>
+      <c r="M710" s="5">
+        <v>1</v>
+      </c>
+      <c r="T710" s="5">
+        <v>1</v>
+      </c>
+      <c r="W710" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="711" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A711" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C711" s="5">
+        <v>6</v>
+      </c>
+      <c r="D711" s="5">
+        <v>60</v>
+      </c>
+      <c r="E711" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F711" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H711" s="5">
+        <v>1</v>
+      </c>
+      <c r="M711" s="5">
+        <v>1</v>
+      </c>
+      <c r="W711" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A712" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C712" s="5">
+        <v>6</v>
+      </c>
+      <c r="D712" s="5">
+        <v>60</v>
+      </c>
+      <c r="E712" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F712" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H712" s="5">
+        <v>1</v>
+      </c>
+      <c r="M712" s="5">
+        <v>1</v>
+      </c>
+      <c r="W712" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A713" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C713" s="5">
+        <v>6</v>
+      </c>
+      <c r="D713" s="5">
+        <v>60</v>
+      </c>
+      <c r="E713" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F713" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H713" s="5">
+        <v>1</v>
+      </c>
+      <c r="L713" s="5">
+        <v>1</v>
+      </c>
+      <c r="M713" s="5">
+        <v>1</v>
+      </c>
+      <c r="O713" s="5">
+        <v>1</v>
+      </c>
+      <c r="V713" s="5">
+        <v>1</v>
+      </c>
+      <c r="W713" s="5">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A714" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C714" s="5">
+        <v>6</v>
+      </c>
+      <c r="D714" s="5">
+        <v>60</v>
+      </c>
+      <c r="E714" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H714" s="5">
+        <v>1</v>
+      </c>
+      <c r="M714" s="5">
+        <v>1</v>
+      </c>
+      <c r="V714" s="5">
+        <v>1</v>
+      </c>
+      <c r="W714" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C715" s="5">
+        <v>6</v>
+      </c>
+      <c r="D715" s="5">
+        <v>60</v>
+      </c>
+      <c r="E715" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F715" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H715" s="5">
+        <v>1</v>
+      </c>
+      <c r="K715" s="5">
+        <v>1</v>
+      </c>
+      <c r="M715" s="5">
+        <v>1</v>
+      </c>
+      <c r="W715" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="716" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C716" s="5">
+        <v>6</v>
+      </c>
+      <c r="D716" s="5">
+        <v>60</v>
+      </c>
+      <c r="E716" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F716" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J716" s="5">
+        <v>1</v>
+      </c>
+      <c r="S716" s="5">
+        <v>1</v>
+      </c>
+      <c r="W716" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="717" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C717" s="5">
+        <v>6</v>
+      </c>
+      <c r="D717" s="5">
+        <v>60</v>
+      </c>
+      <c r="E717" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F717" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J717" s="5">
+        <v>1</v>
+      </c>
+      <c r="W717" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="718" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C718" s="5">
+        <v>6</v>
+      </c>
+      <c r="D718" s="5">
+        <v>60</v>
+      </c>
+      <c r="E718" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F718" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J718" s="5">
+        <v>1</v>
+      </c>
+      <c r="W718" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C719" s="5">
+        <v>6</v>
+      </c>
+      <c r="D719" s="5">
+        <v>60</v>
+      </c>
+      <c r="E719" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F719" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J719" s="5">
+        <v>1</v>
+      </c>
+      <c r="V719" s="5">
+        <v>1</v>
+      </c>
+      <c r="W719" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C720" s="5">
+        <v>6</v>
+      </c>
+      <c r="D720" s="5">
+        <v>60</v>
+      </c>
+      <c r="E720" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F720" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J720" s="5">
+        <v>1</v>
+      </c>
+      <c r="W720" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="721" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C721" s="5">
+        <v>6</v>
+      </c>
+      <c r="D721" s="5">
+        <v>60</v>
+      </c>
+      <c r="E721" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F721" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J721" s="5">
+        <v>1</v>
+      </c>
+      <c r="W721" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C722" s="5">
+        <v>6</v>
+      </c>
+      <c r="D722" s="5">
+        <v>61</v>
+      </c>
+      <c r="E722" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J722" s="5">
+        <v>1</v>
+      </c>
+      <c r="S722" s="5">
+        <v>1</v>
+      </c>
+      <c r="W722" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="723" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C723" s="5">
+        <v>6</v>
+      </c>
+      <c r="D723" s="5">
+        <v>61</v>
+      </c>
+      <c r="E723" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F723" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J723" s="5">
+        <v>1</v>
+      </c>
+      <c r="V723" s="5">
+        <v>1</v>
+      </c>
+      <c r="W723" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C724" s="5">
+        <v>6</v>
+      </c>
+      <c r="D724" s="5">
+        <v>61</v>
+      </c>
+      <c r="E724" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F724" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J724" s="5">
+        <v>1</v>
+      </c>
+      <c r="W724" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="725" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C725" s="5">
+        <v>6</v>
+      </c>
+      <c r="D725" s="5">
+        <v>61</v>
+      </c>
+      <c r="E725" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F725" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J725" s="5">
+        <v>1</v>
+      </c>
+      <c r="W725" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C726" s="5">
+        <v>6</v>
+      </c>
+      <c r="D726" s="5">
+        <v>61</v>
+      </c>
+      <c r="E726" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J726" s="5">
+        <v>1</v>
+      </c>
+      <c r="W726" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C727" s="5">
+        <v>6</v>
+      </c>
+      <c r="D727" s="5">
+        <v>61</v>
+      </c>
+      <c r="E727" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F727" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J727" s="5">
+        <v>1</v>
+      </c>
+      <c r="W727" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C728" s="5">
+        <v>6</v>
+      </c>
+      <c r="D728" s="5">
+        <v>61</v>
+      </c>
+      <c r="E728" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H728" s="5">
+        <v>1</v>
+      </c>
+      <c r="M728" s="5">
+        <v>1</v>
+      </c>
+      <c r="W728" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C729" s="5">
+        <v>6</v>
+      </c>
+      <c r="D729" s="5">
+        <v>61</v>
+      </c>
+      <c r="E729" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F729" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H729" s="5">
+        <v>1</v>
+      </c>
+      <c r="M729" s="5">
+        <v>1</v>
+      </c>
+      <c r="W729" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C730" s="5">
+        <v>6</v>
+      </c>
+      <c r="D730" s="5">
+        <v>61</v>
+      </c>
+      <c r="E730" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F730" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H730" s="5">
+        <v>1</v>
+      </c>
+      <c r="K730" s="5">
+        <v>1</v>
+      </c>
+      <c r="M730" s="5">
+        <v>1</v>
+      </c>
+      <c r="W730" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="731" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C731" s="5">
+        <v>6</v>
+      </c>
+      <c r="D731" s="5">
+        <v>61</v>
+      </c>
+      <c r="E731" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F731" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H731" s="5">
+        <v>1</v>
+      </c>
+      <c r="M731" s="5">
+        <v>1</v>
+      </c>
+      <c r="W731" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C732" s="5">
+        <v>6</v>
+      </c>
+      <c r="D732" s="5">
+        <v>61</v>
+      </c>
+      <c r="E732" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F732" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H732" s="5">
+        <v>1</v>
+      </c>
+      <c r="M732" s="5">
+        <v>1</v>
+      </c>
+      <c r="W732" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C733" s="5">
+        <v>6</v>
+      </c>
+      <c r="D733" s="5">
+        <v>61</v>
+      </c>
+      <c r="E733" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F733" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H733" s="5">
+        <v>1</v>
+      </c>
+      <c r="M733" s="5">
+        <v>1</v>
+      </c>
+      <c r="W733" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C734" s="5">
+        <v>6</v>
+      </c>
+      <c r="D734" s="5">
+        <v>62</v>
+      </c>
+      <c r="E734" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H734" s="5">
+        <v>1</v>
+      </c>
+      <c r="M734" s="5">
+        <v>1</v>
+      </c>
+      <c r="W734" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="735" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C735" s="5">
+        <v>6</v>
+      </c>
+      <c r="D735" s="5">
+        <v>62</v>
+      </c>
+      <c r="E735" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F735" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H735" s="5">
+        <v>1</v>
+      </c>
+      <c r="K735" s="5">
+        <v>1</v>
+      </c>
+      <c r="M735" s="5">
+        <v>1</v>
+      </c>
+      <c r="W735" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="736" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C736" s="5">
+        <v>6</v>
+      </c>
+      <c r="D736" s="5">
+        <v>62</v>
+      </c>
+      <c r="E736" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H736" s="5">
+        <v>1</v>
+      </c>
+      <c r="M736" s="5">
+        <v>1</v>
+      </c>
+      <c r="W736" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="737" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C737" s="5">
+        <v>6</v>
+      </c>
+      <c r="D737" s="5">
+        <v>62</v>
+      </c>
+      <c r="E737" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F737" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H737" s="5">
+        <v>1</v>
+      </c>
+      <c r="L737" s="5">
+        <v>1</v>
+      </c>
+      <c r="M737" s="5">
+        <v>1</v>
+      </c>
+      <c r="W737" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C738" s="5">
+        <v>6</v>
+      </c>
+      <c r="D738" s="5">
+        <v>62</v>
+      </c>
+      <c r="E738" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F738" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H738" s="5">
+        <v>1</v>
+      </c>
+      <c r="K738" s="5">
+        <v>1</v>
+      </c>
+      <c r="M738" s="5">
+        <v>1</v>
+      </c>
+      <c r="W738" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="739" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C739" s="5">
+        <v>6</v>
+      </c>
+      <c r="D739" s="5">
+        <v>62</v>
+      </c>
+      <c r="E739" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F739" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H739" s="5">
+        <v>1</v>
+      </c>
+      <c r="M739" s="5">
+        <v>1</v>
+      </c>
+      <c r="W739" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C740" s="5">
+        <v>6</v>
+      </c>
+      <c r="D740" s="5">
+        <v>62</v>
+      </c>
+      <c r="E740" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F740" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J740" s="5">
+        <v>1</v>
+      </c>
+      <c r="S740" s="5">
+        <v>2</v>
+      </c>
+      <c r="W740" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="741" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C741" s="5">
+        <v>6</v>
+      </c>
+      <c r="D741" s="5">
+        <v>62</v>
+      </c>
+      <c r="E741" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F741" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J741" s="5">
+        <v>1</v>
+      </c>
+      <c r="W741" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C742" s="5">
+        <v>6</v>
+      </c>
+      <c r="D742" s="5">
+        <v>62</v>
+      </c>
+      <c r="E742" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F742" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G742" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J742" s="5">
+        <v>1</v>
+      </c>
+      <c r="W742" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C743" s="5">
+        <v>6</v>
+      </c>
+      <c r="D743" s="5">
+        <v>62</v>
+      </c>
+      <c r="E743" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F743" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J743" s="5">
+        <v>1</v>
+      </c>
+      <c r="W743" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C744" s="5">
+        <v>6</v>
+      </c>
+      <c r="D744" s="5">
+        <v>62</v>
+      </c>
+      <c r="E744" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F744" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J744" s="5">
+        <v>1</v>
+      </c>
+      <c r="W744" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C745" s="5">
+        <v>6</v>
+      </c>
+      <c r="D745" s="5">
+        <v>62</v>
+      </c>
+      <c r="E745" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F745" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G745" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J745" s="5">
+        <v>1</v>
+      </c>
+      <c r="W745" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C746" s="5">
+        <v>6</v>
+      </c>
+      <c r="D746" s="5">
+        <v>63</v>
+      </c>
+      <c r="E746" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F746" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G746" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H746" s="5">
+        <v>1</v>
+      </c>
+      <c r="M746" s="5">
+        <v>1</v>
+      </c>
+      <c r="W746" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="747" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A747" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C747" s="5">
+        <v>6</v>
+      </c>
+      <c r="D747" s="5">
+        <v>63</v>
+      </c>
+      <c r="E747" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F747" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H747" s="5">
+        <v>1</v>
+      </c>
+      <c r="L747" s="5">
+        <v>1</v>
+      </c>
+      <c r="M747" s="5">
+        <v>1</v>
+      </c>
+      <c r="W747" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="748" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A748" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C748" s="5">
+        <v>6</v>
+      </c>
+      <c r="D748" s="5">
+        <v>63</v>
+      </c>
+      <c r="E748" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F748" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H748" s="5">
+        <v>1</v>
+      </c>
+      <c r="M748" s="5">
+        <v>1</v>
+      </c>
+      <c r="W748" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A749" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C749" s="5">
+        <v>6</v>
+      </c>
+      <c r="D749" s="5">
+        <v>63</v>
+      </c>
+      <c r="E749" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F749" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H749" s="5">
+        <v>1</v>
+      </c>
+      <c r="M749" s="5">
+        <v>1</v>
+      </c>
+      <c r="W749" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A750" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C750" s="5">
+        <v>6</v>
+      </c>
+      <c r="D750" s="5">
+        <v>63</v>
+      </c>
+      <c r="E750" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F750" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H750" s="5">
+        <v>1</v>
+      </c>
+      <c r="K750" s="5">
+        <v>1</v>
+      </c>
+      <c r="M750" s="5">
+        <v>1</v>
+      </c>
+      <c r="W750" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="751" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A751" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C751" s="5">
+        <v>6</v>
+      </c>
+      <c r="D751" s="5">
+        <v>63</v>
+      </c>
+      <c r="E751" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F751" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H751" s="5">
+        <v>1</v>
+      </c>
+      <c r="K751" s="5">
+        <v>1</v>
+      </c>
+      <c r="M751" s="5">
+        <v>1</v>
+      </c>
+      <c r="W751" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="752" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A752" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C752" s="5">
+        <v>6</v>
+      </c>
+      <c r="D752" s="5">
+        <v>63</v>
+      </c>
+      <c r="E752" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F752" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J752" s="5">
+        <v>1</v>
+      </c>
+      <c r="S752" s="5">
+        <v>2</v>
+      </c>
+      <c r="W752" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="753" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A753" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C753" s="5">
+        <v>6</v>
+      </c>
+      <c r="D753" s="5">
+        <v>63</v>
+      </c>
+      <c r="E753" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F753" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J753" s="5">
+        <v>1</v>
+      </c>
+      <c r="W753" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A754" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C754" s="5">
+        <v>6</v>
+      </c>
+      <c r="D754" s="5">
+        <v>63</v>
+      </c>
+      <c r="E754" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F754" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J754" s="5">
+        <v>1</v>
+      </c>
+      <c r="W754" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A755" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C755" s="5">
+        <v>6</v>
+      </c>
+      <c r="D755" s="5">
+        <v>63</v>
+      </c>
+      <c r="E755" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F755" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J755" s="5">
+        <v>1</v>
+      </c>
+      <c r="W755" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A756" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C756" s="5">
+        <v>6</v>
+      </c>
+      <c r="D756" s="5">
+        <v>63</v>
+      </c>
+      <c r="E756" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F756" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J756" s="5">
+        <v>1</v>
+      </c>
+      <c r="W756" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A757" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C757" s="5">
+        <v>6</v>
+      </c>
+      <c r="D757" s="5">
+        <v>63</v>
+      </c>
+      <c r="E757" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F757" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J757" s="5">
+        <v>1</v>
+      </c>
+      <c r="W757" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A758" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C758" s="5">
+        <v>6</v>
+      </c>
+      <c r="D758" s="5">
+        <v>64</v>
+      </c>
+      <c r="E758" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F758" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I758" s="5">
+        <v>1</v>
+      </c>
+      <c r="S758" s="5">
+        <v>1</v>
+      </c>
+      <c r="T758" s="5">
+        <v>3</v>
+      </c>
+      <c r="W758" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="759" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A759" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C759" s="5">
+        <v>6</v>
+      </c>
+      <c r="D759" s="5">
+        <v>64</v>
+      </c>
+      <c r="E759" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F759" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I759" s="5">
+        <v>1</v>
+      </c>
+      <c r="L759" s="5">
+        <v>1</v>
+      </c>
+      <c r="W759" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="760" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A760" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C760" s="5">
+        <v>6</v>
+      </c>
+      <c r="D760" s="5">
+        <v>64</v>
+      </c>
+      <c r="E760" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F760" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I760" s="5">
+        <v>1</v>
+      </c>
+      <c r="W760" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A761" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C761" s="5">
+        <v>6</v>
+      </c>
+      <c r="D761" s="5">
+        <v>64</v>
+      </c>
+      <c r="E761" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F761" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I761" s="5">
+        <v>1</v>
+      </c>
+      <c r="K761" s="5">
+        <v>1</v>
+      </c>
+      <c r="W761" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A762" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C762" s="5">
+        <v>6</v>
+      </c>
+      <c r="D762" s="5">
+        <v>64</v>
+      </c>
+      <c r="E762" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F762" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I762" s="5">
+        <v>1</v>
+      </c>
+      <c r="W762" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A763" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C763" s="5">
+        <v>6</v>
+      </c>
+      <c r="D763" s="5">
+        <v>64</v>
+      </c>
+      <c r="E763" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F763" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I763" s="5">
+        <v>1</v>
+      </c>
+      <c r="W763" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A764" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C764" s="5">
+        <v>6</v>
+      </c>
+      <c r="D764" s="5">
+        <v>64</v>
+      </c>
+      <c r="E764" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F764" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I764" s="5">
+        <v>1</v>
+      </c>
+      <c r="S764" s="5">
+        <v>1</v>
+      </c>
+      <c r="T764" s="5">
+        <v>3</v>
+      </c>
+      <c r="W764" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="765" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A765" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C765" s="5">
+        <v>6</v>
+      </c>
+      <c r="D765" s="5">
+        <v>64</v>
+      </c>
+      <c r="E765" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F765" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I765" s="5">
+        <v>1</v>
+      </c>
+      <c r="W765" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A766" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C766" s="5">
+        <v>6</v>
+      </c>
+      <c r="D766" s="5">
+        <v>64</v>
+      </c>
+      <c r="E766" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F766" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I766" s="5">
+        <v>1</v>
+      </c>
+      <c r="K766" s="5">
+        <v>1</v>
+      </c>
+      <c r="W766" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A767" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C767" s="5">
+        <v>6</v>
+      </c>
+      <c r="D767" s="5">
+        <v>64</v>
+      </c>
+      <c r="E767" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F767" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I767" s="5">
+        <v>1</v>
+      </c>
+      <c r="W767" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A768" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C768" s="5">
+        <v>6</v>
+      </c>
+      <c r="D768" s="5">
+        <v>64</v>
+      </c>
+      <c r="E768" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F768" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I768" s="5">
+        <v>1</v>
+      </c>
+      <c r="W768" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A769" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C769" s="5">
+        <v>6</v>
+      </c>
+      <c r="D769" s="5">
+        <v>64</v>
+      </c>
+      <c r="E769" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F769" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I769" s="5">
+        <v>1</v>
+      </c>
+      <c r="W769" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A770" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C770" s="5">
+        <v>6</v>
+      </c>
+      <c r="D770" s="5">
+        <v>65</v>
+      </c>
+      <c r="E770" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F770" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H770" s="5">
+        <v>1</v>
+      </c>
+      <c r="M770" s="5">
+        <v>1</v>
+      </c>
+      <c r="W770" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="771" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A771" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C771" s="5">
+        <v>6</v>
+      </c>
+      <c r="D771" s="5">
+        <v>65</v>
+      </c>
+      <c r="E771" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F771" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H771" s="5">
+        <v>1</v>
+      </c>
+      <c r="K771" s="5">
+        <v>1</v>
+      </c>
+      <c r="L771" s="5">
+        <v>1</v>
+      </c>
+      <c r="M771" s="5">
+        <v>1</v>
+      </c>
+      <c r="W771" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="772" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A772" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C772" s="5">
+        <v>6</v>
+      </c>
+      <c r="D772" s="5">
+        <v>65</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F772" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H772" s="5">
+        <v>1</v>
+      </c>
+      <c r="M772" s="5">
+        <v>1</v>
+      </c>
+      <c r="W772" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A773" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C773" s="5">
+        <v>6</v>
+      </c>
+      <c r="D773" s="5">
+        <v>65</v>
+      </c>
+      <c r="E773" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F773" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H773" s="5">
+        <v>1</v>
+      </c>
+      <c r="K773" s="5">
+        <v>1</v>
+      </c>
+      <c r="M773" s="5">
+        <v>1</v>
+      </c>
+      <c r="W773" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="774" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A774" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C774" s="5">
+        <v>6</v>
+      </c>
+      <c r="D774" s="5">
+        <v>65</v>
+      </c>
+      <c r="E774" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F774" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H774" s="5">
+        <v>1</v>
+      </c>
+      <c r="L774" s="5">
+        <v>1</v>
+      </c>
+      <c r="M774" s="5">
+        <v>1</v>
+      </c>
+      <c r="W774" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A775" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C775" s="5">
+        <v>6</v>
+      </c>
+      <c r="D775" s="5">
+        <v>65</v>
+      </c>
+      <c r="E775" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F775" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H775" s="5">
+        <v>1</v>
+      </c>
+      <c r="M775" s="5">
+        <v>1</v>
+      </c>
+      <c r="W775" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A776" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C776" s="5">
+        <v>6</v>
+      </c>
+      <c r="D776" s="5">
+        <v>65</v>
+      </c>
+      <c r="E776" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F776" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J776" s="5">
+        <v>1</v>
+      </c>
+      <c r="T776" s="5">
+        <v>1</v>
+      </c>
+      <c r="W776" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A777" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C777" s="5">
+        <v>6</v>
+      </c>
+      <c r="D777" s="5">
+        <v>65</v>
+      </c>
+      <c r="E777" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F777" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J777" s="5">
+        <v>1</v>
+      </c>
+      <c r="W777" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A778" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C778" s="5">
+        <v>6</v>
+      </c>
+      <c r="D778" s="5">
+        <v>65</v>
+      </c>
+      <c r="E778" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F778" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G778" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J778" s="5">
+        <v>1</v>
+      </c>
+      <c r="V778" s="5">
+        <v>1</v>
+      </c>
+      <c r="W778" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A779" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C779" s="5">
+        <v>6</v>
+      </c>
+      <c r="D779" s="5">
+        <v>65</v>
+      </c>
+      <c r="E779" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F779" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J779" s="5">
+        <v>1</v>
+      </c>
+      <c r="W779" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A780" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C780" s="5">
+        <v>6</v>
+      </c>
+      <c r="D780" s="5">
+        <v>65</v>
+      </c>
+      <c r="E780" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F780" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G780" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J780" s="5">
+        <v>1</v>
+      </c>
+      <c r="W780" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A781" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C781" s="5">
+        <v>6</v>
+      </c>
+      <c r="D781" s="5">
+        <v>65</v>
+      </c>
+      <c r="E781" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F781" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G781" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J781" s="5">
+        <v>1</v>
+      </c>
+      <c r="W781" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A782" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C782" s="5">
+        <v>6</v>
+      </c>
+      <c r="D782" s="5">
+        <v>66</v>
+      </c>
+      <c r="E782" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F782" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G782" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H782" s="5">
+        <v>1</v>
+      </c>
+      <c r="S782" s="5">
+        <v>1</v>
+      </c>
+      <c r="W782" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C783" s="5">
+        <v>6</v>
+      </c>
+      <c r="D783" s="5">
+        <v>66</v>
+      </c>
+      <c r="E783" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F783" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G783" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H783" s="5">
+        <v>1</v>
+      </c>
+      <c r="W783" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="784" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C784" s="5">
+        <v>6</v>
+      </c>
+      <c r="D784" s="5">
+        <v>66</v>
+      </c>
+      <c r="E784" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F784" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G784" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H784" s="5">
+        <v>1</v>
+      </c>
+      <c r="L784" s="5">
+        <v>1</v>
+      </c>
+      <c r="W784" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="785" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C785" s="5">
+        <v>6</v>
+      </c>
+      <c r="D785" s="5">
+        <v>66</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F785" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G785" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H785" s="5">
+        <v>1</v>
+      </c>
+      <c r="L785" s="5">
+        <v>1</v>
+      </c>
+      <c r="W785" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C786" s="5">
+        <v>6</v>
+      </c>
+      <c r="D786" s="5">
+        <v>66</v>
+      </c>
+      <c r="E786" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F786" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H786" s="5">
+        <v>1</v>
+      </c>
+      <c r="K786" s="5">
+        <v>2</v>
+      </c>
+      <c r="W786" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="787" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C787" s="5">
+        <v>6</v>
+      </c>
+      <c r="D787" s="5">
+        <v>66</v>
+      </c>
+      <c r="E787" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F787" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H787" s="5">
+        <v>1</v>
+      </c>
+      <c r="W787" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="788" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C788" s="5">
+        <v>6</v>
+      </c>
+      <c r="D788" s="5">
+        <v>66</v>
+      </c>
+      <c r="E788" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F788" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G788" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J788" s="5">
+        <v>1</v>
+      </c>
+      <c r="S788" s="5">
+        <v>2</v>
+      </c>
+      <c r="T788" s="5">
+        <v>1</v>
+      </c>
+      <c r="W788" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C789" s="5">
+        <v>6</v>
+      </c>
+      <c r="D789" s="5">
+        <v>66</v>
+      </c>
+      <c r="E789" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F789" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J789" s="5">
+        <v>1</v>
+      </c>
+      <c r="K789" s="5">
+        <v>1</v>
+      </c>
+      <c r="W789" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="790" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C790" s="5">
+        <v>6</v>
+      </c>
+      <c r="D790" s="5">
+        <v>66</v>
+      </c>
+      <c r="E790" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F790" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J790" s="5">
+        <v>1</v>
+      </c>
+      <c r="L790" s="5">
+        <v>1</v>
+      </c>
+      <c r="W790" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C791" s="5">
+        <v>6</v>
+      </c>
+      <c r="D791" s="5">
+        <v>66</v>
+      </c>
+      <c r="E791" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F791" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J791" s="5">
+        <v>1</v>
+      </c>
+      <c r="W791" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C792" s="5">
+        <v>6</v>
+      </c>
+      <c r="D792" s="5">
+        <v>66</v>
+      </c>
+      <c r="E792" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F792" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J792" s="5">
+        <v>1</v>
+      </c>
+      <c r="W792" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C793" s="5">
+        <v>6</v>
+      </c>
+      <c r="D793" s="5">
+        <v>66</v>
+      </c>
+      <c r="E793" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F793" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G793" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J793" s="5">
+        <v>1</v>
+      </c>
+      <c r="W793" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="G800" s="3"/>

--- a/data/testedatasetv2b.xlsx
+++ b/data/testedatasetv2b.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="79">
   <si>
     <t>GOL</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Guiler</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
   <dimension ref="A1:W4598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E788" sqref="E788"/>
+      <pane ySplit="1" topLeftCell="A906" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G934" sqref="G934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30351,676 +30354,4150 @@
       </c>
     </row>
     <row r="794" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A794" s="9"/>
-      <c r="B794" s="9"/>
-      <c r="G794" s="3"/>
+      <c r="A794" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C794" s="5">
+        <v>7</v>
+      </c>
+      <c r="D794" s="5">
+        <v>67</v>
+      </c>
+      <c r="E794" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F794" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G794" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H794" s="5">
+        <v>1</v>
+      </c>
+      <c r="M794" s="5">
+        <v>1</v>
+      </c>
+      <c r="W794" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="795" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A795" s="9"/>
-      <c r="B795" s="9"/>
-      <c r="G795" s="3"/>
+      <c r="A795" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C795" s="5">
+        <v>7</v>
+      </c>
+      <c r="D795" s="5">
+        <v>67</v>
+      </c>
+      <c r="E795" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F795" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G795" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H795" s="5">
+        <v>1</v>
+      </c>
+      <c r="M795" s="5">
+        <v>1</v>
+      </c>
+      <c r="W795" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="796" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A796" s="9"/>
-      <c r="B796" s="9"/>
-      <c r="G796" s="3"/>
+      <c r="A796" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C796" s="5">
+        <v>7</v>
+      </c>
+      <c r="D796" s="5">
+        <v>67</v>
+      </c>
+      <c r="E796" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F796" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H796" s="5">
+        <v>1</v>
+      </c>
+      <c r="K796" s="5">
+        <v>1</v>
+      </c>
+      <c r="M796" s="5">
+        <v>1</v>
+      </c>
+      <c r="W796" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="797" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A797" s="9"/>
-      <c r="B797" s="9"/>
-      <c r="G797" s="3"/>
+      <c r="A797" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C797" s="5">
+        <v>7</v>
+      </c>
+      <c r="D797" s="5">
+        <v>67</v>
+      </c>
+      <c r="E797" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F797" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G797" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H797" s="5">
+        <v>1</v>
+      </c>
+      <c r="M797" s="5">
+        <v>1</v>
+      </c>
+      <c r="W797" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="798" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A798" s="9"/>
-      <c r="B798" s="9"/>
-      <c r="G798" s="3"/>
+      <c r="A798" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C798" s="5">
+        <v>7</v>
+      </c>
+      <c r="D798" s="5">
+        <v>67</v>
+      </c>
+      <c r="E798" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F798" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H798" s="5">
+        <v>1</v>
+      </c>
+      <c r="L798" s="5">
+        <v>1</v>
+      </c>
+      <c r="M798" s="5">
+        <v>1</v>
+      </c>
+      <c r="W798" s="5">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="799" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A799" s="9"/>
-      <c r="B799" s="9"/>
-      <c r="G799" s="3"/>
+      <c r="A799" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C799" s="5">
+        <v>7</v>
+      </c>
+      <c r="D799" s="5">
+        <v>67</v>
+      </c>
+      <c r="E799" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F799" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G799" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H799" s="5">
+        <v>1</v>
+      </c>
+      <c r="K799" s="5">
+        <v>1</v>
+      </c>
+      <c r="M799" s="5">
+        <v>1</v>
+      </c>
+      <c r="W799" s="5">
+        <v>16</v>
+      </c>
     </row>
     <row r="800" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A800" s="9"/>
-      <c r="B800" s="9"/>
-      <c r="G800" s="3"/>
-    </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A801" s="9"/>
-      <c r="B801" s="9"/>
-      <c r="G801" s="3"/>
-    </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A802" s="9"/>
-      <c r="B802" s="9"/>
-      <c r="G802" s="3"/>
-    </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A803" s="9"/>
-      <c r="B803" s="9"/>
-      <c r="G803" s="3"/>
-    </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A804" s="9"/>
-      <c r="B804" s="9"/>
-      <c r="G804" s="3"/>
-    </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A805" s="9"/>
-      <c r="B805" s="9"/>
-      <c r="G805" s="3"/>
-    </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A806" s="9"/>
-      <c r="B806" s="9"/>
-      <c r="G806" s="3"/>
-    </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A807" s="9"/>
-      <c r="B807" s="9"/>
-      <c r="G807" s="3"/>
-    </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A808" s="9"/>
-      <c r="B808" s="9"/>
-      <c r="G808" s="3"/>
-    </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A809" s="9"/>
-      <c r="B809" s="9"/>
-      <c r="G809" s="3"/>
-    </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A810" s="9"/>
-      <c r="B810" s="9"/>
-      <c r="G810" s="3"/>
-    </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A811" s="9"/>
-      <c r="B811" s="9"/>
-      <c r="G811" s="3"/>
-    </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A812" s="9"/>
-      <c r="B812" s="9"/>
-      <c r="G812" s="3"/>
-    </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A813" s="9"/>
-      <c r="B813" s="9"/>
-      <c r="G813" s="3"/>
-    </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A814" s="9"/>
-      <c r="B814" s="9"/>
-      <c r="G814" s="3"/>
-    </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A815" s="9"/>
-      <c r="B815" s="9"/>
-      <c r="G815" s="3"/>
-    </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A816" s="9"/>
-      <c r="B816" s="9"/>
-      <c r="G816" s="3"/>
-    </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A817" s="9"/>
-      <c r="B817" s="9"/>
-      <c r="G817" s="3"/>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A818" s="9"/>
-      <c r="B818" s="9"/>
-      <c r="G818" s="3"/>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A819" s="9"/>
-      <c r="B819" s="9"/>
-      <c r="G819" s="3"/>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A820" s="9"/>
-      <c r="B820" s="9"/>
-      <c r="G820" s="3"/>
-    </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A821" s="9"/>
-      <c r="B821" s="9"/>
-      <c r="G821" s="3"/>
-    </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A822" s="9"/>
-      <c r="B822" s="9"/>
-      <c r="G822" s="3"/>
-    </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A823" s="9"/>
-      <c r="B823" s="9"/>
-      <c r="G823" s="3"/>
-    </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A824" s="9"/>
-      <c r="B824" s="9"/>
-      <c r="G824" s="3"/>
-    </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A825" s="9"/>
-      <c r="B825" s="9"/>
-      <c r="G825" s="3"/>
-    </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A826" s="9"/>
-      <c r="B826" s="9"/>
-      <c r="G826" s="3"/>
-    </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A827" s="9"/>
-      <c r="B827" s="9"/>
-      <c r="G827" s="3"/>
-    </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A828" s="9"/>
-      <c r="B828" s="9"/>
-      <c r="G828" s="3"/>
-    </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A829" s="9"/>
-      <c r="B829" s="9"/>
-      <c r="G829" s="3"/>
-    </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A830" s="9"/>
-      <c r="B830" s="9"/>
-      <c r="G830" s="3"/>
-    </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A831" s="9"/>
-      <c r="B831" s="9"/>
-      <c r="G831" s="3"/>
-    </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A832" s="9"/>
-      <c r="B832" s="9"/>
-      <c r="G832" s="3"/>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A833" s="9"/>
-      <c r="B833" s="9"/>
-      <c r="G833" s="3"/>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A834" s="9"/>
-      <c r="B834" s="9"/>
-      <c r="G834" s="3"/>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A835" s="9"/>
-      <c r="B835" s="9"/>
-      <c r="G835" s="3"/>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A836" s="9"/>
-      <c r="B836" s="9"/>
-      <c r="G836" s="3"/>
-    </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A837" s="9"/>
-      <c r="B837" s="9"/>
-      <c r="G837" s="3"/>
-    </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A838" s="9"/>
-      <c r="B838" s="9"/>
-      <c r="G838" s="3"/>
-    </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A839" s="9"/>
-      <c r="B839" s="9"/>
-      <c r="G839" s="3"/>
-    </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A840" s="9"/>
-      <c r="B840" s="9"/>
-      <c r="G840" s="3"/>
-    </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A841" s="9"/>
-      <c r="B841" s="9"/>
-      <c r="G841" s="3"/>
-    </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A842" s="9"/>
-      <c r="B842" s="9"/>
-      <c r="G842" s="3"/>
-    </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A843" s="9"/>
-      <c r="B843" s="9"/>
-      <c r="G843" s="3"/>
-    </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A844" s="9"/>
-      <c r="B844" s="9"/>
-      <c r="G844" s="3"/>
-    </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A845" s="9"/>
-      <c r="B845" s="9"/>
-      <c r="G845" s="3"/>
-    </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A846" s="9"/>
-      <c r="B846" s="9"/>
-      <c r="G846" s="3"/>
-    </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A847" s="9"/>
-      <c r="B847" s="9"/>
-      <c r="G847" s="3"/>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A848" s="9"/>
-      <c r="B848" s="9"/>
-      <c r="G848" s="3"/>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A849" s="9"/>
-      <c r="B849" s="9"/>
-      <c r="G849" s="3"/>
-    </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A850" s="9"/>
-      <c r="B850" s="9"/>
-      <c r="G850" s="3"/>
-    </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A851" s="9"/>
-      <c r="B851" s="9"/>
-      <c r="G851" s="3"/>
-    </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A852" s="9"/>
-      <c r="B852" s="9"/>
-      <c r="G852" s="3"/>
-    </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A853" s="9"/>
-      <c r="B853" s="9"/>
-      <c r="G853" s="3"/>
-    </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A854" s="9"/>
-      <c r="B854" s="9"/>
-      <c r="G854" s="3"/>
-    </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A855" s="9"/>
-      <c r="B855" s="9"/>
-      <c r="G855" s="3"/>
-    </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A856" s="9"/>
-      <c r="B856" s="9"/>
-      <c r="G856" s="3"/>
-    </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A857" s="9"/>
-      <c r="B857" s="9"/>
-      <c r="G857" s="3"/>
-    </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A858" s="9"/>
-      <c r="B858" s="9"/>
-      <c r="G858" s="3"/>
-    </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A859" s="9"/>
-      <c r="B859" s="9"/>
-      <c r="G859" s="3"/>
-    </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A860" s="9"/>
-      <c r="B860" s="9"/>
-      <c r="G860" s="3"/>
-    </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A861" s="9"/>
-      <c r="B861" s="9"/>
-      <c r="G861" s="3"/>
-    </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A862" s="9"/>
-      <c r="B862" s="9"/>
-      <c r="G862" s="3"/>
-    </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A863" s="9"/>
-      <c r="B863" s="9"/>
-      <c r="G863" s="3"/>
-    </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A864" s="9"/>
-      <c r="B864" s="9"/>
-      <c r="G864" s="3"/>
-    </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A865" s="9"/>
-      <c r="B865" s="9"/>
-      <c r="G865" s="3"/>
-    </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A866" s="9"/>
-      <c r="B866" s="9"/>
-      <c r="G866" s="3"/>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A867" s="9"/>
-      <c r="B867" s="9"/>
-      <c r="G867" s="3"/>
-    </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A868" s="9"/>
-      <c r="B868" s="9"/>
-      <c r="G868" s="3"/>
-    </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A869" s="9"/>
-      <c r="B869" s="9"/>
-      <c r="G869" s="3"/>
-    </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A870" s="9"/>
-      <c r="B870" s="9"/>
-      <c r="G870" s="3"/>
-    </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A871" s="9"/>
-      <c r="B871" s="9"/>
-      <c r="G871" s="3"/>
-    </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A872" s="9"/>
-      <c r="B872" s="9"/>
-      <c r="G872" s="3"/>
-    </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A873" s="9"/>
-      <c r="B873" s="9"/>
-      <c r="G873" s="3"/>
-    </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A874" s="9"/>
-      <c r="B874" s="9"/>
-      <c r="G874" s="3"/>
-    </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A875" s="9"/>
-      <c r="B875" s="9"/>
-      <c r="G875" s="3"/>
-    </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A876" s="9"/>
-      <c r="B876" s="9"/>
-      <c r="G876" s="3"/>
-    </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A877" s="9"/>
-      <c r="B877" s="9"/>
-      <c r="G877" s="3"/>
-    </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A878" s="9"/>
-      <c r="B878" s="9"/>
-      <c r="G878" s="3"/>
-    </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A879" s="9"/>
-      <c r="B879" s="9"/>
-      <c r="G879" s="3"/>
-    </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A880" s="9"/>
-      <c r="B880" s="9"/>
-      <c r="G880" s="3"/>
-    </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A881" s="9"/>
-      <c r="B881" s="9"/>
-      <c r="G881" s="3"/>
-    </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A882" s="9"/>
-      <c r="B882" s="9"/>
-      <c r="G882" s="3"/>
-    </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A883" s="9"/>
-      <c r="B883" s="9"/>
-      <c r="G883" s="3"/>
-    </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A884" s="9"/>
-      <c r="B884" s="9"/>
-      <c r="G884" s="3"/>
-    </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A885" s="9"/>
-      <c r="B885" s="9"/>
-      <c r="G885" s="3"/>
-    </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A886" s="9"/>
-      <c r="B886" s="9"/>
-      <c r="G886" s="3"/>
-    </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A887" s="9"/>
-      <c r="B887" s="9"/>
-      <c r="G887" s="3"/>
-    </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A888" s="9"/>
-      <c r="B888" s="9"/>
-      <c r="G888" s="3"/>
-    </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A889" s="9"/>
-      <c r="B889" s="9"/>
-      <c r="G889" s="3"/>
-    </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A890" s="9"/>
-      <c r="B890" s="9"/>
-      <c r="G890" s="3"/>
-    </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A891" s="9"/>
-      <c r="B891" s="9"/>
-      <c r="G891" s="3"/>
-    </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A892" s="9"/>
-      <c r="B892" s="9"/>
-      <c r="G892" s="3"/>
-    </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A893" s="9"/>
-      <c r="B893" s="9"/>
-      <c r="G893" s="3"/>
-    </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A894" s="9"/>
-      <c r="B894" s="9"/>
-      <c r="G894" s="3"/>
-    </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A895" s="9"/>
-      <c r="B895" s="9"/>
-      <c r="G895" s="3"/>
-    </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A896" s="9"/>
-      <c r="B896" s="9"/>
-      <c r="G896" s="3"/>
-    </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A897" s="9"/>
-      <c r="B897" s="9"/>
-      <c r="G897" s="3"/>
-    </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A898" s="9"/>
-      <c r="B898" s="9"/>
-      <c r="G898" s="3"/>
-    </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A899" s="9"/>
-      <c r="B899" s="9"/>
-      <c r="G899" s="3"/>
-    </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A900" s="9"/>
-      <c r="B900" s="9"/>
-      <c r="G900" s="3"/>
-    </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A901" s="9"/>
-      <c r="B901" s="9"/>
-      <c r="G901" s="3"/>
-    </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A902" s="9"/>
-      <c r="B902" s="9"/>
-      <c r="G902" s="3"/>
-    </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A903" s="9"/>
-      <c r="B903" s="9"/>
-      <c r="G903" s="3"/>
-    </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A904" s="9"/>
-      <c r="B904" s="9"/>
-      <c r="G904" s="3"/>
-    </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A905" s="9"/>
-      <c r="B905" s="9"/>
-      <c r="G905" s="3"/>
-    </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A906" s="9"/>
-      <c r="B906" s="9"/>
-      <c r="G906" s="3"/>
-    </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A907" s="9"/>
-      <c r="B907" s="9"/>
-      <c r="G907" s="3"/>
-    </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A908" s="9"/>
-      <c r="B908" s="9"/>
-      <c r="G908" s="3"/>
-    </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A909" s="9"/>
-      <c r="B909" s="9"/>
-      <c r="G909" s="3"/>
-    </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A910" s="9"/>
-      <c r="B910" s="9"/>
-      <c r="G910" s="3"/>
-    </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A911" s="9"/>
-      <c r="B911" s="9"/>
-      <c r="G911" s="3"/>
-    </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A912" s="9"/>
-      <c r="B912" s="9"/>
-      <c r="G912" s="3"/>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A913" s="9"/>
-      <c r="B913" s="9"/>
-      <c r="G913" s="3"/>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A914" s="9"/>
-      <c r="B914" s="9"/>
-      <c r="G914" s="3"/>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A915" s="9"/>
-      <c r="B915" s="9"/>
-      <c r="G915" s="3"/>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A916" s="9"/>
-      <c r="B916" s="9"/>
-      <c r="G916" s="3"/>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A917" s="9"/>
-      <c r="B917" s="9"/>
-      <c r="G917" s="3"/>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A918" s="9"/>
-      <c r="B918" s="9"/>
-      <c r="G918" s="3"/>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A919" s="9"/>
-      <c r="B919" s="9"/>
-      <c r="G919" s="3"/>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A920" s="9"/>
-      <c r="B920" s="9"/>
-      <c r="G920" s="3"/>
-    </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A921" s="9"/>
-      <c r="B921" s="9"/>
-      <c r="G921" s="3"/>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A922" s="9"/>
-      <c r="B922" s="9"/>
-      <c r="G922" s="3"/>
-    </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A923" s="9"/>
-      <c r="B923" s="9"/>
-      <c r="G923" s="3"/>
-    </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A924" s="9"/>
-      <c r="B924" s="9"/>
-      <c r="G924" s="3"/>
-    </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A925" s="9"/>
-      <c r="B925" s="9"/>
-      <c r="G925" s="3"/>
-    </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A800" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C800" s="5">
+        <v>7</v>
+      </c>
+      <c r="D800" s="5">
+        <v>67</v>
+      </c>
+      <c r="E800" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F800" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G800" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J800" s="5">
+        <v>1</v>
+      </c>
+      <c r="S800" s="5">
+        <v>2</v>
+      </c>
+      <c r="W800" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="801" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A801" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C801" s="5">
+        <v>7</v>
+      </c>
+      <c r="D801" s="5">
+        <v>67</v>
+      </c>
+      <c r="E801" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F801" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G801" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J801" s="5">
+        <v>1</v>
+      </c>
+      <c r="W801" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A802" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C802" s="5">
+        <v>7</v>
+      </c>
+      <c r="D802" s="5">
+        <v>67</v>
+      </c>
+      <c r="E802" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F802" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G802" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J802" s="5">
+        <v>1</v>
+      </c>
+      <c r="W802" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="803" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A803" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C803" s="5">
+        <v>7</v>
+      </c>
+      <c r="D803" s="5">
+        <v>67</v>
+      </c>
+      <c r="E803" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F803" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G803" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J803" s="5">
+        <v>1</v>
+      </c>
+      <c r="W803" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A804" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C804" s="5">
+        <v>7</v>
+      </c>
+      <c r="D804" s="5">
+        <v>67</v>
+      </c>
+      <c r="E804" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F804" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G804" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J804" s="5">
+        <v>1</v>
+      </c>
+      <c r="W804" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="805" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A805" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C805" s="5">
+        <v>7</v>
+      </c>
+      <c r="D805" s="5">
+        <v>67</v>
+      </c>
+      <c r="E805" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F805" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J805" s="5">
+        <v>1</v>
+      </c>
+      <c r="W805" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A806" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C806" s="5">
+        <v>7</v>
+      </c>
+      <c r="D806" s="5">
+        <v>68</v>
+      </c>
+      <c r="E806" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F806" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G806" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H806" s="5">
+        <v>1</v>
+      </c>
+      <c r="M806" s="5">
+        <v>1</v>
+      </c>
+      <c r="W806" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="807" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A807" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C807" s="5">
+        <v>7</v>
+      </c>
+      <c r="D807" s="5">
+        <v>68</v>
+      </c>
+      <c r="E807" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F807" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G807" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H807" s="5">
+        <v>1</v>
+      </c>
+      <c r="M807" s="5">
+        <v>1</v>
+      </c>
+      <c r="W807" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A808" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C808" s="5">
+        <v>7</v>
+      </c>
+      <c r="D808" s="5">
+        <v>68</v>
+      </c>
+      <c r="E808" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F808" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H808" s="5">
+        <v>1</v>
+      </c>
+      <c r="K808" s="5">
+        <v>1</v>
+      </c>
+      <c r="M808" s="5">
+        <v>1</v>
+      </c>
+      <c r="W808" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="809" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A809" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C809" s="5">
+        <v>7</v>
+      </c>
+      <c r="D809" s="5">
+        <v>68</v>
+      </c>
+      <c r="E809" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F809" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G809" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H809" s="5">
+        <v>1</v>
+      </c>
+      <c r="M809" s="5">
+        <v>1</v>
+      </c>
+      <c r="W809" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="810" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A810" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C810" s="5">
+        <v>7</v>
+      </c>
+      <c r="D810" s="5">
+        <v>68</v>
+      </c>
+      <c r="E810" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F810" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H810" s="5">
+        <v>1</v>
+      </c>
+      <c r="M810" s="5">
+        <v>1</v>
+      </c>
+      <c r="W810" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="811" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A811" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C811" s="5">
+        <v>7</v>
+      </c>
+      <c r="D811" s="5">
+        <v>68</v>
+      </c>
+      <c r="E811" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F811" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G811" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H811" s="5">
+        <v>1</v>
+      </c>
+      <c r="L811" s="5">
+        <v>1</v>
+      </c>
+      <c r="M811" s="5">
+        <v>1</v>
+      </c>
+      <c r="V811" s="5">
+        <v>1</v>
+      </c>
+      <c r="W811" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="812" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A812" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C812" s="5">
+        <v>7</v>
+      </c>
+      <c r="D812" s="5">
+        <v>68</v>
+      </c>
+      <c r="E812" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F812" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G812" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J812" s="5">
+        <v>1</v>
+      </c>
+      <c r="S812" s="5">
+        <v>1</v>
+      </c>
+      <c r="W812" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="813" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A813" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C813" s="5">
+        <v>7</v>
+      </c>
+      <c r="D813" s="5">
+        <v>68</v>
+      </c>
+      <c r="E813" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F813" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G813" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J813" s="5">
+        <v>1</v>
+      </c>
+      <c r="W813" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A814" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C814" s="5">
+        <v>7</v>
+      </c>
+      <c r="D814" s="5">
+        <v>68</v>
+      </c>
+      <c r="E814" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F814" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J814" s="5">
+        <v>1</v>
+      </c>
+      <c r="W814" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="815" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A815" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C815" s="5">
+        <v>7</v>
+      </c>
+      <c r="D815" s="5">
+        <v>68</v>
+      </c>
+      <c r="E815" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F815" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G815" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J815" s="5">
+        <v>1</v>
+      </c>
+      <c r="W815" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A816" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C816" s="5">
+        <v>7</v>
+      </c>
+      <c r="D816" s="5">
+        <v>68</v>
+      </c>
+      <c r="E816" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F816" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G816" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J816" s="5">
+        <v>1</v>
+      </c>
+      <c r="W816" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A817" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C817" s="5">
+        <v>7</v>
+      </c>
+      <c r="D817" s="5">
+        <v>68</v>
+      </c>
+      <c r="E817" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F817" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G817" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J817" s="5">
+        <v>1</v>
+      </c>
+      <c r="W817" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="818" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A818" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C818" s="5">
+        <v>7</v>
+      </c>
+      <c r="D818" s="5">
+        <v>69</v>
+      </c>
+      <c r="E818" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F818" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G818" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H818" s="5">
+        <v>1</v>
+      </c>
+      <c r="M818" s="5">
+        <v>1</v>
+      </c>
+      <c r="W818" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A819" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C819" s="5">
+        <v>7</v>
+      </c>
+      <c r="D819" s="5">
+        <v>69</v>
+      </c>
+      <c r="E819" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F819" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H819" s="5">
+        <v>1</v>
+      </c>
+      <c r="M819" s="5">
+        <v>1</v>
+      </c>
+      <c r="W819" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A820" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C820" s="5">
+        <v>7</v>
+      </c>
+      <c r="D820" s="5">
+        <v>69</v>
+      </c>
+      <c r="E820" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F820" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G820" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H820" s="5">
+        <v>1</v>
+      </c>
+      <c r="K820" s="5">
+        <v>1</v>
+      </c>
+      <c r="M820" s="5">
+        <v>1</v>
+      </c>
+      <c r="W820" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="821" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A821" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C821" s="5">
+        <v>7</v>
+      </c>
+      <c r="D821" s="5">
+        <v>69</v>
+      </c>
+      <c r="E821" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F821" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G821" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H821" s="5">
+        <v>1</v>
+      </c>
+      <c r="M821" s="5">
+        <v>1</v>
+      </c>
+      <c r="W821" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="822" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A822" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C822" s="5">
+        <v>7</v>
+      </c>
+      <c r="D822" s="5">
+        <v>69</v>
+      </c>
+      <c r="E822" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F822" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H822" s="5">
+        <v>1</v>
+      </c>
+      <c r="M822" s="5">
+        <v>1</v>
+      </c>
+      <c r="W822" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="823" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A823" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C823" s="5">
+        <v>7</v>
+      </c>
+      <c r="D823" s="5">
+        <v>69</v>
+      </c>
+      <c r="E823" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F823" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H823" s="5">
+        <v>1</v>
+      </c>
+      <c r="L823" s="5">
+        <v>1</v>
+      </c>
+      <c r="M823" s="5">
+        <v>1</v>
+      </c>
+      <c r="W823" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="824" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A824" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C824" s="5">
+        <v>7</v>
+      </c>
+      <c r="D824" s="5">
+        <v>69</v>
+      </c>
+      <c r="E824" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F824" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G824" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J824" s="5">
+        <v>1</v>
+      </c>
+      <c r="S824" s="5">
+        <v>1</v>
+      </c>
+      <c r="T824" s="5">
+        <v>1</v>
+      </c>
+      <c r="W824" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A825" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C825" s="5">
+        <v>7</v>
+      </c>
+      <c r="D825" s="5">
+        <v>69</v>
+      </c>
+      <c r="E825" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F825" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G825" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J825" s="5">
+        <v>1</v>
+      </c>
+      <c r="W825" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="826" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A826" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C826" s="5">
+        <v>7</v>
+      </c>
+      <c r="D826" s="5">
+        <v>69</v>
+      </c>
+      <c r="E826" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F826" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G826" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J826" s="5">
+        <v>1</v>
+      </c>
+      <c r="W826" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A827" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C827" s="5">
+        <v>7</v>
+      </c>
+      <c r="D827" s="5">
+        <v>69</v>
+      </c>
+      <c r="E827" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F827" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G827" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J827" s="5">
+        <v>1</v>
+      </c>
+      <c r="W827" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A828" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C828" s="5">
+        <v>7</v>
+      </c>
+      <c r="D828" s="5">
+        <v>69</v>
+      </c>
+      <c r="E828" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F828" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J828" s="5">
+        <v>1</v>
+      </c>
+      <c r="W828" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A829" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C829" s="5">
+        <v>7</v>
+      </c>
+      <c r="D829" s="5">
+        <v>69</v>
+      </c>
+      <c r="E829" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F829" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G829" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J829" s="5">
+        <v>1</v>
+      </c>
+      <c r="W829" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A830" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C830" s="5">
+        <v>7</v>
+      </c>
+      <c r="D830" s="5">
+        <v>70</v>
+      </c>
+      <c r="E830" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F830" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G830" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I830" s="5">
+        <v>1</v>
+      </c>
+      <c r="S830" s="5">
+        <v>1</v>
+      </c>
+      <c r="T830" s="5">
+        <v>1</v>
+      </c>
+      <c r="W830" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A831" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C831" s="5">
+        <v>7</v>
+      </c>
+      <c r="D831" s="5">
+        <v>70</v>
+      </c>
+      <c r="E831" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F831" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G831" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I831" s="5">
+        <v>1</v>
+      </c>
+      <c r="W831" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A832" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C832" s="5">
+        <v>7</v>
+      </c>
+      <c r="D832" s="5">
+        <v>70</v>
+      </c>
+      <c r="E832" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F832" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I832" s="5">
+        <v>1</v>
+      </c>
+      <c r="W832" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A833" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C833" s="5">
+        <v>7</v>
+      </c>
+      <c r="D833" s="5">
+        <v>70</v>
+      </c>
+      <c r="E833" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F833" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G833" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I833" s="5">
+        <v>1</v>
+      </c>
+      <c r="K833" s="5">
+        <v>1</v>
+      </c>
+      <c r="W833" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="834" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A834" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C834" s="5">
+        <v>7</v>
+      </c>
+      <c r="D834" s="5">
+        <v>70</v>
+      </c>
+      <c r="E834" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F834" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I834" s="5">
+        <v>1</v>
+      </c>
+      <c r="W834" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A835" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C835" s="5">
+        <v>7</v>
+      </c>
+      <c r="D835" s="5">
+        <v>70</v>
+      </c>
+      <c r="E835" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F835" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G835" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I835" s="5">
+        <v>1</v>
+      </c>
+      <c r="W835" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A836" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C836" s="5">
+        <v>7</v>
+      </c>
+      <c r="D836" s="5">
+        <v>70</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F836" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G836" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I836" s="5">
+        <v>1</v>
+      </c>
+      <c r="S836" s="5">
+        <v>1</v>
+      </c>
+      <c r="T836" s="5">
+        <v>1</v>
+      </c>
+      <c r="W836" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A837" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C837" s="5">
+        <v>7</v>
+      </c>
+      <c r="D837" s="5">
+        <v>70</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F837" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G837" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I837" s="5">
+        <v>1</v>
+      </c>
+      <c r="W837" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A838" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C838" s="5">
+        <v>7</v>
+      </c>
+      <c r="D838" s="5">
+        <v>70</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F838" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G838" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I838" s="5">
+        <v>1</v>
+      </c>
+      <c r="W838" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A839" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C839" s="5">
+        <v>7</v>
+      </c>
+      <c r="D839" s="5">
+        <v>70</v>
+      </c>
+      <c r="E839" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F839" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G839" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I839" s="5">
+        <v>1</v>
+      </c>
+      <c r="V839" s="5">
+        <v>1</v>
+      </c>
+      <c r="W839" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A840" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C840" s="5">
+        <v>7</v>
+      </c>
+      <c r="D840" s="5">
+        <v>70</v>
+      </c>
+      <c r="E840" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F840" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I840" s="5">
+        <v>1</v>
+      </c>
+      <c r="L840" s="5">
+        <v>1</v>
+      </c>
+      <c r="W840" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A841" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C841" s="5">
+        <v>7</v>
+      </c>
+      <c r="D841" s="5">
+        <v>70</v>
+      </c>
+      <c r="E841" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F841" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I841" s="5">
+        <v>1</v>
+      </c>
+      <c r="K841" s="5">
+        <v>1</v>
+      </c>
+      <c r="W841" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="842" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A842" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C842" s="5">
+        <v>7</v>
+      </c>
+      <c r="D842" s="5">
+        <v>71</v>
+      </c>
+      <c r="E842" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F842" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G842" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J842" s="5">
+        <v>1</v>
+      </c>
+      <c r="S842" s="5">
+        <v>1</v>
+      </c>
+      <c r="W842" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A843" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C843" s="5">
+        <v>7</v>
+      </c>
+      <c r="D843" s="5">
+        <v>71</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F843" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G843" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J843" s="5">
+        <v>1</v>
+      </c>
+      <c r="W843" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="844" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A844" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C844" s="5">
+        <v>7</v>
+      </c>
+      <c r="D844" s="5">
+        <v>71</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F844" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G844" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J844" s="5">
+        <v>1</v>
+      </c>
+      <c r="W844" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A845" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C845" s="5">
+        <v>7</v>
+      </c>
+      <c r="D845" s="5">
+        <v>71</v>
+      </c>
+      <c r="E845" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F845" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J845" s="5">
+        <v>1</v>
+      </c>
+      <c r="W845" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="846" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A846" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C846" s="5">
+        <v>7</v>
+      </c>
+      <c r="D846" s="5">
+        <v>71</v>
+      </c>
+      <c r="E846" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F846" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G846" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J846" s="5">
+        <v>1</v>
+      </c>
+      <c r="W846" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="847" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A847" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C847" s="5">
+        <v>7</v>
+      </c>
+      <c r="D847" s="5">
+        <v>71</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F847" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G847" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J847" s="5">
+        <v>1</v>
+      </c>
+      <c r="W847" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A848" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C848" s="5">
+        <v>7</v>
+      </c>
+      <c r="D848" s="5">
+        <v>71</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F848" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G848" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H848" s="5">
+        <v>1</v>
+      </c>
+      <c r="M848" s="5">
+        <v>1</v>
+      </c>
+      <c r="W848" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="849" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A849" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C849" s="5">
+        <v>7</v>
+      </c>
+      <c r="D849" s="5">
+        <v>71</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F849" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G849" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H849" s="5">
+        <v>1</v>
+      </c>
+      <c r="K849" s="5">
+        <v>1</v>
+      </c>
+      <c r="M849" s="5">
+        <v>1</v>
+      </c>
+      <c r="W849" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="850" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A850" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C850" s="5">
+        <v>7</v>
+      </c>
+      <c r="D850" s="5">
+        <v>71</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F850" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G850" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H850" s="5">
+        <v>1</v>
+      </c>
+      <c r="M850" s="5">
+        <v>1</v>
+      </c>
+      <c r="W850" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="851" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A851" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C851" s="5">
+        <v>7</v>
+      </c>
+      <c r="D851" s="5">
+        <v>71</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F851" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G851" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H851" s="5">
+        <v>1</v>
+      </c>
+      <c r="L851" s="5">
+        <v>1</v>
+      </c>
+      <c r="M851" s="5">
+        <v>1</v>
+      </c>
+      <c r="V851" s="5">
+        <v>1</v>
+      </c>
+      <c r="W851" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A852" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C852" s="5">
+        <v>7</v>
+      </c>
+      <c r="D852" s="5">
+        <v>71</v>
+      </c>
+      <c r="E852" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F852" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G852" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H852" s="5">
+        <v>1</v>
+      </c>
+      <c r="M852" s="5">
+        <v>1</v>
+      </c>
+      <c r="W852" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A853" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C853" s="5">
+        <v>7</v>
+      </c>
+      <c r="D853" s="5">
+        <v>71</v>
+      </c>
+      <c r="E853" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F853" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G853" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H853" s="5">
+        <v>1</v>
+      </c>
+      <c r="M853" s="5">
+        <v>1</v>
+      </c>
+      <c r="V853" s="5">
+        <v>1</v>
+      </c>
+      <c r="W853" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="854" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A854" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C854" s="5">
+        <v>7</v>
+      </c>
+      <c r="D854" s="5">
+        <v>72</v>
+      </c>
+      <c r="E854" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F854" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G854" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J854" s="5">
+        <v>1</v>
+      </c>
+      <c r="S854" s="5">
+        <v>2</v>
+      </c>
+      <c r="W854" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="855" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A855" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C855" s="5">
+        <v>7</v>
+      </c>
+      <c r="D855" s="5">
+        <v>72</v>
+      </c>
+      <c r="E855" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F855" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G855" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J855" s="5">
+        <v>1</v>
+      </c>
+      <c r="W855" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A856" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C856" s="5">
+        <v>7</v>
+      </c>
+      <c r="D856" s="5">
+        <v>72</v>
+      </c>
+      <c r="E856" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F856" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G856" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J856" s="5">
+        <v>1</v>
+      </c>
+      <c r="W856" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="857" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A857" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C857" s="5">
+        <v>7</v>
+      </c>
+      <c r="D857" s="5">
+        <v>72</v>
+      </c>
+      <c r="E857" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F857" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G857" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J857" s="5">
+        <v>1</v>
+      </c>
+      <c r="W857" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="858" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A858" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C858" s="5">
+        <v>7</v>
+      </c>
+      <c r="D858" s="5">
+        <v>72</v>
+      </c>
+      <c r="E858" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F858" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G858" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J858" s="5">
+        <v>1</v>
+      </c>
+      <c r="W858" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="859" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A859" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C859" s="5">
+        <v>7</v>
+      </c>
+      <c r="D859" s="5">
+        <v>72</v>
+      </c>
+      <c r="E859" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F859" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G859" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J859" s="5">
+        <v>1</v>
+      </c>
+      <c r="W859" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A860" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C860" s="5">
+        <v>7</v>
+      </c>
+      <c r="D860" s="5">
+        <v>72</v>
+      </c>
+      <c r="E860" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F860" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G860" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H860" s="5">
+        <v>1</v>
+      </c>
+      <c r="M860" s="5">
+        <v>1</v>
+      </c>
+      <c r="W860" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="861" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A861" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C861" s="5">
+        <v>7</v>
+      </c>
+      <c r="D861" s="5">
+        <v>72</v>
+      </c>
+      <c r="E861" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F861" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G861" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H861" s="5">
+        <v>1</v>
+      </c>
+      <c r="M861" s="5">
+        <v>1</v>
+      </c>
+      <c r="W861" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="862" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A862" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C862" s="5">
+        <v>7</v>
+      </c>
+      <c r="D862" s="5">
+        <v>72</v>
+      </c>
+      <c r="E862" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F862" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G862" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H862" s="5">
+        <v>1</v>
+      </c>
+      <c r="M862" s="5">
+        <v>1</v>
+      </c>
+      <c r="W862" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A863" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C863" s="5">
+        <v>7</v>
+      </c>
+      <c r="D863" s="5">
+        <v>72</v>
+      </c>
+      <c r="E863" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F863" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G863" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H863" s="5">
+        <v>1</v>
+      </c>
+      <c r="K863" s="5">
+        <v>1</v>
+      </c>
+      <c r="L863" s="5">
+        <v>1</v>
+      </c>
+      <c r="M863" s="5">
+        <v>1</v>
+      </c>
+      <c r="W863" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="864" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A864" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C864" s="5">
+        <v>7</v>
+      </c>
+      <c r="D864" s="5">
+        <v>72</v>
+      </c>
+      <c r="E864" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F864" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G864" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H864" s="5">
+        <v>1</v>
+      </c>
+      <c r="M864" s="5">
+        <v>1</v>
+      </c>
+      <c r="W864" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A865" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C865" s="5">
+        <v>7</v>
+      </c>
+      <c r="D865" s="5">
+        <v>72</v>
+      </c>
+      <c r="E865" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F865" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G865" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H865" s="5">
+        <v>1</v>
+      </c>
+      <c r="K865" s="5">
+        <v>1</v>
+      </c>
+      <c r="M865" s="5">
+        <v>1</v>
+      </c>
+      <c r="W865" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A866" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C866" s="5">
+        <v>7</v>
+      </c>
+      <c r="D866" s="5">
+        <v>73</v>
+      </c>
+      <c r="E866" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F866" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G866" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J866" s="5">
+        <v>1</v>
+      </c>
+      <c r="S866" s="5">
+        <v>2</v>
+      </c>
+      <c r="T866" s="5">
+        <v>1</v>
+      </c>
+      <c r="W866" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="867" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A867" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C867" s="5">
+        <v>7</v>
+      </c>
+      <c r="D867" s="5">
+        <v>73</v>
+      </c>
+      <c r="E867" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F867" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G867" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J867" s="5">
+        <v>1</v>
+      </c>
+      <c r="W867" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A868" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C868" s="5">
+        <v>7</v>
+      </c>
+      <c r="D868" s="5">
+        <v>73</v>
+      </c>
+      <c r="E868" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F868" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G868" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J868" s="5">
+        <v>1</v>
+      </c>
+      <c r="K868" s="5">
+        <v>1</v>
+      </c>
+      <c r="W868" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A869" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C869" s="5">
+        <v>7</v>
+      </c>
+      <c r="D869" s="5">
+        <v>73</v>
+      </c>
+      <c r="E869" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F869" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G869" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J869" s="5">
+        <v>1</v>
+      </c>
+      <c r="W869" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="870" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A870" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C870" s="5">
+        <v>7</v>
+      </c>
+      <c r="D870" s="5">
+        <v>73</v>
+      </c>
+      <c r="E870" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F870" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G870" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J870" s="5">
+        <v>1</v>
+      </c>
+      <c r="W870" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A871" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C871" s="5">
+        <v>7</v>
+      </c>
+      <c r="D871" s="5">
+        <v>73</v>
+      </c>
+      <c r="E871" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F871" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G871" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J871" s="5">
+        <v>1</v>
+      </c>
+      <c r="L871" s="5">
+        <v>1</v>
+      </c>
+      <c r="W871" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A872" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C872" s="5">
+        <v>7</v>
+      </c>
+      <c r="D872" s="5">
+        <v>73</v>
+      </c>
+      <c r="E872" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F872" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G872" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H872" s="5">
+        <v>1</v>
+      </c>
+      <c r="S872" s="5">
+        <v>1</v>
+      </c>
+      <c r="W872" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A873" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C873" s="5">
+        <v>7</v>
+      </c>
+      <c r="D873" s="5">
+        <v>73</v>
+      </c>
+      <c r="E873" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F873" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G873" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H873" s="5">
+        <v>1</v>
+      </c>
+      <c r="O873" s="5">
+        <v>1</v>
+      </c>
+      <c r="W873" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A874" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C874" s="5">
+        <v>7</v>
+      </c>
+      <c r="D874" s="5">
+        <v>73</v>
+      </c>
+      <c r="E874" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F874" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G874" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H874" s="5">
+        <v>1</v>
+      </c>
+      <c r="W874" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="875" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A875" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C875" s="5">
+        <v>7</v>
+      </c>
+      <c r="D875" s="5">
+        <v>73</v>
+      </c>
+      <c r="E875" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F875" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G875" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H875" s="5">
+        <v>1</v>
+      </c>
+      <c r="W875" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="876" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A876" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C876" s="5">
+        <v>7</v>
+      </c>
+      <c r="D876" s="5">
+        <v>73</v>
+      </c>
+      <c r="E876" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F876" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G876" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H876" s="5">
+        <v>1</v>
+      </c>
+      <c r="L876" s="5">
+        <v>1</v>
+      </c>
+      <c r="W876" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="877" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A877" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C877" s="5">
+        <v>7</v>
+      </c>
+      <c r="D877" s="5">
+        <v>73</v>
+      </c>
+      <c r="E877" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F877" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G877" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H877" s="5">
+        <v>1</v>
+      </c>
+      <c r="K877" s="5">
+        <v>2</v>
+      </c>
+      <c r="W877" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="878" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A878" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C878" s="5">
+        <v>7</v>
+      </c>
+      <c r="D878" s="5">
+        <v>74</v>
+      </c>
+      <c r="E878" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F878" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G878" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H878" s="5">
+        <v>1</v>
+      </c>
+      <c r="M878" s="5">
+        <v>1</v>
+      </c>
+      <c r="W878" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="879" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A879" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C879" s="5">
+        <v>7</v>
+      </c>
+      <c r="D879" s="5">
+        <v>74</v>
+      </c>
+      <c r="E879" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F879" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G879" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H879" s="5">
+        <v>1</v>
+      </c>
+      <c r="M879" s="5">
+        <v>1</v>
+      </c>
+      <c r="W879" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="880" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A880" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C880" s="5">
+        <v>7</v>
+      </c>
+      <c r="D880" s="5">
+        <v>74</v>
+      </c>
+      <c r="E880" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F880" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G880" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H880" s="5">
+        <v>1</v>
+      </c>
+      <c r="M880" s="5">
+        <v>1</v>
+      </c>
+      <c r="W880" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A881" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C881" s="5">
+        <v>7</v>
+      </c>
+      <c r="D881" s="5">
+        <v>74</v>
+      </c>
+      <c r="E881" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F881" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G881" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H881" s="5">
+        <v>1</v>
+      </c>
+      <c r="M881" s="5">
+        <v>1</v>
+      </c>
+      <c r="W881" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="882" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A882" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C882" s="5">
+        <v>7</v>
+      </c>
+      <c r="D882" s="5">
+        <v>74</v>
+      </c>
+      <c r="E882" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F882" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G882" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H882" s="5">
+        <v>1</v>
+      </c>
+      <c r="K882" s="5">
+        <v>1</v>
+      </c>
+      <c r="M882" s="5">
+        <v>1</v>
+      </c>
+      <c r="V882" s="5">
+        <v>1</v>
+      </c>
+      <c r="W882" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="883" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A883" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C883" s="5">
+        <v>7</v>
+      </c>
+      <c r="D883" s="5">
+        <v>74</v>
+      </c>
+      <c r="E883" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F883" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G883" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H883" s="5">
+        <v>1</v>
+      </c>
+      <c r="L883" s="5">
+        <v>1</v>
+      </c>
+      <c r="M883" s="5">
+        <v>1</v>
+      </c>
+      <c r="V883" s="5">
+        <v>1</v>
+      </c>
+      <c r="W883" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="884" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A884" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C884" s="5">
+        <v>7</v>
+      </c>
+      <c r="D884" s="5">
+        <v>74</v>
+      </c>
+      <c r="E884" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F884" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G884" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J884" s="5">
+        <v>1</v>
+      </c>
+      <c r="S884" s="5">
+        <v>1</v>
+      </c>
+      <c r="W884" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="885" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A885" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C885" s="5">
+        <v>7</v>
+      </c>
+      <c r="D885" s="5">
+        <v>74</v>
+      </c>
+      <c r="E885" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F885" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G885" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J885" s="5">
+        <v>1</v>
+      </c>
+      <c r="W885" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="886" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A886" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C886" s="5">
+        <v>7</v>
+      </c>
+      <c r="D886" s="5">
+        <v>74</v>
+      </c>
+      <c r="E886" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F886" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G886" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J886" s="5">
+        <v>1</v>
+      </c>
+      <c r="W886" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A887" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C887" s="5">
+        <v>7</v>
+      </c>
+      <c r="D887" s="5">
+        <v>74</v>
+      </c>
+      <c r="E887" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F887" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G887" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J887" s="5">
+        <v>1</v>
+      </c>
+      <c r="W887" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A888" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C888" s="5">
+        <v>7</v>
+      </c>
+      <c r="D888" s="5">
+        <v>74</v>
+      </c>
+      <c r="E888" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F888" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G888" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J888" s="5">
+        <v>1</v>
+      </c>
+      <c r="W888" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="889" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A889" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C889" s="5">
+        <v>7</v>
+      </c>
+      <c r="D889" s="5">
+        <v>74</v>
+      </c>
+      <c r="E889" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F889" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G889" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J889" s="5">
+        <v>1</v>
+      </c>
+      <c r="W889" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="890" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A890" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C890" s="5">
+        <v>7</v>
+      </c>
+      <c r="D890" s="5">
+        <v>75</v>
+      </c>
+      <c r="E890" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F890" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G890" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J890" s="5">
+        <v>1</v>
+      </c>
+      <c r="S890" s="5">
+        <v>2</v>
+      </c>
+      <c r="W890" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="891" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A891" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C891" s="5">
+        <v>7</v>
+      </c>
+      <c r="D891" s="5">
+        <v>75</v>
+      </c>
+      <c r="E891" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F891" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G891" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J891" s="5">
+        <v>1</v>
+      </c>
+      <c r="W891" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="892" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A892" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C892" s="5">
+        <v>7</v>
+      </c>
+      <c r="D892" s="5">
+        <v>75</v>
+      </c>
+      <c r="E892" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F892" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G892" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J892" s="5">
+        <v>1</v>
+      </c>
+      <c r="W892" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="893" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A893" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C893" s="5">
+        <v>7</v>
+      </c>
+      <c r="D893" s="5">
+        <v>75</v>
+      </c>
+      <c r="E893" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F893" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G893" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J893" s="5">
+        <v>1</v>
+      </c>
+      <c r="W893" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="894" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A894" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C894" s="5">
+        <v>7</v>
+      </c>
+      <c r="D894" s="5">
+        <v>75</v>
+      </c>
+      <c r="E894" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F894" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G894" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J894" s="5">
+        <v>1</v>
+      </c>
+      <c r="W894" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="895" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A895" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C895" s="5">
+        <v>7</v>
+      </c>
+      <c r="D895" s="5">
+        <v>75</v>
+      </c>
+      <c r="E895" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F895" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G895" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J895" s="5">
+        <v>1</v>
+      </c>
+      <c r="W895" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="896" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A896" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C896" s="5">
+        <v>7</v>
+      </c>
+      <c r="D896" s="5">
+        <v>75</v>
+      </c>
+      <c r="E896" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F896" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G896" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H896" s="5">
+        <v>1</v>
+      </c>
+      <c r="M896" s="5">
+        <v>1</v>
+      </c>
+      <c r="W896" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="897" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A897" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C897" s="5">
+        <v>7</v>
+      </c>
+      <c r="D897" s="5">
+        <v>75</v>
+      </c>
+      <c r="E897" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F897" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G897" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H897" s="5">
+        <v>1</v>
+      </c>
+      <c r="M897" s="5">
+        <v>1</v>
+      </c>
+      <c r="W897" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="898" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A898" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C898" s="5">
+        <v>7</v>
+      </c>
+      <c r="D898" s="5">
+        <v>75</v>
+      </c>
+      <c r="E898" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F898" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G898" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H898" s="5">
+        <v>1</v>
+      </c>
+      <c r="M898" s="5">
+        <v>1</v>
+      </c>
+      <c r="W898" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A899" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C899" s="5">
+        <v>7</v>
+      </c>
+      <c r="D899" s="5">
+        <v>75</v>
+      </c>
+      <c r="E899" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F899" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G899" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H899" s="5">
+        <v>1</v>
+      </c>
+      <c r="K899" s="5">
+        <v>1</v>
+      </c>
+      <c r="L899" s="5">
+        <v>1</v>
+      </c>
+      <c r="M899" s="5">
+        <v>1</v>
+      </c>
+      <c r="W899" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="900" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A900" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C900" s="5">
+        <v>7</v>
+      </c>
+      <c r="D900" s="5">
+        <v>75</v>
+      </c>
+      <c r="E900" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F900" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G900" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H900" s="5">
+        <v>1</v>
+      </c>
+      <c r="K900" s="5">
+        <v>1</v>
+      </c>
+      <c r="L900" s="5">
+        <v>1</v>
+      </c>
+      <c r="M900" s="5">
+        <v>1</v>
+      </c>
+      <c r="W900" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="901" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A901" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C901" s="5">
+        <v>7</v>
+      </c>
+      <c r="D901" s="5">
+        <v>75</v>
+      </c>
+      <c r="E901" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F901" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G901" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H901" s="5">
+        <v>1</v>
+      </c>
+      <c r="M901" s="5">
+        <v>1</v>
+      </c>
+      <c r="W901" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="902" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A902" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C902" s="5">
+        <v>7</v>
+      </c>
+      <c r="D902" s="5">
+        <v>76</v>
+      </c>
+      <c r="E902" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F902" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G902" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H902" s="5">
+        <v>1</v>
+      </c>
+      <c r="S902" s="5">
+        <v>1</v>
+      </c>
+      <c r="T902" s="5">
+        <v>2</v>
+      </c>
+      <c r="W902" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="903" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A903" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C903" s="5">
+        <v>7</v>
+      </c>
+      <c r="D903" s="5">
+        <v>76</v>
+      </c>
+      <c r="E903" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F903" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G903" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H903" s="5">
+        <v>1</v>
+      </c>
+      <c r="W903" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="904" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A904" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C904" s="5">
+        <v>7</v>
+      </c>
+      <c r="D904" s="5">
+        <v>76</v>
+      </c>
+      <c r="E904" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F904" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G904" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H904" s="5">
+        <v>1</v>
+      </c>
+      <c r="W904" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="905" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A905" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C905" s="5">
+        <v>7</v>
+      </c>
+      <c r="D905" s="5">
+        <v>76</v>
+      </c>
+      <c r="E905" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F905" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G905" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H905" s="5">
+        <v>1</v>
+      </c>
+      <c r="W905" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="906" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A906" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C906" s="5">
+        <v>7</v>
+      </c>
+      <c r="D906" s="5">
+        <v>76</v>
+      </c>
+      <c r="E906" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F906" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G906" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H906" s="5">
+        <v>1</v>
+      </c>
+      <c r="K906" s="5">
+        <v>2</v>
+      </c>
+      <c r="W906" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="907" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A907" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C907" s="5">
+        <v>7</v>
+      </c>
+      <c r="D907" s="5">
+        <v>76</v>
+      </c>
+      <c r="E907" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F907" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G907" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H907" s="5">
+        <v>1</v>
+      </c>
+      <c r="L907" s="5">
+        <v>1</v>
+      </c>
+      <c r="W907" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="908" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A908" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C908" s="5">
+        <v>7</v>
+      </c>
+      <c r="D908" s="5">
+        <v>76</v>
+      </c>
+      <c r="E908" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F908" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G908" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J908" s="5">
+        <v>1</v>
+      </c>
+      <c r="S908" s="5">
+        <v>2</v>
+      </c>
+      <c r="T908" s="5">
+        <v>2</v>
+      </c>
+      <c r="W908" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A909" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C909" s="5">
+        <v>7</v>
+      </c>
+      <c r="D909" s="5">
+        <v>76</v>
+      </c>
+      <c r="E909" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F909" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G909" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J909" s="5">
+        <v>1</v>
+      </c>
+      <c r="L909" s="5">
+        <v>1</v>
+      </c>
+      <c r="W909" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A910" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C910" s="5">
+        <v>7</v>
+      </c>
+      <c r="D910" s="5">
+        <v>76</v>
+      </c>
+      <c r="E910" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F910" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G910" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J910" s="5">
+        <v>1</v>
+      </c>
+      <c r="W910" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="911" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A911" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C911" s="5">
+        <v>7</v>
+      </c>
+      <c r="D911" s="5">
+        <v>76</v>
+      </c>
+      <c r="E911" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F911" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G911" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J911" s="5">
+        <v>1</v>
+      </c>
+      <c r="K911" s="5">
+        <v>1</v>
+      </c>
+      <c r="W911" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="912" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A912" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C912" s="5">
+        <v>7</v>
+      </c>
+      <c r="D912" s="5">
+        <v>76</v>
+      </c>
+      <c r="E912" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F912" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G912" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J912" s="5">
+        <v>1</v>
+      </c>
+      <c r="W912" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="913" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A913" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C913" s="5">
+        <v>7</v>
+      </c>
+      <c r="D913" s="5">
+        <v>76</v>
+      </c>
+      <c r="E913" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F913" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G913" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J913" s="5">
+        <v>1</v>
+      </c>
+      <c r="W913" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="914" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A914" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C914" s="5">
+        <v>7</v>
+      </c>
+      <c r="D914" s="5">
+        <v>77</v>
+      </c>
+      <c r="E914" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F914" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G914" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H914" s="5">
+        <v>1</v>
+      </c>
+      <c r="S914" s="5">
+        <v>1</v>
+      </c>
+      <c r="W914" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A915" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C915" s="5">
+        <v>7</v>
+      </c>
+      <c r="D915" s="5">
+        <v>77</v>
+      </c>
+      <c r="E915" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F915" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G915" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H915" s="5">
+        <v>1</v>
+      </c>
+      <c r="K915" s="5">
+        <v>2</v>
+      </c>
+      <c r="W915" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="916" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A916" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C916" s="5">
+        <v>7</v>
+      </c>
+      <c r="D916" s="5">
+        <v>77</v>
+      </c>
+      <c r="E916" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F916" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G916" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H916" s="5">
+        <v>1</v>
+      </c>
+      <c r="W916" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="917" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A917" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C917" s="5">
+        <v>7</v>
+      </c>
+      <c r="D917" s="5">
+        <v>77</v>
+      </c>
+      <c r="E917" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F917" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G917" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H917" s="5">
+        <v>1</v>
+      </c>
+      <c r="W917" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="918" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A918" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C918" s="5">
+        <v>7</v>
+      </c>
+      <c r="D918" s="5">
+        <v>77</v>
+      </c>
+      <c r="E918" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F918" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G918" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H918" s="5">
+        <v>1</v>
+      </c>
+      <c r="W918" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="919" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A919" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C919" s="5">
+        <v>7</v>
+      </c>
+      <c r="D919" s="5">
+        <v>77</v>
+      </c>
+      <c r="E919" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F919" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G919" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H919" s="5">
+        <v>1</v>
+      </c>
+      <c r="W919" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A920" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C920" s="5">
+        <v>7</v>
+      </c>
+      <c r="D920" s="5">
+        <v>77</v>
+      </c>
+      <c r="E920" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F920" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G920" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J920" s="5">
+        <v>1</v>
+      </c>
+      <c r="S920" s="5">
+        <v>2</v>
+      </c>
+      <c r="W920" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="921" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A921" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C921" s="5">
+        <v>7</v>
+      </c>
+      <c r="D921" s="5">
+        <v>77</v>
+      </c>
+      <c r="E921" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F921" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G921" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J921" s="5">
+        <v>1</v>
+      </c>
+      <c r="W921" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="922" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A922" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C922" s="5">
+        <v>7</v>
+      </c>
+      <c r="D922" s="5">
+        <v>77</v>
+      </c>
+      <c r="E922" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F922" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G922" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J922" s="5">
+        <v>1</v>
+      </c>
+      <c r="W922" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="923" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A923" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C923" s="5">
+        <v>7</v>
+      </c>
+      <c r="D923" s="5">
+        <v>77</v>
+      </c>
+      <c r="E923" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F923" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G923" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J923" s="5">
+        <v>1</v>
+      </c>
+      <c r="W923" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="924" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A924" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C924" s="5">
+        <v>7</v>
+      </c>
+      <c r="D924" s="5">
+        <v>77</v>
+      </c>
+      <c r="E924" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F924" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G924" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J924" s="5">
+        <v>1</v>
+      </c>
+      <c r="K924" s="5">
+        <v>1</v>
+      </c>
+      <c r="W924" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A925" s="9">
+        <v>45362</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C925" s="5">
+        <v>7</v>
+      </c>
+      <c r="D925" s="5">
+        <v>77</v>
+      </c>
+      <c r="E925" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F925" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G925" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J925" s="5">
+        <v>1</v>
+      </c>
+      <c r="L925" s="5">
+        <v>1</v>
+      </c>
+      <c r="W925" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="G928" s="3"/>
@@ -46487,7 +49964,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W409"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13">
       <formula1>0</formula1>
       <formula2>99999</formula2>
